--- a/on_trucks/Processed_Stand_Alone/48_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/48_455-55R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>122</v>
       </c>
       <c r="E2">
-        <v>0.0007025596489771537</v>
+        <v>0.0006972086426067162</v>
       </c>
       <c r="F2">
         <v>0.5173644936261065</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>123</v>
       </c>
       <c r="E3">
-        <v>0.01736365688691218</v>
+        <v>0.01717146190835171</v>
       </c>
       <c r="F3">
         <v>0.5206781887148311</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>124</v>
       </c>
       <c r="E4">
-        <v>0.01866605127043926</v>
+        <v>0.01819074046114215</v>
       </c>
       <c r="F4">
         <v>0.5050286907893266</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>124</v>
       </c>
       <c r="E5">
-        <v>0.02562381655791377</v>
+        <v>0.02555204893951814</v>
       </c>
       <c r="F5">
         <v>0.5111070240105471</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>123</v>
       </c>
       <c r="E6">
-        <v>0.02560828860338248</v>
+        <v>0.02508668387264054</v>
       </c>
       <c r="F6">
         <v>0.5207287679012437</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>48</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>143</v>
       </c>
       <c r="E2">
-        <v>0.0007025596489771537</v>
+        <v>0.0006972086426067162</v>
       </c>
       <c r="F2">
         <v>0.7571275895410564</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>142</v>
       </c>
       <c r="E3">
-        <v>0.01736365688691218</v>
+        <v>0.01717146190835171</v>
       </c>
       <c r="F3">
         <v>0.7118034823226617</v>
       </c>
       <c r="G3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>144</v>
       </c>
       <c r="E4">
-        <v>0.01866605127043926</v>
+        <v>0.01819074046114215</v>
       </c>
       <c r="F4">
         <v>0.7214623087677829</v>
       </c>
       <c r="G4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>144</v>
       </c>
       <c r="E5">
-        <v>0.02562381655791377</v>
+        <v>0.02555204893951814</v>
       </c>
       <c r="F5">
         <v>0.7170624364024252</v>
       </c>
       <c r="G5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>143</v>
       </c>
       <c r="E6">
-        <v>0.02560828860338248</v>
+        <v>0.02508668387264054</v>
       </c>
       <c r="F6">
         <v>0.7259437368642644</v>
       </c>
       <c r="G6">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H6">
         <v>48</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>153</v>
       </c>
       <c r="E2">
-        <v>0.0007025596489771537</v>
+        <v>0.0006972086426067162</v>
       </c>
       <c r="F2">
         <v>0.8234900735706784</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>151</v>
       </c>
       <c r="E3">
-        <v>0.01736365688691218</v>
+        <v>0.01717146190835171</v>
       </c>
       <c r="F3">
         <v>0.8026706364012368</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>155</v>
       </c>
       <c r="E4">
-        <v>0.01866605127043926</v>
+        <v>0.01819074046114215</v>
       </c>
       <c r="F4">
         <v>0.8217365454691542</v>
       </c>
       <c r="G4">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>155</v>
       </c>
       <c r="E5">
-        <v>0.02562381655791377</v>
+        <v>0.02555204893951814</v>
       </c>
       <c r="F5">
         <v>0.8223237888290932</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>153</v>
       </c>
       <c r="E6">
-        <v>0.02560828860338248</v>
+        <v>0.02508668387264054</v>
       </c>
       <c r="F6">
         <v>0.8086895037637727</v>
       </c>
       <c r="G6">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <v>48</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>171</v>
       </c>
       <c r="E2">
-        <v>0.0007025596489771537</v>
+        <v>0.0006972086426067162</v>
       </c>
       <c r="F2">
         <v>0.9009615463685047</v>
       </c>
       <c r="G2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>170</v>
       </c>
       <c r="E3">
-        <v>0.01736365688691218</v>
+        <v>0.01717146190835171</v>
       </c>
       <c r="F3">
         <v>0.9042588623133349</v>
       </c>
       <c r="G3">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>175</v>
       </c>
       <c r="E4">
-        <v>0.01866605127043926</v>
+        <v>0.01819074046114215</v>
       </c>
       <c r="F4">
         <v>0.9071240888063405</v>
       </c>
       <c r="G4">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>175</v>
       </c>
       <c r="E5">
-        <v>0.02562381655791377</v>
+        <v>0.02555204893951814</v>
       </c>
       <c r="F5">
         <v>0.9023127321401576</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>173</v>
       </c>
       <c r="E6">
-        <v>0.02560828860338248</v>
+        <v>0.02508668387264054</v>
       </c>
       <c r="F6">
         <v>0.9018799464522229</v>
       </c>
       <c r="G6">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H6">
         <v>48</v>

--- a/on_trucks/Processed_Stand_Alone/48_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/48_455-55R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>5.275012076538113E-05</v>
+        <v>5.247896234417397E-05</v>
       </c>
       <c r="C2">
-        <v>5.74956713844228E-05</v>
+        <v>5.722476334233911E-05</v>
       </c>
       <c r="D2">
-        <v>1.675218165518593E-05</v>
+        <v>1.647912395333366E-05</v>
       </c>
       <c r="E2">
-        <v>1.645007467943816E-06</v>
+        <v>1.371152699252568E-06</v>
       </c>
       <c r="F2">
-        <v>2.11914662988137E-06</v>
+        <v>1.845316877159247E-06</v>
       </c>
       <c r="G2">
-        <v>6.604651969798678E-08</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.739271080099669E-07</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5.560993553580393E-08</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.32761077231565E-06</v>
+        <v>5.053950300780087E-06</v>
       </c>
       <c r="K2">
-        <v>6.628292667900873E-06</v>
+        <v>6.354700821403598E-06</v>
       </c>
       <c r="L2">
-        <v>1.138187108629809E-05</v>
+        <v>1.110853004247753E-05</v>
       </c>
       <c r="M2">
-        <v>2.018274237979098E-05</v>
+        <v>1.990986567712219E-05</v>
       </c>
       <c r="N2">
-        <v>7.563456392828781E-07</v>
+        <v>4.824439840683194E-07</v>
       </c>
       <c r="O2">
-        <v>6.884411047340471E-07</v>
+        <v>4.145358668208292E-07</v>
       </c>
       <c r="P2">
-        <v>9.900561205213133E-07</v>
+        <v>7.161667960624741E-07</v>
       </c>
       <c r="Q2">
-        <v>3.077265552966504E-06</v>
+        <v>2.803486351380677E-06</v>
       </c>
       <c r="R2">
-        <v>2.032983836798256E-08</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1.005756119260965E-06</v>
+        <v>7.31867623146872E-07</v>
       </c>
       <c r="T2">
-        <v>3.442163223673631E-06</v>
+        <v>3.168403274386701E-06</v>
       </c>
       <c r="U2">
-        <v>2.11914662988137E-06</v>
+        <v>1.845316877159247E-06</v>
       </c>
       <c r="V2">
-        <v>3.64269240757576E-06</v>
+        <v>3.368943038372223E-06</v>
       </c>
       <c r="W2">
-        <v>5.513665257379764E-06</v>
+        <v>5.24001460223067E-06</v>
       </c>
       <c r="X2">
-        <v>8.868715288046577E-07</v>
+        <v>6.129767602425514E-07</v>
       </c>
       <c r="Y2">
-        <v>2.627709189055518E-06</v>
+        <v>2.353906268509051E-06</v>
       </c>
       <c r="Z2">
-        <v>7.004514737698912E-06</v>
+        <v>6.730942740985072E-06</v>
       </c>
       <c r="AA2">
-        <v>5.665443045195506E-06</v>
+        <v>5.391800397966362E-06</v>
       </c>
       <c r="AB2">
-        <v>1.155477107241821E-06</v>
+        <v>8.815965105292398E-07</v>
       </c>
       <c r="AC2">
-        <v>3.870355289299678E-06</v>
+        <v>3.596617931775575E-06</v>
       </c>
       <c r="AD2">
-        <v>1.123942509773322E-05</v>
+        <v>1.096607653834606E-05</v>
       </c>
       <c r="AE2">
-        <v>5.857255929797352E-06</v>
+        <v>5.583623402772537E-06</v>
       </c>
       <c r="AF2">
-        <v>2.057937334795065E-06</v>
+        <v>1.784104352620581E-06</v>
       </c>
       <c r="AG2">
-        <v>2.627709189055518E-06</v>
+        <v>2.353906268509051E-06</v>
       </c>
       <c r="AH2">
-        <v>1.071170014009737E-06</v>
+        <v>7.972849691861149E-07</v>
       </c>
       <c r="AI2">
-        <v>2.652894887033687E-05</v>
+        <v>2.625640699870161E-05</v>
       </c>
       <c r="AJ2">
-        <v>2.791874175876854E-05</v>
+        <v>2.764627321374028E-05</v>
       </c>
       <c r="AK2">
-        <v>2.694216083716547E-05</v>
+        <v>2.666964076693081E-05</v>
       </c>
       <c r="AL2">
-        <v>1.693534464048217E-06</v>
+        <v>1.419682255680885E-06</v>
       </c>
       <c r="AM2">
-        <v>6.237298799288669E-07</v>
+        <v>3.49821227798618E-07</v>
       </c>
       <c r="AN2">
-        <v>3.077265552966504E-06</v>
+        <v>2.803486351380677E-06</v>
       </c>
       <c r="AO2">
-        <v>1.005756119260965E-06</v>
+        <v>7.31867623146872E-07</v>
       </c>
       <c r="AP2">
-        <v>8.60933730886865E-06</v>
+        <v>8.335849983903349E-06</v>
       </c>
       <c r="AQ2">
-        <v>1.819955153899549E-05</v>
+        <v>1.792657020155948E-05</v>
       </c>
       <c r="AR2">
-        <v>1.364094490494653E-05</v>
+        <v>1.336772305170426E-05</v>
       </c>
       <c r="AS2">
-        <v>6.604651969798678E-08</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>9.084694270708442E-06</v>
+        <v>8.811232025964383E-06</v>
       </c>
       <c r="AU2">
-        <v>8.299527333739251E-06</v>
+        <v>8.026023662946828E-06</v>
       </c>
       <c r="AV2">
-        <v>7.117060128664112E-06</v>
+        <v>6.843494069936947E-06</v>
       </c>
       <c r="AW2">
-        <v>1.267482698250353E-05</v>
+        <v>1.240155415609123E-05</v>
       </c>
       <c r="AX2">
-        <v>3.64269240757576E-06</v>
+        <v>3.368943038372223E-06</v>
       </c>
       <c r="AY2">
-        <v>1.414538286445179E-06</v>
+        <v>1.140671358011831E-06</v>
       </c>
       <c r="AZ2">
-        <v>8.070897352092969E-06</v>
+        <v>7.797381618596131E-06</v>
       </c>
       <c r="BA2">
-        <v>1.423764635704516E-05</v>
+        <v>1.396445598625846E-05</v>
       </c>
       <c r="BB2">
-        <v>2.315710614101812E-05</v>
+        <v>2.288438636820873E-05</v>
       </c>
       <c r="BC2">
-        <v>2.102915631184345E-05</v>
+        <v>2.075632426666447E-05</v>
       </c>
       <c r="BD2">
-        <v>1.267482698250353E-05</v>
+        <v>1.240155415609123E-05</v>
       </c>
       <c r="BE2">
-        <v>7.117060128664112E-06</v>
+        <v>6.843494069936947E-06</v>
       </c>
       <c r="BF2">
-        <v>8.845419289916708E-06</v>
+        <v>8.571944420829391E-06</v>
       </c>
       <c r="BG2">
-        <v>1.599766471575625E-05</v>
+        <v>1.57245672049745E-05</v>
       </c>
       <c r="BH2">
-        <v>3.104897550748291E-06</v>
+        <v>2.831119807049218E-06</v>
       </c>
       <c r="BI2">
-        <v>7.605206389477219E-08</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>1.071170014009737E-06</v>
+        <v>7.972849691861149E-07</v>
       </c>
       <c r="BK2">
-        <v>2.522077197535332E-07</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>7.427388403751905E-07</v>
+        <v>4.688364672548169E-07</v>
       </c>
       <c r="BM2">
-        <v>1.155477107241821E-06</v>
+        <v>8.815965105292398E-07</v>
       </c>
       <c r="BN2">
-        <v>7.217615720591816E-06</v>
+        <v>6.944054967259743E-06</v>
       </c>
       <c r="BO2">
-        <v>3.036281456256582E-05</v>
+        <v>3.009047496881328E-05</v>
       </c>
       <c r="BP2">
-        <v>2.834259572474283E-05</v>
+        <v>2.807014954259572E-05</v>
       </c>
       <c r="BQ2">
-        <v>2.169522525837346E-05</v>
+        <v>2.142242835553568E-05</v>
       </c>
       <c r="BR2">
-        <v>1.59113217226876E-06</v>
+        <v>1.317274561072945E-06</v>
       </c>
       <c r="BS2">
-        <v>2.739271080099669E-07</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>4.638818227609816E-06</v>
+        <v>4.365121414817476E-06</v>
       </c>
       <c r="BU2">
-        <v>7.427388403751905E-07</v>
+        <v>4.688364672548169E-07</v>
       </c>
       <c r="BV2">
-        <v>4.561020933855146E-07</v>
+        <v>1.821845970764477E-07</v>
       </c>
       <c r="BW2">
-        <v>1.071170014009737E-06</v>
+        <v>7.972849691861149E-07</v>
       </c>
       <c r="BX2">
-        <v>1.361685590688033E-07</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>8.845419289916708E-06</v>
+        <v>8.571944420829391E-06</v>
       </c>
       <c r="BZ2">
-        <v>1.567962174128777E-05</v>
+        <v>1.540650745029914E-05</v>
       </c>
       <c r="CA2">
-        <v>7.331854111421106E-06</v>
+        <v>7.058299385399762E-06</v>
       </c>
       <c r="CB2">
-        <v>5.513665257379764E-06</v>
+        <v>5.24001460223067E-06</v>
       </c>
       <c r="CC2">
-        <v>2.00440783909225E-06</v>
+        <v>1.730572032657888E-06</v>
       </c>
       <c r="CD2">
-        <v>7.549841393921752E-06</v>
+        <v>7.276298169087331E-06</v>
       </c>
       <c r="CE2">
-        <v>2.524671797327046E-06</v>
+        <v>2.250863440443703E-06</v>
       </c>
       <c r="CF2">
-        <v>6.156910705741981E-06</v>
+        <v>5.883293988747691E-06</v>
       </c>
       <c r="CG2">
-        <v>1.325024093631106E-05</v>
+        <v>1.297699846920855E-05</v>
       </c>
       <c r="CH2">
-        <v>3.13571774827414E-08</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>3.714732101792633E-06</v>
+        <v>3.440986533462154E-06</v>
       </c>
       <c r="CJ2">
-        <v>7.975505859750706E-09</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>2.893185167743916E-06</v>
+        <v>2.619396253926738E-06</v>
       </c>
       <c r="CL2">
-        <v>2.457821202693608E-06</v>
+        <v>2.184009318718336E-06</v>
       </c>
       <c r="CM2">
-        <v>8.817407892165378E-11</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1069498114143952</v>
+        <v>0.1069551802321658</v>
       </c>
       <c r="CO2">
-        <v>0.003550546214972975</v>
+        <v>0.003550459603128224</v>
       </c>
       <c r="CP2">
-        <v>0.05725331140387872</v>
+        <v>0.05725605819375177</v>
       </c>
       <c r="CQ2">
-        <v>0.01125099109680474</v>
+        <v>0.01125131076671623</v>
       </c>
       <c r="CR2">
-        <v>0.02526451797184152</v>
+        <v>0.02526557700686728</v>
       </c>
       <c r="CS2">
-        <v>0.005905649125912494</v>
+        <v>0.005905686771219307</v>
       </c>
       <c r="CT2">
-        <v>0.009472698239560666</v>
+        <v>0.009472924085289759</v>
       </c>
       <c r="CU2">
-        <v>0.006983775439363801</v>
+        <v>0.006983869967494762</v>
       </c>
       <c r="CV2">
-        <v>0.006246148998578203</v>
+        <v>0.006246204608936178</v>
       </c>
       <c r="CW2">
-        <v>0.004612970629684783</v>
+        <v>0.004612940072219189</v>
       </c>
       <c r="CX2">
-        <v>0.01327462493435358</v>
+        <v>0.01327505137283782</v>
       </c>
       <c r="CY2">
-        <v>0.06787522455118392</v>
+        <v>0.06787853176186309</v>
       </c>
       <c r="CZ2">
-        <v>0.01740584860271154</v>
+        <v>0.01740649300792798</v>
       </c>
       <c r="DA2">
-        <v>0.05766197537107243</v>
+        <v>0.0576647437223899</v>
       </c>
       <c r="DB2">
-        <v>0.0007366192408664532</v>
+        <v>0.0007363841639381231</v>
       </c>
       <c r="DC2">
-        <v>0.03677753104761194</v>
+        <v>0.03677919751860326</v>
       </c>
       <c r="DD2">
-        <v>0.009601235229242109</v>
+        <v>0.009601467856687675</v>
       </c>
       <c r="DE2">
-        <v>0.01684949864737362</v>
+        <v>0.01685011369911238</v>
       </c>
       <c r="DF2">
-        <v>0.0002153232827145034</v>
+        <v>0.0002150607017859954</v>
       </c>
       <c r="DG2">
-        <v>0.0001002432969527738</v>
+        <v>9.997464431030108E-05</v>
       </c>
       <c r="DH2">
-        <v>0.002182762824774455</v>
+        <v>0.002182604047561799</v>
       </c>
       <c r="DI2">
-        <v>0.002558050494647505</v>
+        <v>0.002557911517918582</v>
       </c>
       <c r="DJ2">
-        <v>0.006044824514739918</v>
+        <v>0.006044869503053826</v>
       </c>
       <c r="DK2">
-        <v>0.0001230106801250777</v>
+        <v>0.0001227432287083214</v>
       </c>
       <c r="DL2">
-        <v>0.002596470591563257</v>
+        <v>0.002596333641910001</v>
       </c>
       <c r="DM2">
-        <v>0.001488569080502213</v>
+        <v>0.001488373677061083</v>
       </c>
       <c r="DN2">
-        <v>0.004479005640439083</v>
+        <v>0.00447896801487133</v>
       </c>
       <c r="DO2">
-        <v>0.005533003255827368</v>
+        <v>0.005533021240033962</v>
       </c>
       <c r="DP2">
-        <v>0.005830148531973451</v>
+        <v>0.005830182193807312</v>
       </c>
       <c r="DQ2">
-        <v>0.005052506094400215</v>
+        <v>0.005052498727184442</v>
       </c>
       <c r="DR2">
-        <v>0.0001673642565645078</v>
+        <v>0.0001670991452786411</v>
       </c>
       <c r="DS2">
-        <v>0.02261767318432216</v>
+        <v>0.02261859256965685</v>
       </c>
       <c r="DT2">
-        <v>0.01871590549754417</v>
+        <v>0.01871661902243151</v>
       </c>
       <c r="DU2">
-        <v>2.237078820414133E-06</v>
+        <v>1.963255289890627E-06</v>
       </c>
       <c r="DV2">
-        <v>0.002835188572399706</v>
+        <v>0.002835064217701935</v>
       </c>
       <c r="DW2">
-        <v>0.0003868547189444826</v>
+        <v>0.0003866011881545358</v>
       </c>
       <c r="DX2">
-        <v>6.401517986105654E-05</v>
+        <v>6.37446157935606E-05</v>
       </c>
       <c r="DY2">
-        <v>1.45956328283071E-06</v>
+        <v>1.185698729952916E-06</v>
       </c>
       <c r="DZ2">
-        <v>0.0004916261105337548</v>
+        <v>0.0004913781075679312</v>
       </c>
       <c r="EA2">
-        <v>0.004221789161087638</v>
+        <v>0.004221737964568521</v>
       </c>
       <c r="EB2">
-        <v>0.005357256569935776</v>
+        <v>0.005357265281603797</v>
       </c>
       <c r="EC2">
-        <v>3.796814695203292E-06</v>
+        <v>3.523073457617429E-06</v>
       </c>
       <c r="ED2">
-        <v>3.104028750818036E-05</v>
+        <v>3.076798365845331E-05</v>
       </c>
       <c r="EE2">
-        <v>0.001739891460326818</v>
+        <v>0.00173970931685955</v>
       </c>
       <c r="EF2">
-        <v>0.001000068519717548</v>
+        <v>0.0009998473425881695</v>
       </c>
       <c r="EG2">
-        <v>0.01877426049285961</v>
+        <v>0.01877497709660412</v>
       </c>
       <c r="EH2">
-        <v>0.03800861694878412</v>
+        <v>0.03801034837287226</v>
       </c>
       <c r="EI2">
-        <v>0.01320106794025851</v>
+        <v>0.01320149049781571</v>
       </c>
       <c r="EJ2">
-        <v>0.0004577317932546872</v>
+        <v>0.0004574820019970232</v>
       </c>
       <c r="EK2">
-        <v>0.002555908794819435</v>
+        <v>0.00255576970509268</v>
       </c>
       <c r="EL2">
-        <v>0.02573669693393644</v>
+        <v>0.02573778088150958</v>
       </c>
       <c r="EM2">
-        <v>0.04641804827370061</v>
+        <v>0.04642022338624834</v>
       </c>
       <c r="EN2">
-        <v>0.05975963520267869</v>
+        <v>0.05976251422824076</v>
       </c>
       <c r="EO2">
-        <v>0.01092282812314866</v>
+        <v>0.01092313047891385</v>
       </c>
       <c r="EP2">
-        <v>0.0001230106801250777</v>
+        <v>0.0001227432287083214</v>
       </c>
       <c r="EQ2">
-        <v>0.0008366852928334556</v>
+        <v>0.0008364554954716905</v>
       </c>
       <c r="ER2">
-        <v>0.001481383481079051</v>
+        <v>0.001481187698519831</v>
       </c>
       <c r="ES2">
-        <v>3.454764422662045E-05</v>
+        <v>3.42755254278962E-05</v>
       </c>
       <c r="ET2">
-        <v>0.0001792864456074308</v>
+        <v>0.0001790219633459876</v>
       </c>
       <c r="EU2">
-        <v>0.003692556303572838</v>
+        <v>0.003692477184296255</v>
       </c>
       <c r="EV2">
-        <v>0.01133191909030809</v>
+        <v>0.01133224303004656</v>
       </c>
       <c r="EW2">
-        <v>0.0110025691167473</v>
+        <v>0.01100287567971238</v>
       </c>
       <c r="EX2">
-        <v>0.0267576978519736</v>
+        <v>0.0267588356683884</v>
       </c>
       <c r="EY2">
-        <v>0.02896264867496687</v>
+        <v>0.02896390282638654</v>
       </c>
       <c r="EZ2">
-        <v>0.002668345785793336</v>
+        <v>0.002668212628333984</v>
       </c>
       <c r="FA2">
-        <v>0.005166754185228727</v>
+        <v>0.005166752845835463</v>
       </c>
       <c r="FB2">
-        <v>0.001464004882474152</v>
+        <v>0.001463808183005887</v>
       </c>
       <c r="FC2">
-        <v>0.009203472261173308</v>
+        <v>0.009203683902320067</v>
       </c>
       <c r="FD2">
-        <v>0.009530889234889272</v>
+        <v>0.009531118150822766</v>
       </c>
       <c r="FE2">
-        <v>3.864073389803969E-05</v>
+        <v>3.836883105406684E-05</v>
       </c>
       <c r="FF2">
-        <v>0.0007567014392543156</v>
+        <v>0.0007564674218791614</v>
       </c>
       <c r="FG2">
-        <v>0.001329240593292618</v>
+        <v>0.001329036783550476</v>
       </c>
       <c r="FH2">
-        <v>0.0007945345662171876</v>
+        <v>0.0007943025449486873</v>
       </c>
       <c r="FI2">
-        <v>0.0003350583131025402</v>
+        <v>0.0003348020494919505</v>
       </c>
       <c r="FJ2">
-        <v>0.0001123219509831362</v>
+        <v>0.0001120539356203075</v>
       </c>
       <c r="FK2">
-        <v>0.0005026676596473728</v>
+        <v>0.0005024202392426915</v>
       </c>
       <c r="FL2">
-        <v>0.0004343355151328691</v>
+        <v>0.0004340844894684779</v>
       </c>
       <c r="FM2">
-        <v>0.0009936850202299963</v>
+        <v>0.0009934635063019749</v>
       </c>
       <c r="FN2">
-        <v>0.003087362752155931</v>
+        <v>0.003087251702373682</v>
       </c>
       <c r="FO2">
-        <v>0.009365177248192124</v>
+        <v>0.009365397421025963</v>
       </c>
       <c r="FP2">
-        <v>0.002725631981194575</v>
+        <v>0.002725501846201643</v>
       </c>
       <c r="FQ2">
-        <v>2.674754985278825E-05</v>
+        <v>2.647501951471923E-05</v>
       </c>
       <c r="FR2">
-        <v>0.01006078219235108</v>
+        <v>0.01006103906586945</v>
       </c>
       <c r="FS2">
-        <v>0.005862738029357266</v>
+        <v>0.005862773410639606</v>
       </c>
       <c r="FT2">
-        <v>0.00295209716301464</v>
+        <v>0.002951978976509518</v>
       </c>
       <c r="FU2">
-        <v>0.01086052612815007</v>
+        <v>0.01086082519681116</v>
       </c>
       <c r="FV2">
-        <v>0.008059688352992792</v>
+        <v>0.008059839647167121</v>
       </c>
       <c r="FW2">
-        <v>0.002779564376865047</v>
+        <v>0.002779437087389325</v>
       </c>
       <c r="FX2">
-        <v>0.003969509681339865</v>
+        <v>0.003969445174349513</v>
       </c>
       <c r="FY2">
-        <v>0.0008510707316786365</v>
+        <v>0.0008508416933043647</v>
       </c>
       <c r="FZ2">
-        <v>0.003764123797827618</v>
+        <v>0.003764048454510437</v>
       </c>
       <c r="GA2">
-        <v>0.002007929838809514</v>
+        <v>0.002007761837265839</v>
       </c>
       <c r="GB2">
-        <v>0.0005829276532043453</v>
+        <v>0.0005826844673824237</v>
       </c>
       <c r="GC2">
-        <v>0.009383230246742884</v>
+        <v>0.009383451372067661</v>
       </c>
       <c r="GD2">
-        <v>0.007229463419640718</v>
+        <v>0.007229570910470023</v>
       </c>
       <c r="GE2">
-        <v>0.00141649188628835</v>
+        <v>0.001416292679995632</v>
       </c>
       <c r="GF2">
-        <v>0.0003070983253470828</v>
+        <v>0.0003068405865447211</v>
       </c>
       <c r="GG2">
-        <v>0.0006782425455527563</v>
+        <v>0.0006780043886223408</v>
       </c>
       <c r="GH2">
-        <v>0.006952644441862902</v>
+        <v>0.00695273732749703</v>
       </c>
       <c r="GI2">
-        <v>0.006636472467244225</v>
+        <v>0.006636548671386947</v>
       </c>
       <c r="GJ2">
-        <v>0.001267809998224079</v>
+        <v>0.001267602947353608</v>
       </c>
       <c r="GK2">
-        <v>0.0001600066071551574</v>
+        <v>0.0001597411076737034</v>
       </c>
       <c r="GL2">
-        <v>0.002216495122066529</v>
+        <v>0.002216338124597407</v>
       </c>
       <c r="GM2">
-        <v>0.002177787525173857</v>
+        <v>0.002177628485460334</v>
       </c>
       <c r="GN2">
-        <v>0.001301618995509995</v>
+        <v>0.001301413728429813</v>
       </c>
       <c r="GO2">
-        <v>6.098075510465091E-05</v>
+        <v>6.071003093842845E-05</v>
       </c>
       <c r="GP2">
-        <v>0.0004884359607898502</v>
+        <v>0.0004881877895091228</v>
       </c>
       <c r="GQ2">
-        <v>0.001050742615649586</v>
+        <v>0.001050524112126864</v>
       </c>
       <c r="GR2">
-        <v>0.003178311444854847</v>
+        <v>0.003178205193599847</v>
       </c>
       <c r="GS2">
-        <v>0.002754915778843761</v>
+        <v>0.002754787188887892</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.17133825217208E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.362852349783378E-09</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4.061032680880732E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8.130017862115672E-05</v>
+        <v>1.981680016621858E-06</v>
       </c>
       <c r="F3">
-        <v>0.0003853917471655701</v>
+        <v>0.0003101144402020141</v>
       </c>
       <c r="G3">
-        <v>8.258704867847465E-05</v>
+        <v>3.285651792818583E-06</v>
       </c>
       <c r="H3">
-        <v>9.118533406144722E-06</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.114362227796635E-06</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00013202366588041</v>
+        <v>5.337925151206288E-05</v>
       </c>
       <c r="K3">
-        <v>0.0002683989119546419</v>
+        <v>0.0001915668415033249</v>
       </c>
       <c r="L3">
-        <v>0.0001459866965023314</v>
+        <v>6.752784230226565E-05</v>
       </c>
       <c r="M3">
-        <v>0.0001161943251753621</v>
+        <v>3.73395485150065E-05</v>
       </c>
       <c r="N3">
-        <v>0.0001451291264641348</v>
+        <v>6.665887568084078E-05</v>
       </c>
       <c r="O3">
-        <v>7.934448853404917E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.124213650073123E-10</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>7.017302312554681E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0005309926236507169</v>
+        <v>0.0004576502636105084</v>
       </c>
       <c r="S3">
-        <v>0.001116968249750408</v>
+        <v>0.001051413148703754</v>
       </c>
       <c r="T3">
-        <v>0.000878644939135351</v>
+        <v>0.0008099226665182447</v>
       </c>
       <c r="U3">
-        <v>0.0003606834960650504</v>
+        <v>0.0002850778315008921</v>
       </c>
       <c r="V3">
-        <v>6.065832870175685E-06</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1.400515162379751E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0001488635066304662</v>
+        <v>7.044288348395497E-05</v>
       </c>
       <c r="Y3">
-        <v>0.0002199571897970197</v>
+        <v>0.0001424813583772712</v>
       </c>
       <c r="Z3">
-        <v>2.666650418774144E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>2.488110410821869E-07</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>5.410516240987506E-05</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.000396536817661978</v>
+        <v>0.000321407621893822</v>
       </c>
       <c r="AD3">
-        <v>0.0003199601342512085</v>
+        <v>0.0002438132810242325</v>
       </c>
       <c r="AE3">
-        <v>3.896283473542707E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.830728026082254E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0003900571473733697</v>
+        <v>0.0003148418407356097</v>
       </c>
       <c r="AH3">
-        <v>0.0003914622574359541</v>
+        <v>0.0003162656238546907</v>
       </c>
       <c r="AI3">
-        <v>8.212136365773278E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0003345321649002551</v>
+        <v>0.0002585789650808133</v>
       </c>
       <c r="AK3">
-        <v>0.0001386383461750317</v>
+        <v>6.008183687699717E-05</v>
       </c>
       <c r="AL3">
-        <v>0.0003132149439507737</v>
+        <v>0.0002369784512550371</v>
       </c>
       <c r="AM3">
-        <v>0.0004730401810694818</v>
+        <v>0.0003989276683819815</v>
       </c>
       <c r="AN3">
-        <v>1.84826508232279E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1.932840186089814E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>4.231682988481594E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0001264243856310149</v>
+        <v>4.770556024019951E-05</v>
       </c>
       <c r="AR3">
-        <v>8.130017862115672E-05</v>
+        <v>1.981680016621858E-06</v>
       </c>
       <c r="AS3">
-        <v>0.00027708937234172</v>
+        <v>0.0002003727928132215</v>
       </c>
       <c r="AT3">
-        <v>0.0008885049995745238</v>
+        <v>0.0008199137611522064</v>
       </c>
       <c r="AU3">
-        <v>0.0009856630439019989</v>
+        <v>0.0009183629766833733</v>
       </c>
       <c r="AV3">
-        <v>0.0004777982212814076</v>
+        <v>0.000403748940048906</v>
       </c>
       <c r="AW3">
-        <v>3.454216653852797E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>3.749790767017838E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>1.454222164771892E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>8.957396398967589E-05</v>
+        <v>1.036541895087308E-05</v>
       </c>
       <c r="BA3">
-        <v>0.0004471237199151477</v>
+        <v>0.0003726667932516797</v>
       </c>
       <c r="BB3">
-        <v>0.000835496437213492</v>
+        <v>0.0007662007472993456</v>
       </c>
       <c r="BC3">
-        <v>0.0004607532405222143</v>
+        <v>0.000386477441882162</v>
       </c>
       <c r="BD3">
-        <v>7.233096322166272E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>5.892031662434479E-06</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>2.545701113386992E-05</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>9.848040438637386E-06</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>3.538273957596757E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>2.620480416717705E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1.124213650073123E-10</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.000264531271782375</v>
+        <v>0.0001876478027500013</v>
       </c>
       <c r="BL3">
-        <v>0.0003102865438203411</v>
+        <v>0.000234011134471357</v>
       </c>
       <c r="BM3">
-        <v>6.019296268102918E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>2.874166428017026E-06</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>4.70670480963934E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>1.491975766453459E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>2.51611861206937E-06</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>3.357427149541736E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>6.302140280700954E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>3.738336966507679E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0003398444151368657</v>
+        <v>0.0002639618118859303</v>
       </c>
       <c r="BV3">
-        <v>0.0003398444151368657</v>
+        <v>0.0002639618118859303</v>
       </c>
       <c r="BW3">
-        <v>7.687568342408716E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>3.367263949979873E-06</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0002991201133229819</v>
+        <v>0.0002226963089172012</v>
       </c>
       <c r="BZ3">
-        <v>0.0005596452649269221</v>
+        <v>0.0004866836810291487</v>
       </c>
       <c r="CA3">
-        <v>0.0003419398752301987</v>
+        <v>0.0002660851193669884</v>
       </c>
       <c r="CB3">
-        <v>0.000227041320112551</v>
+        <v>0.0001496596324678231</v>
       </c>
       <c r="CC3">
-        <v>4.670850208042355E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>2.051252091363948E-06</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>1.63297127273348E-05</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.0001801949580259871</v>
+        <v>0.0001021907107760039</v>
       </c>
       <c r="CG3">
-        <v>0.0003486363455284634</v>
+        <v>0.0002728705816748736</v>
       </c>
       <c r="CH3">
-        <v>0.0004861206616520939</v>
+        <v>0.0004121819805806541</v>
       </c>
       <c r="CI3">
-        <v>0.0003238753844255959</v>
+        <v>0.0002477805624875926</v>
       </c>
       <c r="CJ3">
-        <v>1.870845583328538E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>9.342667416127781E-05</v>
+        <v>1.426932929292076E-05</v>
       </c>
       <c r="CL3">
-        <v>9.876830439919709E-05</v>
+        <v>1.968194654166052E-05</v>
       </c>
       <c r="CM3">
-        <v>4.000498478184504E-05</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1171208302166291</v>
+        <v>0.1185968957515829</v>
       </c>
       <c r="CO3">
-        <v>0.0009119641406194073</v>
+        <v>0.0008436846598862258</v>
       </c>
       <c r="CP3">
-        <v>0.05591495949048446</v>
+        <v>0.05657763630064958</v>
       </c>
       <c r="CQ3">
-        <v>0.008808126392319015</v>
+        <v>0.008844782096208424</v>
       </c>
       <c r="CR3">
-        <v>0.02057230591630234</v>
+        <v>0.02076530039730043</v>
       </c>
       <c r="CS3">
-        <v>0.004182589386294937</v>
+        <v>0.004157774522048376</v>
       </c>
       <c r="CT3">
-        <v>0.0114209325086949</v>
+        <v>0.01149231081369929</v>
       </c>
       <c r="CU3">
-        <v>0.0004679009608405779</v>
+        <v>0.000393720151047934</v>
       </c>
       <c r="CV3">
-        <v>0.006150806573960462</v>
+        <v>0.006152148116760956</v>
       </c>
       <c r="CW3">
-        <v>0.000750133533411379</v>
+        <v>0.0006797034225234912</v>
       </c>
       <c r="CX3">
-        <v>0.008123279361815536</v>
+        <v>0.008150833865996359</v>
       </c>
       <c r="CY3">
-        <v>0.06713290799013835</v>
+        <v>0.06794466449995686</v>
       </c>
       <c r="CZ3">
-        <v>0.03041793535483234</v>
+        <v>0.03074177225141471</v>
       </c>
       <c r="DA3">
-        <v>0.0221511529866251</v>
+        <v>0.02236512938308212</v>
       </c>
       <c r="DB3">
-        <v>0.005867969261362726</v>
+        <v>0.005865552068632018</v>
       </c>
       <c r="DC3">
-        <v>0.01656126273764817</v>
+        <v>0.01670095289902053</v>
       </c>
       <c r="DD3">
-        <v>0.006486017288890941</v>
+        <v>0.006491813577824739</v>
       </c>
       <c r="DE3">
-        <v>0.0126106385616851</v>
+        <v>0.01269782733515982</v>
       </c>
       <c r="DF3">
-        <v>0.0007875787350792099</v>
+        <v>0.0007176462481034189</v>
       </c>
       <c r="DG3">
-        <v>0.0004200947487112618</v>
+        <v>0.0003452786234912003</v>
       </c>
       <c r="DH3">
-        <v>0.01338308459609029</v>
+        <v>0.01348053870665504</v>
       </c>
       <c r="DI3">
-        <v>0.001190836153040527</v>
+        <v>0.001126262711415545</v>
       </c>
       <c r="DJ3">
-        <v>0.01078437048034206</v>
+        <v>0.01084728926389291</v>
       </c>
       <c r="DK3">
-        <v>0.001396922062219712</v>
+        <v>0.001335087376744678</v>
       </c>
       <c r="DL3">
-        <v>0.006313534281208449</v>
+        <v>0.006317038376076512</v>
       </c>
       <c r="DM3">
-        <v>0.006730620299785699</v>
+        <v>0.006739667213679991</v>
       </c>
       <c r="DN3">
-        <v>0.01011407645048678</v>
+        <v>0.01016808743483946</v>
       </c>
       <c r="DO3">
-        <v>0.0005147395229267945</v>
+        <v>0.0004411811690821544</v>
       </c>
       <c r="DP3">
-        <v>3.465225854343153E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.001814959980839361</v>
+        <v>0.001758680764562057</v>
       </c>
       <c r="DR3">
-        <v>0.002282871301680401</v>
+        <v>0.00223281034172488</v>
       </c>
       <c r="DS3">
-        <v>0.01548470868969783</v>
+        <v>0.01561009210379514</v>
       </c>
       <c r="DT3">
-        <v>0.03636976461993024</v>
+        <v>0.03677269770056591</v>
       </c>
       <c r="DU3">
-        <v>0.001408458062733532</v>
+        <v>0.001346776683675608</v>
       </c>
       <c r="DV3">
-        <v>0.01130780350365607</v>
+        <v>0.01137767839312118</v>
       </c>
       <c r="DW3">
-        <v>0.006529979290849034</v>
+        <v>0.006536359807999629</v>
       </c>
       <c r="DX3">
-        <v>0.0003183558441797524</v>
+        <v>0.0002421876709153367</v>
       </c>
       <c r="DY3">
-        <v>0.0005960931265503308</v>
+        <v>0.0005236159125232154</v>
       </c>
       <c r="DZ3">
-        <v>0.0001089576348530357</v>
+        <v>3.000668698813502E-05</v>
       </c>
       <c r="EA3">
-        <v>0.001340821059720941</v>
+        <v>0.001278240826109095</v>
       </c>
       <c r="EB3">
-        <v>0.008968487399461588</v>
+        <v>0.009007274203416366</v>
       </c>
       <c r="EC3">
-        <v>0.0005518255245786262</v>
+        <v>0.0004787600210967571</v>
       </c>
       <c r="ED3">
-        <v>0.000111893054983781</v>
+        <v>3.298111706365422E-05</v>
       </c>
       <c r="EE3">
-        <v>0.001005849844801131</v>
+        <v>0.0009388180478651773</v>
       </c>
       <c r="EF3">
-        <v>0.0001648833373439987</v>
+        <v>8.667560798562931E-05</v>
       </c>
       <c r="EG3">
-        <v>0.02123269494571645</v>
+        <v>0.02143446559449267</v>
       </c>
       <c r="EH3">
-        <v>0.04795008013572415</v>
+        <v>0.0485069085528413</v>
       </c>
       <c r="EI3">
-        <v>0.009441275420519838</v>
+        <v>0.009486345289170561</v>
       </c>
       <c r="EJ3">
-        <v>9.568255426175601E-06</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.004917160819013171</v>
+        <v>0.004902107961479957</v>
       </c>
       <c r="EL3">
-        <v>0.02771704723453323</v>
+        <v>0.02800499097384321</v>
       </c>
       <c r="EM3">
-        <v>0.04744405911318568</v>
+        <v>0.04799416281926849</v>
       </c>
       <c r="EN3">
-        <v>0.06049857269464123</v>
+        <v>0.0612221629311627</v>
       </c>
       <c r="EO3">
-        <v>0.009680385431169935</v>
+        <v>0.009728632926155181</v>
       </c>
       <c r="EP3">
-        <v>1.216601354188124E-06</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.001114593849644651</v>
+        <v>0.001049007194267485</v>
       </c>
       <c r="ER3">
-        <v>0.002883990928454615</v>
+        <v>0.002841918482033278</v>
       </c>
       <c r="ES3">
-        <v>0.0002711229720759732</v>
+        <v>0.0001943271027237019</v>
       </c>
       <c r="ET3">
-        <v>9.712687432608685E-05</v>
+        <v>1.801870286312065E-05</v>
       </c>
       <c r="EU3">
-        <v>0.002094248093279015</v>
+        <v>0.002041680445825596</v>
       </c>
       <c r="EV3">
-        <v>0.01422589663362962</v>
+        <v>0.01433455120258697</v>
       </c>
       <c r="EW3">
-        <v>0.01235594655034097</v>
+        <v>0.01243975062218718</v>
       </c>
       <c r="EX3">
-        <v>0.01942908086538244</v>
+        <v>0.01960688258210348</v>
       </c>
       <c r="EY3">
-        <v>0.02806839325018238</v>
+        <v>0.02836100616393981</v>
       </c>
       <c r="EZ3">
-        <v>0.003442869953347408</v>
+        <v>0.003408224668601503</v>
       </c>
       <c r="FA3">
-        <v>0.006174987275037485</v>
+        <v>0.006176650164620242</v>
       </c>
       <c r="FB3">
-        <v>0.0004777982212814076</v>
+        <v>0.000403748940048906</v>
       </c>
       <c r="FC3">
-        <v>0.005873415861605321</v>
+        <v>0.005871071050872829</v>
       </c>
       <c r="FD3">
-        <v>0.007613077339090844</v>
+        <v>0.007633851569292631</v>
       </c>
       <c r="FE3">
-        <v>0.0001691702375349397</v>
+        <v>9.101947846778971E-05</v>
       </c>
       <c r="FF3">
-        <v>0.0012918243575386</v>
+        <v>0.001228592987611983</v>
       </c>
       <c r="FG3">
-        <v>0.001596643671115428</v>
+        <v>0.001537463164117802</v>
       </c>
       <c r="FH3">
-        <v>0.001926434085804482</v>
+        <v>0.001871636292452933</v>
       </c>
       <c r="FI3">
-        <v>6.301497580672326E-06</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.002038469090794586</v>
+        <v>0.001985160174388328</v>
       </c>
       <c r="FK3">
-        <v>0.0002909805729604421</v>
+        <v>0.0002144485990232536</v>
       </c>
       <c r="FL3">
-        <v>0.001407755562702243</v>
+        <v>0.001346064847846986</v>
       </c>
       <c r="FM3">
-        <v>0.001620600272182468</v>
+        <v>0.001561738133814535</v>
       </c>
       <c r="FN3">
-        <v>0.001925612685767897</v>
+        <v>0.0018708039765104</v>
       </c>
       <c r="FO3">
-        <v>0.005878864561848009</v>
+        <v>0.005876592161021456</v>
       </c>
       <c r="FP3">
-        <v>0.003312349147533936</v>
+        <v>0.003275969320814533</v>
       </c>
       <c r="FQ3">
-        <v>0.0004938776219975934</v>
+        <v>0.0004200420262022686</v>
       </c>
       <c r="FR3">
-        <v>0.007913684352480055</v>
+        <v>0.0079384534667082</v>
       </c>
       <c r="FS3">
-        <v>0.004893928217978377</v>
+        <v>0.004878566613334715</v>
       </c>
       <c r="FT3">
-        <v>0.003504312256084084</v>
+        <v>0.003470483502100312</v>
       </c>
       <c r="FU3">
-        <v>0.01267668006462662</v>
+        <v>0.01276474648943158</v>
       </c>
       <c r="FV3">
-        <v>0.009785078435833022</v>
+        <v>0.009834717237053224</v>
       </c>
       <c r="FW3">
-        <v>0.002825492425849058</v>
+        <v>0.002782642569975459</v>
       </c>
       <c r="FX3">
-        <v>0.001877866983641276</v>
+        <v>0.001822423763097424</v>
       </c>
       <c r="FY3">
-        <v>0.0001386383461750317</v>
+        <v>6.008183687699717E-05</v>
       </c>
       <c r="FZ3">
-        <v>0.001266402756406307</v>
+        <v>0.001202833548891861</v>
       </c>
       <c r="GA3">
-        <v>0.0007723595344013379</v>
+        <v>0.0007022247935226972</v>
       </c>
       <c r="GB3">
-        <v>0.0004467279598975203</v>
+        <v>0.0003722657738245832</v>
       </c>
       <c r="GC3">
-        <v>0.008861575394699665</v>
+        <v>0.008898941403260372</v>
       </c>
       <c r="GD3">
-        <v>0.00505097562497336</v>
+        <v>0.005037701084668322</v>
       </c>
       <c r="GE3">
-        <v>0.0002068782392144758</v>
+        <v>0.0001292285965114354</v>
       </c>
       <c r="GF3">
-        <v>1.216601354188124E-06</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.001826880381370303</v>
+        <v>0.001770759579952093</v>
       </c>
       <c r="GH3">
-        <v>0.008331741371100553</v>
+        <v>0.008362066208353801</v>
       </c>
       <c r="GI3">
-        <v>0.005121591228118619</v>
+        <v>0.005109255126148191</v>
       </c>
       <c r="GJ3">
-        <v>0.0003445737153475115</v>
+        <v>0.0002687539616144711</v>
       </c>
       <c r="GK3">
-        <v>0.00071120343167741</v>
+        <v>0.000640255963460403</v>
       </c>
       <c r="GL3">
-        <v>0.004130652183981624</v>
+        <v>0.004105147105965413</v>
       </c>
       <c r="GM3">
-        <v>0.003217582543312977</v>
+        <v>0.00317994332617162</v>
       </c>
       <c r="GN3">
-        <v>0.001162560551781116</v>
+        <v>0.001097611344645763</v>
       </c>
       <c r="GO3">
-        <v>1.037539746212617E-05</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.001346901259991757</v>
+        <v>0.001284401828536404</v>
       </c>
       <c r="GQ3">
-        <v>8.694961787278599E-05</v>
+        <v>7.706196873293523E-06</v>
       </c>
       <c r="GR3">
-        <v>0.00300483793383721</v>
+        <v>0.002964371470476591</v>
       </c>
       <c r="GS3">
-        <v>0.002417244107665443</v>
+        <v>0.002368968880418398</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001020502519961101</v>
+        <v>7.410092903492004E-05</v>
       </c>
       <c r="C4">
-        <v>0.00015568400304519</v>
+        <v>0.0001280116420579194</v>
       </c>
       <c r="D4">
-        <v>0.000306283005990917</v>
+        <v>0.0002793883306271634</v>
       </c>
       <c r="E4">
-        <v>0.000533642010438075</v>
+        <v>0.0005079214054577714</v>
       </c>
       <c r="F4">
-        <v>0.0002639835051635358</v>
+        <v>0.0002368703973199387</v>
       </c>
       <c r="G4">
-        <v>5.51070270778973E-05</v>
+        <v>2.691529168085885E-05</v>
       </c>
       <c r="H4">
-        <v>1.268934424820446E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2.833001055413699E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2.726422853329021E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>4.914860396135013E-05</v>
+        <v>2.092609956912623E-05</v>
       </c>
       <c r="L4">
-        <v>0.0002047325340045827</v>
+        <v>0.0001773134571469254</v>
       </c>
       <c r="M4">
-        <v>0.000472529859242717</v>
+        <v>0.0004464936742089123</v>
       </c>
       <c r="N4">
-        <v>6.450499126172214E-05</v>
+        <v>3.63617864757311E-05</v>
       </c>
       <c r="O4">
-        <v>3.208819062764725E-05</v>
+        <v>3.777587125061666E-06</v>
       </c>
       <c r="P4">
-        <v>0.0001020502519961101</v>
+        <v>7.410092903492004E-05</v>
       </c>
       <c r="Q4">
-        <v>0.0002749338253777249</v>
+        <v>0.0002478772644330906</v>
       </c>
       <c r="R4">
-        <v>0.0003593479070288702</v>
+        <v>0.0003327272561263903</v>
       </c>
       <c r="S4">
-        <v>0.0001524221629813882</v>
+        <v>0.0001247329580172372</v>
       </c>
       <c r="T4">
-        <v>0.00010701035209313</v>
+        <v>7.908664283761664E-05</v>
       </c>
       <c r="U4">
-        <v>0.0001730425933847252</v>
+        <v>0.0001454598712787721</v>
       </c>
       <c r="V4">
-        <v>0.000139242652723596</v>
+        <v>0.0001114853894360034</v>
       </c>
       <c r="W4">
-        <v>2.220398043431141E-06</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>9.604734187869271E-05</v>
+        <v>6.806702019369796E-05</v>
       </c>
       <c r="Y4">
-        <v>0.0006195819121190655</v>
+        <v>0.0005943050964382691</v>
       </c>
       <c r="Z4">
-        <v>0.001442562128216616</v>
+        <v>0.00142153514068859</v>
       </c>
       <c r="AA4">
-        <v>0.000933412618257616</v>
+        <v>0.0009097564084480953</v>
       </c>
       <c r="AB4">
-        <v>0.0001885768736885768</v>
+        <v>0.0001610743698193165</v>
       </c>
       <c r="AC4">
-        <v>4.242834082990131E-05</v>
+        <v>1.417113333924149E-05</v>
       </c>
       <c r="AD4">
-        <v>1.573331830774481E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.00010701035209313</v>
+        <v>7.908664283761664E-05</v>
       </c>
       <c r="AF4">
-        <v>4.021932078669272E-05</v>
+        <v>1.195070602841452E-05</v>
       </c>
       <c r="AG4">
-        <v>5.057606098927129E-05</v>
+        <v>2.236092791284026E-05</v>
       </c>
       <c r="AH4">
-        <v>0.0001877449736723048</v>
+        <v>0.0001602381739134953</v>
       </c>
       <c r="AI4">
-        <v>4.110486880401411E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>8.76867317151586E-05</v>
+        <v>5.966323626273623E-05</v>
       </c>
       <c r="AK4">
-        <v>3.769607873733793E-05</v>
+        <v>9.414434084916641E-06</v>
       </c>
       <c r="AL4">
-        <v>3.052288259702972E-05</v>
+        <v>2.204195923055369E-06</v>
       </c>
       <c r="AM4">
-        <v>0.0001162264182733969</v>
+        <v>8.835030031685354E-05</v>
       </c>
       <c r="AN4">
-        <v>0.0002453273647986204</v>
+        <v>0.0002181179175910944</v>
       </c>
       <c r="AO4">
-        <v>0.000278349975444545</v>
+        <v>0.0002513110553258311</v>
       </c>
       <c r="AP4">
-        <v>6.350870624223474E-05</v>
+        <v>3.536035669086395E-05</v>
       </c>
       <c r="AQ4">
-        <v>0.0005524854108066533</v>
+        <v>0.0005268621121914529</v>
       </c>
       <c r="AR4">
-        <v>0.0005010002697996002</v>
+        <v>0.0004751111045239123</v>
       </c>
       <c r="AS4">
-        <v>0.0009948190194587296</v>
+        <v>0.0009714799091948362</v>
       </c>
       <c r="AT4">
-        <v>0.0009259172581110063</v>
+        <v>0.0009022223426413213</v>
       </c>
       <c r="AU4">
-        <v>1.73779083399131E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>3.828591674887521E-06</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>8.686273169904111E-06</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>7.409159144923672E-05</v>
+        <v>4.599789138106193E-05</v>
       </c>
       <c r="AY4">
-        <v>6.082470418973547E-05</v>
+        <v>3.26624945877077E-05</v>
       </c>
       <c r="AZ4">
-        <v>0.0002497803048857203</v>
+        <v>0.0002225938524352669</v>
       </c>
       <c r="BA4">
-        <v>0.0006909688135153983</v>
+        <v>0.0006660606361777345</v>
       </c>
       <c r="BB4">
-        <v>0.0007357786143918811</v>
+        <v>0.0007111018325963701</v>
       </c>
       <c r="BC4">
-        <v>0.0003316080864862773</v>
+        <v>0.0003048441885555108</v>
       </c>
       <c r="BD4">
-        <v>1.011067619776553E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>6.843377133856935E-05</v>
+        <v>4.031085457390622E-05</v>
       </c>
       <c r="BF4">
-        <v>4.50729268816296E-07</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>1.096149621440763E-06</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0001489480329134339</v>
+        <v>0.0001212408877175734</v>
       </c>
       <c r="BI4">
-        <v>0.0003087645760394567</v>
+        <v>0.0002818827153777446</v>
       </c>
       <c r="BJ4">
-        <v>0.0001924385737641119</v>
+        <v>0.0001649560115184502</v>
       </c>
       <c r="BK4">
-        <v>1.929380537738818E-06</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>2.281753244631253E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>8.939523174857698E-08</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>4.269379683509365E-06</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>1.103062721575984E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>5.913397815666475E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>1.494167329226017E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0005945985416303891</v>
+        <v>0.0005691927130897728</v>
       </c>
       <c r="BS4">
-        <v>0.0006892906534825733</v>
+        <v>0.0006643738102114973</v>
       </c>
       <c r="BT4">
-        <v>0.0001633430831950021</v>
+        <v>0.0001357102733097001</v>
       </c>
       <c r="BU4">
-        <v>1.680626032873163E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0001282932425094248</v>
+        <v>0.0001004794370220633</v>
       </c>
       <c r="BW4">
-        <v>4.271324783547411E-05</v>
+        <v>1.44575115901608E-05</v>
       </c>
       <c r="BX4">
-        <v>7.137116539602499E-07</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>2.509259149081284E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>6.177435120831064E-05</v>
+        <v>3.361704553538808E-05</v>
       </c>
       <c r="CA4">
-        <v>5.817396113788675E-05</v>
+        <v>2.999806323299682E-05</v>
       </c>
       <c r="CB4">
-        <v>0.0004279326883703933</v>
+        <v>0.0004016662058050078</v>
       </c>
       <c r="CC4">
-        <v>0.0002930417057319162</v>
+        <v>0.0002660786529642843</v>
       </c>
       <c r="CD4">
-        <v>0.000128981082522879</v>
+        <v>0.0001011708290065085</v>
       </c>
       <c r="CE4">
-        <v>1.388564727160423E-06</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0003159099061792198</v>
+        <v>0.0002890649436404454</v>
       </c>
       <c r="CG4">
-        <v>0.0008156128159534437</v>
+        <v>0.000791348293931271</v>
       </c>
       <c r="CH4">
-        <v>0.0001714507033535877</v>
+        <v>0.0001438597608081415</v>
       </c>
       <c r="CI4">
-        <v>7.955522155610569E-05</v>
+        <v>5.148973539707515E-05</v>
       </c>
       <c r="CJ4">
-        <v>1.178930723059967E-06</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>3.085886060360147E-05</v>
+        <v>2.541908903036096E-06</v>
       </c>
       <c r="CL4">
-        <v>9.135127178683727E-05</v>
+        <v>6.334669983373962E-05</v>
       </c>
       <c r="CM4">
-        <v>0.0003839595375102754</v>
+        <v>0.0003574659798210461</v>
       </c>
       <c r="CN4">
-        <v>0.001800180335211653</v>
+        <v>0.001781000069991531</v>
       </c>
       <c r="CO4">
-        <v>0.08415197164601845</v>
+        <v>0.08455805186008823</v>
       </c>
       <c r="CP4">
-        <v>0.001745704434146101</v>
+        <v>0.001726242858132028</v>
       </c>
       <c r="CQ4">
-        <v>0.06222406521710707</v>
+        <v>0.06251691083300534</v>
       </c>
       <c r="CR4">
-        <v>0.008435657165002042</v>
+        <v>0.008450742166050431</v>
       </c>
       <c r="CS4">
-        <v>0.02065525040401814</v>
+        <v>0.02073343676564215</v>
       </c>
       <c r="CT4">
-        <v>0.002731470953427763</v>
+        <v>0.002717099825791134</v>
       </c>
       <c r="CU4">
-        <v>0.009817133192023812</v>
+        <v>0.009839352065305309</v>
       </c>
       <c r="CV4">
-        <v>0.01237910124213609</v>
+        <v>0.01241454998866714</v>
       </c>
       <c r="CW4">
-        <v>0.008411537164530256</v>
+        <v>0.008426497611117863</v>
       </c>
       <c r="CX4">
-        <v>0.004487526087776324</v>
+        <v>0.004482223139910966</v>
       </c>
       <c r="CY4">
-        <v>0.0207828194065134</v>
+        <v>0.02086166452800505</v>
       </c>
       <c r="CZ4">
-        <v>0.05309472103853645</v>
+        <v>0.0533404231834891</v>
       </c>
       <c r="DA4">
-        <v>0.02601617050887811</v>
+        <v>0.02612204039039817</v>
       </c>
       <c r="DB4">
-        <v>0.02833905855431397</v>
+        <v>0.02845692371204861</v>
       </c>
       <c r="DC4">
-        <v>0.01332349926060858</v>
+        <v>0.01336382483067417</v>
       </c>
       <c r="DD4">
-        <v>0.01799775335203731</v>
+        <v>0.01806221653348456</v>
       </c>
       <c r="DE4">
-        <v>0.007705763150725266</v>
+        <v>0.007717079016052361</v>
       </c>
       <c r="DF4">
-        <v>0.01263493224714016</v>
+        <v>0.01267170209202346</v>
       </c>
       <c r="DG4">
-        <v>0.0008488531166036263</v>
+        <v>0.0008247602458104218</v>
       </c>
       <c r="DH4">
-        <v>1.549368030305747E-05</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.003797437074278134</v>
+        <v>0.003788570541699416</v>
       </c>
       <c r="DJ4">
-        <v>0.003814697774615755</v>
+        <v>0.003805920375419343</v>
       </c>
       <c r="DK4">
-        <v>0.007634660149334485</v>
+        <v>0.007645608842363697</v>
       </c>
       <c r="DL4">
-        <v>7.53552574739541E-06</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.004418941086434797</v>
+        <v>0.004413283969096276</v>
       </c>
       <c r="DN4">
-        <v>0.003273707664033951</v>
+        <v>0.003262136619307124</v>
       </c>
       <c r="DO4">
-        <v>0.009233506180608027</v>
+        <v>0.00925271123356272</v>
       </c>
       <c r="DP4">
-        <v>0.004877770095409524</v>
+        <v>0.004874482347834099</v>
       </c>
       <c r="DQ4">
-        <v>0.003379810666109333</v>
+        <v>0.003368787531911208</v>
       </c>
       <c r="DR4">
-        <v>0.003781259573961702</v>
+        <v>0.003772309501590725</v>
       </c>
       <c r="DS4">
-        <v>0.001328951725994389</v>
+        <v>0.001307338060103545</v>
       </c>
       <c r="DT4">
-        <v>0.01453242928425533</v>
+        <v>0.0145789977077319</v>
       </c>
       <c r="DU4">
-        <v>0.02868327056104678</v>
+        <v>0.02880291321215018</v>
       </c>
       <c r="DV4">
-        <v>0.00247255404836333</v>
+        <v>0.00245684588694284</v>
       </c>
       <c r="DW4">
-        <v>0.001797608035161339</v>
+        <v>0.001778414486714042</v>
       </c>
       <c r="DX4">
-        <v>0.0009651772188789339</v>
+        <v>0.0009416850398581752</v>
       </c>
       <c r="DY4">
-        <v>0.0001730425933847252</v>
+        <v>0.0001454598712787721</v>
       </c>
       <c r="DZ4">
-        <v>5.722803111938429E-05</v>
+        <v>2.904724847978926E-05</v>
       </c>
       <c r="EA4">
-        <v>0.001648279632240465</v>
+        <v>0.001628314959483824</v>
       </c>
       <c r="EB4">
-        <v>0.0008767611171495087</v>
+        <v>0.0008528123618576098</v>
       </c>
       <c r="EC4">
-        <v>0.003682268872025436</v>
+        <v>0.003672807616683444</v>
       </c>
       <c r="ED4">
-        <v>9.00037577604798E-05</v>
+        <v>6.199222731320033E-05</v>
       </c>
       <c r="EE4">
-        <v>9.665719189062143E-06</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.003527114268990602</v>
+        <v>0.003516851803136969</v>
       </c>
       <c r="EG4">
-        <v>0.0003760779273561106</v>
+        <v>0.0003495436694312411</v>
       </c>
       <c r="EH4">
-        <v>0.01585274631008083</v>
+        <v>0.01590613278380596</v>
       </c>
       <c r="EI4">
-        <v>0.04635041090661728</v>
+        <v>0.04656128577564152</v>
       </c>
       <c r="EJ4">
-        <v>0.01332312526060126</v>
+        <v>0.01336344889934976</v>
       </c>
       <c r="EK4">
-        <v>0.0004996437397730665</v>
+        <v>0.0004737475694450285</v>
       </c>
       <c r="EL4">
-        <v>0.001442562128216616</v>
+        <v>0.00142153514068859</v>
       </c>
       <c r="EM4">
-        <v>0.01706147233372359</v>
+        <v>0.01712110060741401</v>
       </c>
       <c r="EN4">
-        <v>0.04168307081532378</v>
+        <v>0.04186984377651288</v>
       </c>
       <c r="EO4">
-        <v>0.06454480526250089</v>
+        <v>0.06484963506245033</v>
       </c>
       <c r="EP4">
-        <v>0.01677224632806631</v>
+        <v>0.01683038105331253</v>
       </c>
       <c r="EQ4">
-        <v>0.0008643309869063745</v>
+        <v>0.0008403180430514742</v>
       </c>
       <c r="ER4">
-        <v>0.001421905627812573</v>
+        <v>0.001400771971162693</v>
       </c>
       <c r="ES4">
-        <v>0.001118410721876192</v>
+        <v>0.001095709832903781</v>
       </c>
       <c r="ET4">
-        <v>0.0006301129123250527</v>
+        <v>0.000604890478195935</v>
       </c>
       <c r="EU4">
-        <v>0.0006505745827252843</v>
+        <v>0.0006254578116257493</v>
       </c>
       <c r="EV4">
-        <v>0.005609013109712689</v>
+        <v>0.005609501464026371</v>
       </c>
       <c r="EW4">
-        <v>0.01722250133687333</v>
+        <v>0.01728296115618005</v>
       </c>
       <c r="EX4">
-        <v>0.01159785422685484</v>
+        <v>0.01162926865336839</v>
       </c>
       <c r="EY4">
-        <v>0.01784349634902004</v>
+        <v>0.01790716295511668</v>
       </c>
       <c r="EZ4">
-        <v>0.0265437905191984</v>
+        <v>0.0266523850037283</v>
       </c>
       <c r="FA4">
-        <v>0.003097823660593647</v>
+        <v>0.00308534435978141</v>
       </c>
       <c r="FB4">
-        <v>0.005482795707243867</v>
+        <v>0.005482632281283989</v>
       </c>
       <c r="FC4">
-        <v>0.001189826823273096</v>
+        <v>0.001167494723431142</v>
       </c>
       <c r="FD4">
-        <v>0.009554832186893184</v>
+        <v>0.00957569655106948</v>
       </c>
       <c r="FE4">
-        <v>0.01130615322114915</v>
+        <v>0.01133606131844361</v>
       </c>
       <c r="FF4">
-        <v>0.0003352996065584837</v>
+        <v>0.0003085547714503981</v>
       </c>
       <c r="FG4">
-        <v>0.0001399592327376124</v>
+        <v>0.000112205669832918</v>
       </c>
       <c r="FH4">
-        <v>0.001287886225191145</v>
+        <v>0.001266060499134081</v>
       </c>
       <c r="FI4">
-        <v>0.002369116346340082</v>
+        <v>0.002352874037865365</v>
       </c>
       <c r="FJ4">
-        <v>0.001064873520829</v>
+        <v>0.00104189616846199</v>
       </c>
       <c r="FK4">
-        <v>0.0002114394441357703</v>
+        <v>0.000184055001422332</v>
       </c>
       <c r="FL4">
-        <v>0.002623564851317112</v>
+        <v>0.002608636502034524</v>
       </c>
       <c r="FM4">
-        <v>9.098587177969002E-06</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.0008566219667555855</v>
+        <v>0.000832569213911081</v>
       </c>
       <c r="FO4">
-        <v>0.00341161716673147</v>
+        <v>0.003400758279691589</v>
       </c>
       <c r="FP4">
-        <v>0.01333983826092817</v>
+        <v>0.01338024820476386</v>
       </c>
       <c r="FQ4">
-        <v>0.009383689183545617</v>
+        <v>0.009403669773920854</v>
       </c>
       <c r="FR4">
-        <v>0.0001104164621597537</v>
+        <v>8.251034188410823E-05</v>
       </c>
       <c r="FS4">
-        <v>0.0106892867090832</v>
+        <v>0.01071600933895305</v>
       </c>
       <c r="FT4">
-        <v>0.008923404174542409</v>
+        <v>0.008941007876444147</v>
       </c>
       <c r="FU4">
-        <v>0.003364361865807153</v>
+        <v>0.003353258954786735</v>
       </c>
       <c r="FV4">
-        <v>0.01645653732189102</v>
+        <v>0.01651304174181971</v>
       </c>
       <c r="FW4">
-        <v>0.01437687928121276</v>
+        <v>0.01442264445235207</v>
       </c>
       <c r="FX4">
-        <v>0.005363461104909674</v>
+        <v>0.005362681441107525</v>
       </c>
       <c r="FY4">
-        <v>0.003794746774225512</v>
+        <v>0.003785866349073584</v>
       </c>
       <c r="FZ4">
-        <v>0.0003220477462992764</v>
+        <v>0.0002952344792560063</v>
       </c>
       <c r="GA4">
-        <v>0.002405663047054937</v>
+        <v>0.002389609463891656</v>
       </c>
       <c r="GB4">
-        <v>0.001635043131981558</v>
+        <v>0.001615010106607996</v>
       </c>
       <c r="GC4">
-        <v>0.001120439821915881</v>
+        <v>0.001097749411113304</v>
       </c>
       <c r="GD4">
-        <v>0.01087822221277879</v>
+        <v>0.01090592049602032</v>
       </c>
       <c r="GE4">
-        <v>0.007265056142105005</v>
+        <v>0.007274096218760972</v>
       </c>
       <c r="GF4">
-        <v>0.001507779429492271</v>
+        <v>0.001487089220804839</v>
       </c>
       <c r="GG4">
-        <v>0.0004858051395023825</v>
+        <v>0.0004598375073434585</v>
       </c>
       <c r="GH4">
-        <v>0.0002474979648410775</v>
+        <v>0.000220299726502232</v>
       </c>
       <c r="GI4">
-        <v>0.00539311260548966</v>
+        <v>0.005392486060534686</v>
       </c>
       <c r="GJ4">
-        <v>0.005741506412304267</v>
+        <v>0.005742678955321872</v>
       </c>
       <c r="GK4">
-        <v>0.003147528761565883</v>
+        <v>0.00313530613537755</v>
       </c>
       <c r="GL4">
-        <v>0.0003367226265863181</v>
+        <v>0.0003099851398815816</v>
       </c>
       <c r="GM4">
-        <v>0.0004577068689527783</v>
+        <v>0.0004315941387478866</v>
       </c>
       <c r="GN4">
-        <v>0.0009564046187073412</v>
+        <v>0.0009328671384236202</v>
       </c>
       <c r="GO4">
-        <v>0.0009088710177775806</v>
+        <v>0.0008850880763861895</v>
       </c>
       <c r="GP4">
-        <v>1.312509725672782E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0001669802732661458</v>
+        <v>0.0001393662456461511</v>
       </c>
       <c r="GR4">
-        <v>0.001222826323918568</v>
+        <v>0.001200664631826555</v>
       </c>
       <c r="GS4">
-        <v>0.005307585603816745</v>
+        <v>0.005306517401756993</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.843670094922902E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.927172831090679E-05</v>
+        <v>1.861659509664219E-05</v>
       </c>
       <c r="D5">
-        <v>0.0001771204859123562</v>
+        <v>0.000156983009663118</v>
       </c>
       <c r="E5">
-        <v>0.0002335604577963462</v>
+        <v>0.0002136349279226865</v>
       </c>
       <c r="F5">
-        <v>0.0001130467137735468</v>
+        <v>9.266862429717259E-05</v>
       </c>
       <c r="G5">
-        <v>2.364023678912103E-05</v>
+        <v>2.926403368914804E-06</v>
       </c>
       <c r="H5">
-        <v>5.509073783895197E-06</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>6.027263201192578E-06</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2.072478169180192E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4.73016455789488E-05</v>
+        <v>2.667666673585674E-05</v>
       </c>
       <c r="L5">
-        <v>0.0002988988799773702</v>
+        <v>0.0002792187124117528</v>
       </c>
       <c r="M5">
-        <v>0.0008398972280361223</v>
+        <v>0.0008222486461576974</v>
       </c>
       <c r="N5">
-        <v>0.000750024625036137</v>
+        <v>0.0007320385487927464</v>
       </c>
       <c r="O5">
-        <v>0.0001433770247859853</v>
+        <v>0.000123112833302021</v>
       </c>
       <c r="P5">
-        <v>2.402314380190263E-06</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.095266269940868E-05</v>
+        <v>2.287367584516549E-07</v>
       </c>
       <c r="R5">
-        <v>0.0002315343077287124</v>
+        <v>0.0002116011691488668</v>
       </c>
       <c r="S5">
-        <v>0.0008064775869205605</v>
+        <v>0.0007887035058334872</v>
       </c>
       <c r="T5">
-        <v>0.000706808123593552</v>
+        <v>0.0006886597584520598</v>
       </c>
       <c r="U5">
-        <v>0.0003201440906865442</v>
+        <v>0.0003005437042628712</v>
       </c>
       <c r="V5">
-        <v>0.0001432929347831783</v>
+        <v>0.000123028427519976</v>
       </c>
       <c r="W5">
-        <v>6.777613226239576E-06</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>6.502262517048254E-06</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>8.46913428270326E-05</v>
+        <v>6.420677175792032E-05</v>
       </c>
       <c r="Z5">
-        <v>0.0004062167835596868</v>
+        <v>0.0003869396218769518</v>
       </c>
       <c r="AA5">
-        <v>0.001284012342860871</v>
+        <v>0.001268031525614227</v>
       </c>
       <c r="AB5">
-        <v>0.0005212609673999099</v>
+        <v>0.0005024158257374267</v>
       </c>
       <c r="AC5">
-        <v>4.960761165592291E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1.311850243790112E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>8.219982274386462E-05</v>
+        <v>6.170589538640419E-05</v>
       </c>
       <c r="AF5">
-        <v>0.0004428253147816949</v>
+        <v>0.0004236856273968514</v>
       </c>
       <c r="AG5">
-        <v>0.0004924744164390029</v>
+        <v>0.0004735211739937249</v>
       </c>
       <c r="AH5">
-        <v>0.0004153069338631199</v>
+        <v>0.0003960639079948788</v>
       </c>
       <c r="AI5">
-        <v>0.0003647284121747876</v>
+        <v>0.0003452954511595908</v>
       </c>
       <c r="AJ5">
-        <v>0.0002825980894332429</v>
+        <v>0.0002628567082745005</v>
       </c>
       <c r="AK5">
-        <v>3.388011113093234E-05</v>
+        <v>1.320473102990189E-05</v>
       </c>
       <c r="AL5">
-        <v>1.20445879020534E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0004689095156523966</v>
+        <v>0.0004498677810419763</v>
       </c>
       <c r="AN5">
-        <v>0.001549491551722679</v>
+        <v>0.001534507676080211</v>
       </c>
       <c r="AO5">
-        <v>0.001203033140157752</v>
+        <v>0.001186748225514576</v>
       </c>
       <c r="AP5">
-        <v>0.0006077859602881507</v>
+        <v>0.0005892657418676089</v>
       </c>
       <c r="AQ5">
-        <v>1.460523548752889E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>9.130766304788814E-07</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.000130634484360634</v>
+        <v>0.000110322441413094</v>
       </c>
       <c r="AT5">
-        <v>0.0001572498952490675</v>
+        <v>0.000137037799903981</v>
       </c>
       <c r="AU5">
-        <v>1.501648750125666E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>1.93206166449303E-07</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>6.681926823045525E-05</v>
+        <v>4.626758299901488E-05</v>
       </c>
       <c r="AX5">
-        <v>0.0002594792086615249</v>
+        <v>0.0002396510102556536</v>
       </c>
       <c r="AY5">
-        <v>0.0001865904262284668</v>
+        <v>0.0001664885120013194</v>
       </c>
       <c r="AZ5">
-        <v>1.60969275373222E-06</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0002466087082319023</v>
+        <v>0.0002267321778402612</v>
       </c>
       <c r="BB5">
-        <v>0.000605915620225718</v>
+        <v>0.0005873883782049846</v>
       </c>
       <c r="BC5">
-        <v>0.000758887755331992</v>
+        <v>0.0007409349623855235</v>
       </c>
       <c r="BD5">
-        <v>9.811075327497815E-05</v>
+        <v>7.767657548764656E-05</v>
       </c>
       <c r="BE5">
-        <v>7.382052246416005E-05</v>
+        <v>5.329512871391298E-05</v>
       </c>
       <c r="BF5">
-        <v>0.000166914825571687</v>
+        <v>0.0001467390244855045</v>
       </c>
       <c r="BG5">
-        <v>0.0005284925776413042</v>
+        <v>0.0005096745925051107</v>
       </c>
       <c r="BH5">
-        <v>0.0009404511313926537</v>
+        <v>0.0009231801548647507</v>
       </c>
       <c r="BI5">
-        <v>0.0001423855147528883</v>
+        <v>0.0001221175998978653</v>
       </c>
       <c r="BJ5">
-        <v>2.757544692048E-05</v>
+        <v>6.876391210053571E-06</v>
       </c>
       <c r="BK5">
-        <v>3.160260105490809E-06</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>4.268101142471009E-06</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>1.22430214086772E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0002773167092569483</v>
+        <v>0.0002575554951792824</v>
       </c>
       <c r="BO5">
-        <v>0.001220874340753298</v>
+        <v>0.001204656424332765</v>
       </c>
       <c r="BP5">
-        <v>0.001635838354604971</v>
+        <v>0.001621178733055885</v>
       </c>
       <c r="BQ5">
-        <v>0.0008018325267655065</v>
+        <v>0.0007840410023021991</v>
       </c>
       <c r="BR5">
-        <v>5.503528683710098E-05</v>
+        <v>3.443934977379683E-05</v>
       </c>
       <c r="BS5">
-        <v>1.867246162329461E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>3.87114242922036E-06</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>5.400239980262278E-05</v>
+        <v>3.340258398715004E-05</v>
       </c>
       <c r="BV5">
-        <v>0.0005505354183771035</v>
+        <v>0.0005318002096854307</v>
       </c>
       <c r="BW5">
-        <v>0.001081591136103966</v>
+        <v>0.00106485017600678</v>
       </c>
       <c r="BX5">
-        <v>0.0006374465512782336</v>
+        <v>0.0006190377158819567</v>
       </c>
       <c r="BY5">
-        <v>0.0001082550986136007</v>
+        <v>8.785901540986592E-05</v>
       </c>
       <c r="BZ5">
-        <v>3.96096753221876E-07</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>9.405588313962488E-08</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>1.410187497072651E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.0002287613576361502</v>
+        <v>0.0002088178059270601</v>
       </c>
       <c r="CD5">
-        <v>0.0001440596748087724</v>
+        <v>0.0001237980468483765</v>
       </c>
       <c r="CE5">
-        <v>5.525570184445853E-06</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.000388297062961519</v>
+        <v>0.000368952608193664</v>
       </c>
       <c r="CG5">
-        <v>0.0005224013174379753</v>
+        <v>0.0005035604580784308</v>
       </c>
       <c r="CH5">
-        <v>0.0001254797041885652</v>
+        <v>0.0001051483037371516</v>
       </c>
       <c r="CI5">
-        <v>2.70551539031124E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>2.560215085461054E-07</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>2.888642596424103E-05</v>
+        <v>8.192293311844392E-06</v>
       </c>
       <c r="CL5">
-        <v>6.375216812807415E-05</v>
+        <v>4.318896515967295E-05</v>
       </c>
       <c r="CM5">
-        <v>8.015450267559097E-06</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.001562219352147538</v>
+        <v>0.001547283272616214</v>
       </c>
       <c r="CO5">
-        <v>0.09668371322734295</v>
+        <v>0.09702598242615423</v>
       </c>
       <c r="CP5">
-        <v>0.004045253135032249</v>
+        <v>0.004039641475644212</v>
       </c>
       <c r="CQ5">
-        <v>0.06165131205794669</v>
+        <v>0.06186202572602648</v>
       </c>
       <c r="CR5">
-        <v>0.01390203846405588</v>
+        <v>0.01393344152766659</v>
       </c>
       <c r="CS5">
-        <v>0.02206479273653205</v>
+        <v>0.02212684900787904</v>
       </c>
       <c r="CT5">
-        <v>0.0008715449290925358</v>
+        <v>0.0008540151923394786</v>
       </c>
       <c r="CU5">
-        <v>0.007042221535072312</v>
+        <v>0.007047864250357206</v>
       </c>
       <c r="CV5">
-        <v>0.01280262042735685</v>
+        <v>0.01282989489805112</v>
       </c>
       <c r="CW5">
-        <v>0.005871124795980611</v>
+        <v>0.005872369746684534</v>
       </c>
       <c r="CX5">
-        <v>0.003527706817756335</v>
+        <v>0.003520151640990825</v>
       </c>
       <c r="CY5">
-        <v>0.02322327977520283</v>
+        <v>0.02328968645851505</v>
       </c>
       <c r="CZ5">
-        <v>0.04338113144808038</v>
+        <v>0.04352323596501837</v>
       </c>
       <c r="DA5">
-        <v>0.01303562143513452</v>
+        <v>0.01306377088356986</v>
       </c>
       <c r="DB5">
-        <v>0.03319867110818558</v>
+        <v>0.0333025379100526</v>
       </c>
       <c r="DC5">
-        <v>0.01444662648223446</v>
+        <v>0.01448007461165197</v>
       </c>
       <c r="DD5">
-        <v>0.01513595650524459</v>
+        <v>0.01517199324332148</v>
       </c>
       <c r="DE5">
-        <v>0.009062308302503657</v>
+        <v>0.009075536954748114</v>
       </c>
       <c r="DF5">
-        <v>0.01319074444031259</v>
+        <v>0.01321947641488355</v>
       </c>
       <c r="DG5">
-        <v>0.0005429903181252449</v>
+        <v>0.00052422677567297</v>
       </c>
       <c r="DH5">
-        <v>5.405401880434585E-05</v>
+        <v>3.345439683128588E-05</v>
       </c>
       <c r="DI5">
-        <v>0.002869836095796334</v>
+        <v>0.002859810448007108</v>
       </c>
       <c r="DJ5">
-        <v>0.004630780154577387</v>
+        <v>0.004627367297305181</v>
       </c>
       <c r="DK5">
-        <v>0.01446175848273957</v>
+        <v>0.01449526343664786</v>
       </c>
       <c r="DL5">
-        <v>0.0001328129344333515</v>
+        <v>0.0001125090721170536</v>
       </c>
       <c r="DM5">
-        <v>0.00163353605452812</v>
+        <v>0.001618867787259688</v>
       </c>
       <c r="DN5">
-        <v>0.001216236240598476</v>
+        <v>0.001200000906938271</v>
       </c>
       <c r="DO5">
-        <v>0.004653243155327211</v>
+        <v>0.004649914652306692</v>
       </c>
       <c r="DP5">
-        <v>0.00485609856209861</v>
+        <v>0.004853531832459554</v>
       </c>
       <c r="DQ5">
-        <v>0.006132858204717383</v>
+        <v>0.006135086030598203</v>
       </c>
       <c r="DR5">
-        <v>0.009134728304921068</v>
+        <v>0.009148228912599225</v>
       </c>
       <c r="DS5">
-        <v>0.00223347667455439</v>
+        <v>0.002221061336118706</v>
       </c>
       <c r="DT5">
-        <v>0.01153828538515281</v>
+        <v>0.0115608119578456</v>
       </c>
       <c r="DU5">
-        <v>0.02669362589104444</v>
+        <v>0.02677306460213243</v>
       </c>
       <c r="DV5">
-        <v>0.00151873555069603</v>
+        <v>0.001503636178487436</v>
       </c>
       <c r="DW5">
-        <v>0.001956488065308393</v>
+        <v>0.001943032564557836</v>
       </c>
       <c r="DX5">
-        <v>0.0003458997315462783</v>
+        <v>0.000326396064071051</v>
       </c>
       <c r="DY5">
-        <v>0.0002922516497554828</v>
+        <v>0.0002725465201584161</v>
       </c>
       <c r="DZ5">
-        <v>0.0001907618963677122</v>
+        <v>0.0001706756470664558</v>
       </c>
       <c r="EA5">
-        <v>0.0001980047066094803</v>
+        <v>0.0001779456558933489</v>
       </c>
       <c r="EB5">
-        <v>0.001406956746964807</v>
+        <v>0.001391437617064518</v>
       </c>
       <c r="EC5">
-        <v>0.001514300650547992</v>
+        <v>0.001499184624167167</v>
       </c>
       <c r="ED5">
-        <v>4.769408159204847E-05</v>
+        <v>2.707057644548472E-05</v>
       </c>
       <c r="EE5">
-        <v>7.668044255962537E-05</v>
+        <v>5.616578853298986E-05</v>
       </c>
       <c r="EF5">
-        <v>0.002935282297980956</v>
+        <v>0.002925502417240958</v>
       </c>
       <c r="EG5">
-        <v>3.582635819589888E-05</v>
+        <v>1.515828674506139E-05</v>
       </c>
       <c r="EH5">
-        <v>0.01421628747454565</v>
+        <v>0.014248870622706</v>
       </c>
       <c r="EI5">
-        <v>0.04205128140368944</v>
+        <v>0.0421883919972153</v>
       </c>
       <c r="EJ5">
-        <v>0.0198417966623275</v>
+        <v>0.01989550502092533</v>
       </c>
       <c r="EK5">
-        <v>0.002451725081839613</v>
+        <v>0.002440129321397253</v>
       </c>
       <c r="EL5">
-        <v>0.0001285536942911763</v>
+        <v>0.0001082338374504178</v>
       </c>
       <c r="EM5">
-        <v>0.01278409242673837</v>
+        <v>0.01281129732010214</v>
       </c>
       <c r="EN5">
-        <v>0.04212282140607747</v>
+        <v>0.04226020065041425</v>
       </c>
       <c r="EO5">
-        <v>0.06183997206424424</v>
+        <v>0.06205139419838482</v>
       </c>
       <c r="EP5">
-        <v>0.01250449541740531</v>
+        <v>0.01253065035325186</v>
       </c>
       <c r="EQ5">
-        <v>0.0003873140529287057</v>
+        <v>0.0003679659067094438</v>
       </c>
       <c r="ER5">
-        <v>0.003912359630596208</v>
+        <v>0.003906248922472622</v>
       </c>
       <c r="ES5">
-        <v>0.003766527125728257</v>
+        <v>0.003759868779648511</v>
       </c>
       <c r="ET5">
-        <v>0.0001051903735112988</v>
+        <v>8.478278148932954E-05</v>
       </c>
       <c r="EU5">
-        <v>3.616800420730317E-05</v>
+        <v>1.550121572368609E-05</v>
       </c>
       <c r="EV5">
-        <v>0.002865394095648058</v>
+        <v>0.002855351767024305</v>
       </c>
       <c r="EW5">
-        <v>0.01755116358586521</v>
+        <v>0.01759627003765602</v>
       </c>
       <c r="EX5">
-        <v>0.01264632042213949</v>
+        <v>0.01267300794676517</v>
       </c>
       <c r="EY5">
-        <v>0.0217883147273031</v>
+        <v>0.02184933275376748</v>
       </c>
       <c r="EZ5">
-        <v>0.02969810499133522</v>
+        <v>0.02978882628167603</v>
       </c>
       <c r="FA5">
-        <v>0.005798095593542866</v>
+        <v>0.005799066301112864</v>
       </c>
       <c r="FB5">
-        <v>0.002951759098530959</v>
+        <v>0.002942041092346194</v>
       </c>
       <c r="FC5">
-        <v>0.001519749250729868</v>
+        <v>0.0015046536852214</v>
       </c>
       <c r="FD5">
-        <v>0.01160233138729069</v>
+        <v>0.01162509846892723</v>
       </c>
       <c r="FE5">
-        <v>0.01527725750996127</v>
+        <v>0.01531382486906464</v>
       </c>
       <c r="FF5">
-        <v>0.001292869443156525</v>
+        <v>0.001276921886562626</v>
       </c>
       <c r="FG5">
-        <v>5.540624484948372E-05</v>
+        <v>3.481170082738055E-05</v>
       </c>
       <c r="FH5">
-        <v>0.0009656473722337148</v>
+        <v>0.0009484710139656409</v>
       </c>
       <c r="FI5">
-        <v>0.001124455737534805</v>
+        <v>0.001107875744862134</v>
       </c>
       <c r="FJ5">
-        <v>0.0008102551270466565</v>
+        <v>0.0007924952315785975</v>
       </c>
       <c r="FK5">
-        <v>1.095075836554091E-05</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.001689729656403886</v>
+        <v>0.001675272410329312</v>
       </c>
       <c r="FM5">
-        <v>4.90139336361057E-05</v>
+        <v>2.8395384867933E-05</v>
       </c>
       <c r="FN5">
-        <v>0.001519749250729868</v>
+        <v>0.0015046536852214</v>
       </c>
       <c r="FO5">
-        <v>0.002825270294308709</v>
+        <v>0.002815077290658296</v>
       </c>
       <c r="FP5">
-        <v>0.008465352782577032</v>
+        <v>0.008476339715794942</v>
       </c>
       <c r="FQ5">
-        <v>0.00622835960790526</v>
+        <v>0.006230946065720023</v>
       </c>
       <c r="FR5">
-        <v>3.359016912125396E-05</v>
+        <v>1.291370021461238E-05</v>
       </c>
       <c r="FS5">
-        <v>0.008791517793464557</v>
+        <v>0.008803729558828738</v>
       </c>
       <c r="FT5">
-        <v>0.008977582299675468</v>
+        <v>0.008990492784340862</v>
       </c>
       <c r="FU5">
-        <v>0.00160727515365152</v>
+        <v>0.001592508270055431</v>
       </c>
       <c r="FV5">
-        <v>0.01308551193679989</v>
+        <v>0.0131138487366929</v>
       </c>
       <c r="FW5">
-        <v>0.01137575137972736</v>
+        <v>0.01139766759610336</v>
       </c>
       <c r="FX5">
-        <v>0.005387922879851128</v>
+        <v>0.005387353285094136</v>
       </c>
       <c r="FY5">
-        <v>0.005473246482699266</v>
+        <v>0.005472997299660624</v>
       </c>
       <c r="FZ5">
-        <v>0.001383560046183815</v>
+        <v>0.001367953055751965</v>
       </c>
       <c r="GA5">
-        <v>0.004837109361464742</v>
+        <v>0.004834471322572418</v>
       </c>
       <c r="GB5">
-        <v>0.002976177099346041</v>
+        <v>0.002966550788932888</v>
       </c>
       <c r="GC5">
-        <v>0.0005493648183380284</v>
+        <v>0.000530625213747009</v>
       </c>
       <c r="GD5">
-        <v>0.01147185138293522</v>
+        <v>0.0114941284791397</v>
       </c>
       <c r="GE5">
-        <v>0.01155331438565449</v>
+        <v>0.01157589739604698</v>
       </c>
       <c r="GF5">
-        <v>0.004688267756496347</v>
+        <v>0.004685070779715585</v>
       </c>
       <c r="GG5">
-        <v>0.002059394768743462</v>
+        <v>0.002046325708703057</v>
       </c>
       <c r="GH5">
-        <v>1.156398938601082E-05</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.005373999179386349</v>
+        <v>0.005373377297610961</v>
       </c>
       <c r="GJ5">
-        <v>0.006358806712259638</v>
+        <v>0.006361883031958625</v>
       </c>
       <c r="GK5">
-        <v>0.003198676806773175</v>
+        <v>0.003189886039061096</v>
       </c>
       <c r="GL5">
-        <v>0.0003468287615772898</v>
+        <v>0.0003273285828449038</v>
       </c>
       <c r="GM5">
-        <v>0.0002222060474173312</v>
+        <v>0.0002022378788596621</v>
       </c>
       <c r="GN5">
-        <v>0.0002556319285331011</v>
+        <v>0.0002357892826168602</v>
       </c>
       <c r="GO5">
-        <v>9.9431223319056E-05</v>
+        <v>7.900200423086192E-05</v>
       </c>
       <c r="GP5">
-        <v>0.0004979655666222998</v>
+        <v>0.0004790329448354003</v>
       </c>
       <c r="GQ5">
-        <v>0.0003245743408344278</v>
+        <v>0.0003049905911210579</v>
       </c>
       <c r="GR5">
-        <v>0.0006755568225503704</v>
+        <v>0.0006572911008658624</v>
       </c>
       <c r="GS5">
-        <v>0.00387327902929168</v>
+        <v>0.003867021563621529</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.001044919369433861</v>
+        <v>0.001001947167299167</v>
       </c>
       <c r="C6">
-        <v>4.528651167527213E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.258215963194477E-07</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>6.272646816511588E-05</v>
+        <v>1.075378288885645E-05</v>
       </c>
       <c r="F6">
-        <v>9.417110124529272E-05</v>
+        <v>4.248656393830211E-05</v>
       </c>
       <c r="G6">
-        <v>5.207033447683071E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.06397236887652E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0001355515860348245</v>
+        <v>8.424624547753236E-05</v>
       </c>
       <c r="J6">
-        <v>0.0006801673801036411</v>
+        <v>0.0006338527142568002</v>
       </c>
       <c r="K6">
-        <v>0.0004755732560884593</v>
+        <v>0.0004273837589720345</v>
       </c>
       <c r="L6">
-        <v>1.902090944359749E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.000121679326440618</v>
+        <v>7.024686519404797E-05</v>
       </c>
       <c r="N6">
-        <v>0.0004670143363388261</v>
+        <v>0.0004187464081801721</v>
       </c>
       <c r="O6">
-        <v>0.0006684272504470652</v>
+        <v>0.0006220050020276794</v>
       </c>
       <c r="P6">
-        <v>0.0001084432068278029</v>
+        <v>5.688945426332482E-05</v>
       </c>
       <c r="Q6">
-        <v>3.260140004633893E-06</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>3.163709207454701E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0002691861921257249</v>
+        <v>0.0002191054338451904</v>
       </c>
       <c r="T6">
-        <v>0.0006666531404989618</v>
+        <v>0.0006202146347367885</v>
       </c>
       <c r="U6">
-        <v>0.0001881331544967006</v>
+        <v>0.0001373096536267925</v>
       </c>
       <c r="V6">
-        <v>0.000103173916981941</v>
+        <v>5.15718784296855E-05</v>
       </c>
       <c r="W6">
-        <v>5.389545842344192E-05</v>
+        <v>1.841848764405674E-06</v>
       </c>
       <c r="X6">
-        <v>4.149558578616486E-06</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>6.0110622241635E-06</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.000157618425389322</v>
+        <v>0.0001065152978752531</v>
       </c>
       <c r="AA6">
-        <v>0.001083299168311169</v>
+        <v>0.001040678665656614</v>
       </c>
       <c r="AB6">
-        <v>0.001678246750907673</v>
+        <v>0.001641078146429492</v>
       </c>
       <c r="AC6">
-        <v>0.001181281965444962</v>
+        <v>0.001139559343962859</v>
       </c>
       <c r="AD6">
-        <v>0.000260572462377695</v>
+        <v>0.0002104127707946666</v>
       </c>
       <c r="AE6">
-        <v>1.355682960343357E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.264930012998076E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>2.823110117417956E-06</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0002432596028841334</v>
+        <v>0.0001929412621194598</v>
       </c>
       <c r="AI6">
-        <v>0.0005190060848179556</v>
+        <v>0.000471214591436098</v>
       </c>
       <c r="AJ6">
-        <v>0.0005041731852518499</v>
+        <v>0.0004562457682013189</v>
       </c>
       <c r="AK6">
-        <v>9.929271309547457E-05</v>
+        <v>4.765510850511799E-05</v>
       </c>
       <c r="AL6">
-        <v>4.551772566850862E-06</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1.986971741876803E-07</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1.425058658313969E-06</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0002668368321944487</v>
+        <v>0.0002167345451750813</v>
       </c>
       <c r="AP6">
-        <v>0.0002636953622863434</v>
+        <v>0.0002135642879005523</v>
       </c>
       <c r="AQ6">
-        <v>2.167855536585563E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0001820974046732592</v>
+        <v>0.00013121859423589</v>
       </c>
       <c r="AS6">
-        <v>0.0002742733919769133</v>
+        <v>0.0002242392510731072</v>
       </c>
       <c r="AT6">
-        <v>0.000147949495672159</v>
+        <v>9.675776536040756E-05</v>
       </c>
       <c r="AU6">
-        <v>2.546246225516821E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>1.818898946793293E-05</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.00012028756648133</v>
+        <v>6.884235161779276E-05</v>
       </c>
       <c r="AX6">
-        <v>0.0001486541656515459</v>
+        <v>9.746889269685907E-05</v>
       </c>
       <c r="AY6">
-        <v>4.878347857297832E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>2.939663214008528E-06</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>8.19708576021761E-05</v>
+        <v>3.017452139387901E-05</v>
       </c>
       <c r="BB6">
-        <v>0.0006238174817519968</v>
+        <v>0.0005769864445187532</v>
       </c>
       <c r="BC6">
-        <v>0.0007043024793976377</v>
+        <v>0.0006582089794277186</v>
       </c>
       <c r="BD6">
-        <v>0.0003557720195929032</v>
+        <v>0.0003064847045142185</v>
       </c>
       <c r="BE6">
-        <v>1.086488368217878E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0001988644741827864</v>
+        <v>0.0001481393114924728</v>
       </c>
       <c r="BG6">
-        <v>0.0004726333261744586</v>
+        <v>0.0004244168885358673</v>
       </c>
       <c r="BH6">
-        <v>0.0003122388908663408</v>
+        <v>0.000262552652937881</v>
       </c>
       <c r="BI6">
-        <v>0.0003461746898736457</v>
+        <v>0.000296799428115413</v>
       </c>
       <c r="BJ6">
-        <v>0.0002493135327070429</v>
+        <v>0.0001990506681051891</v>
       </c>
       <c r="BK6">
-        <v>0.0001456126457405169</v>
+        <v>9.439950132733287E-05</v>
       </c>
       <c r="BL6">
-        <v>2.877563615825075E-05</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>2.987864312598542E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0003745685590430639</v>
+        <v>0.0003254534890867197</v>
       </c>
       <c r="BO6">
-        <v>0.0006437257211696381</v>
+        <v>0.0005970771163007755</v>
       </c>
       <c r="BP6">
-        <v>0.0006127863120746823</v>
+        <v>0.0005658541889380646</v>
       </c>
       <c r="BQ6">
-        <v>0.0003213570105996162</v>
+        <v>0.0002717543280326705</v>
       </c>
       <c r="BR6">
-        <v>1.664616351306391E-06</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>3.156496807665679E-06</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>1.129932766947036E-06</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0002149535637121459</v>
+        <v>0.0001643758359899379</v>
       </c>
       <c r="BV6">
-        <v>0.00071945307895445</v>
+        <v>0.0006734984139483344</v>
       </c>
       <c r="BW6">
-        <v>0.0006303089815621065</v>
+        <v>0.0005835374302348687</v>
       </c>
       <c r="BX6">
-        <v>0.0003658251592988272</v>
+        <v>0.0003166299677880548</v>
       </c>
       <c r="BY6">
-        <v>0.000159181765343591</v>
+        <v>0.0001080929637474601</v>
       </c>
       <c r="BZ6">
-        <v>6.380036813370201E-05</v>
+        <v>1.183752371309374E-05</v>
       </c>
       <c r="CA6">
-        <v>4.652011863918646E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>1.21736516438945E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0006599765406942666</v>
+        <v>0.0006134768528324188</v>
       </c>
       <c r="CD6">
-        <v>0.001646788251827902</v>
+        <v>0.001609331372317127</v>
       </c>
       <c r="CE6">
-        <v>0.001096033367938667</v>
+        <v>0.001053529557177242</v>
       </c>
       <c r="CF6">
-        <v>0.0001448131057639052</v>
+        <v>9.359263463712834E-05</v>
       </c>
       <c r="CG6">
-        <v>4.103511179963472E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0001495963356239854</v>
+        <v>9.841969639587355E-05</v>
       </c>
       <c r="CI6">
-        <v>0.0004465845869364403</v>
+        <v>0.000398129447472507</v>
       </c>
       <c r="CJ6">
-        <v>0.0005763128831416086</v>
+        <v>0.0005290465298534564</v>
       </c>
       <c r="CK6">
-        <v>0.0004236528676072424</v>
+        <v>0.000374987589632877</v>
       </c>
       <c r="CL6">
-        <v>9.795186313469731E-05</v>
+        <v>4.630197144935994E-05</v>
       </c>
       <c r="CM6">
-        <v>1.127818467008884E-05</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.07720135774169423</v>
+        <v>0.07785625735150785</v>
       </c>
       <c r="CO6">
-        <v>0.002416147929322476</v>
+        <v>0.002385741201363545</v>
       </c>
       <c r="CP6">
-        <v>0.04052213881464028</v>
+        <v>0.04084092248310237</v>
       </c>
       <c r="CQ6">
-        <v>0.0320181720633996</v>
+        <v>0.03225902826030076</v>
       </c>
       <c r="CR6">
-        <v>0.03849039487407317</v>
+        <v>0.0387905603290851</v>
       </c>
       <c r="CS6">
-        <v>2.823110117417956E-06</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.0004645167364118863</v>
+        <v>0.0004162259210932785</v>
       </c>
       <c r="CU6">
-        <v>0.003262127204575763</v>
+        <v>0.0032394727442164</v>
       </c>
       <c r="CV6">
-        <v>2.575529024660236E-05</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.0002420577429192904</v>
+        <v>0.0001917283887168917</v>
       </c>
       <c r="CX6">
-        <v>0.06645144305615236</v>
+        <v>0.06700783408809344</v>
       </c>
       <c r="CY6">
-        <v>0.06885952298571085</v>
+        <v>0.06943798084666437</v>
       </c>
       <c r="CZ6">
-        <v>0.002694354321184341</v>
+        <v>0.002666496982389793</v>
       </c>
       <c r="DA6">
-        <v>0.01774573448089909</v>
+        <v>0.01785580289295228</v>
       </c>
       <c r="DB6">
-        <v>0.006901116398127501</v>
+        <v>0.006911808402445895</v>
       </c>
       <c r="DC6">
-        <v>0.02209624735363724</v>
+        <v>0.02224618239241687</v>
       </c>
       <c r="DD6">
-        <v>0.005349376843519221</v>
+        <v>0.005345849232033722</v>
       </c>
       <c r="DE6">
-        <v>0.03157106707647838</v>
+        <v>0.03180782615468514</v>
       </c>
       <c r="DF6">
-        <v>0.0006223730817942486</v>
+        <v>0.0005755288085689177</v>
       </c>
       <c r="DG6">
-        <v>4.22248437648325E-05</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.002011793141150723</v>
+        <v>0.001977681042841987</v>
       </c>
       <c r="DI6">
-        <v>0.0005842115829105546</v>
+        <v>0.0005370176106323026</v>
       </c>
       <c r="DJ6">
-        <v>0.01106318767637796</v>
+        <v>0.01111201949246398</v>
       </c>
       <c r="DK6">
-        <v>0.0004208783676884025</v>
+        <v>0.0003721876651363258</v>
       </c>
       <c r="DL6">
-        <v>0.001844141446054896</v>
+        <v>0.001808493044385164</v>
       </c>
       <c r="DM6">
-        <v>0.000260572462377695</v>
+        <v>0.0002104127707946666</v>
       </c>
       <c r="DN6">
-        <v>0.003476573298302753</v>
+        <v>0.003455883949327183</v>
       </c>
       <c r="DO6">
-        <v>0.00579858283037898</v>
+        <v>0.005799171590439843</v>
       </c>
       <c r="DP6">
-        <v>0.008453996752702411</v>
+        <v>0.008478918826729274</v>
       </c>
       <c r="DQ6">
-        <v>0.00859647074853474</v>
+        <v>0.008622698406012617</v>
       </c>
       <c r="DR6">
-        <v>0.0004382918871790195</v>
+        <v>0.0003897607562227141</v>
       </c>
       <c r="DS6">
-        <v>0.01092767668034195</v>
+        <v>0.01097526671954917</v>
       </c>
       <c r="DT6">
-        <v>0.02425387229052207</v>
+        <v>0.0244235790735743</v>
       </c>
       <c r="DU6">
-        <v>0.0002420577429192904</v>
+        <v>0.0001917283887168917</v>
       </c>
       <c r="DV6">
-        <v>0.003848833887413331</v>
+        <v>0.003831555808415614</v>
       </c>
       <c r="DW6">
-        <v>0.0003097082909403663</v>
+        <v>0.0002599988634511365</v>
       </c>
       <c r="DX6">
-        <v>0.0008653545746865174</v>
+        <v>0.0008207369015798234</v>
       </c>
       <c r="DY6">
-        <v>4.612628465070696E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>4.65938286370303E-05</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.003145314907992774</v>
+        <v>0.003121590019304347</v>
       </c>
       <c r="EB6">
-        <v>0.001985441641921561</v>
+        <v>0.001951088067397449</v>
       </c>
       <c r="EC6">
-        <v>3.062122910426319E-05</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.0001511479555785972</v>
+        <v>9.998553487031537E-05</v>
       </c>
       <c r="EE6">
-        <v>0.004914222656248417</v>
+        <v>0.004906707439149547</v>
       </c>
       <c r="EF6">
-        <v>0.0007926207368141385</v>
+        <v>0.0007473365554474621</v>
       </c>
       <c r="EG6">
-        <v>0.01435489858008834</v>
+        <v>0.01443389452020486</v>
       </c>
       <c r="EH6">
-        <v>0.03256735104733494</v>
+        <v>0.03281323973447322</v>
       </c>
       <c r="EI6">
-        <v>0.0188213064494363</v>
+        <v>0.01894123103878201</v>
       </c>
       <c r="EJ6">
-        <v>0.001246761563529543</v>
+        <v>0.001205638974910552</v>
       </c>
       <c r="EK6">
-        <v>4.832114858650246E-05</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.01373219959830362</v>
+        <v>0.01380548933581923</v>
       </c>
       <c r="EM6">
-        <v>0.05072346851622944</v>
+        <v>0.05113573371554164</v>
       </c>
       <c r="EN6">
-        <v>0.05734261832260507</v>
+        <v>0.05781553916926192</v>
       </c>
       <c r="EO6">
-        <v>0.007892578769125094</v>
+        <v>0.007912356198866674</v>
       </c>
       <c r="EP6">
-        <v>0.001096033367938667</v>
+        <v>0.001053529557177242</v>
       </c>
       <c r="EQ6">
-        <v>0.006400976812757661</v>
+        <v>0.006407085707280885</v>
       </c>
       <c r="ER6">
-        <v>0.004706874862313786</v>
+        <v>0.004697459580246682</v>
       </c>
       <c r="ES6">
-        <v>0.0001734975349248239</v>
+        <v>0.0001225399181933036</v>
       </c>
       <c r="ET6">
-        <v>0.0001907880744190385</v>
+        <v>0.0001399889023362478</v>
       </c>
       <c r="EU6">
-        <v>0.003892563186134154</v>
+        <v>0.00387568582762161</v>
       </c>
       <c r="EV6">
-        <v>0.0105043966927238</v>
+        <v>0.01054810793746224</v>
       </c>
       <c r="EW6">
-        <v>0.01951021242928432</v>
+        <v>0.01963644991974114</v>
       </c>
       <c r="EX6">
-        <v>0.02837784516988699</v>
+        <v>0.02858534264388094</v>
       </c>
       <c r="EY6">
-        <v>0.03231027605485493</v>
+        <v>0.03255380899381691</v>
       </c>
       <c r="EZ6">
-        <v>0.0075794870782837</v>
+        <v>0.007596395441794459</v>
       </c>
       <c r="FA6">
-        <v>0.0005113708850413017</v>
+        <v>0.0004635094252742426</v>
       </c>
       <c r="FB6">
-        <v>0.003492513297836474</v>
+        <v>0.003471970017618778</v>
       </c>
       <c r="FC6">
-        <v>0.012926160621882</v>
+        <v>0.01299206409117131</v>
       </c>
       <c r="FD6">
-        <v>0.009350928726465221</v>
+        <v>0.009384069981366386</v>
       </c>
       <c r="FE6">
-        <v>0.001273850162737143</v>
+        <v>0.001232975804868122</v>
       </c>
       <c r="FF6">
-        <v>1.170711915754158E-05</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.001543147754859609</v>
+        <v>0.001504741148930998</v>
       </c>
       <c r="FH6">
-        <v>6.644637805630053E-05</v>
+        <v>1.450778077458932E-05</v>
       </c>
       <c r="FI6">
-        <v>2.446997028420074E-08</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>1.127818467008884E-05</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.00164948245174909</v>
+        <v>0.001612050260974041</v>
       </c>
       <c r="FL6">
-        <v>0.000499851585378266</v>
+        <v>0.0004518845666499419</v>
       </c>
       <c r="FM6">
-        <v>0.0007337823385352882</v>
+        <v>0.0006879589820115715</v>
       </c>
       <c r="FN6">
-        <v>0.002263159933797704</v>
+        <v>0.002231351275654994</v>
       </c>
       <c r="FO6">
-        <v>0.006436519811717951</v>
+        <v>0.006442954410247516</v>
       </c>
       <c r="FP6">
-        <v>0.002959443613429909</v>
+        <v>0.00293401546314078</v>
       </c>
       <c r="FQ6">
-        <v>0.0008651049746938187</v>
+        <v>0.0008204850143373151</v>
       </c>
       <c r="FR6">
-        <v>0.008705907245333488</v>
+        <v>0.008733137741808917</v>
       </c>
       <c r="FS6">
-        <v>0.00856073974957995</v>
+        <v>0.0085866399802832</v>
       </c>
       <c r="FT6">
-        <v>0.0001025870069991094</v>
+        <v>5.097959020251993E-05</v>
       </c>
       <c r="FU6">
-        <v>0.01426951858258589</v>
+        <v>0.01434773212931802</v>
       </c>
       <c r="FV6">
-        <v>0.006874606298902979</v>
+        <v>0.006885055373649347</v>
       </c>
       <c r="FW6">
-        <v>0.002073195739354565</v>
+        <v>0.002039646313662652</v>
       </c>
       <c r="FX6">
-        <v>0.004320077873628429</v>
+        <v>0.004307118114940313</v>
       </c>
       <c r="FY6">
-        <v>0.001187548365261656</v>
+        <v>0.001145883166945446</v>
       </c>
       <c r="FZ6">
-        <v>0.005656174234544738</v>
+        <v>0.005655458010458022</v>
       </c>
       <c r="GA6">
-        <v>0.003657934392997551</v>
+        <v>0.003638906975678408</v>
       </c>
       <c r="GB6">
-        <v>7.231897788451434E-05</v>
+        <v>2.043419511895644E-05</v>
       </c>
       <c r="GC6">
-        <v>0.00754520277928659</v>
+        <v>0.00756179697309123</v>
       </c>
       <c r="GD6">
-        <v>0.009634693718164484</v>
+        <v>0.009670435299356602</v>
       </c>
       <c r="GE6">
-        <v>0.004972536454542613</v>
+        <v>0.004965555605344172</v>
       </c>
       <c r="GF6">
-        <v>0.001607884052965933</v>
+        <v>0.001570070668551141</v>
       </c>
       <c r="GG6">
-        <v>0.0002110126938274248</v>
+        <v>0.0001603988533081128</v>
       </c>
       <c r="GH6">
-        <v>0.00453958686720732</v>
+        <v>0.004528638614602761</v>
       </c>
       <c r="GI6">
-        <v>0.003885345886345276</v>
+        <v>0.003868402390941503</v>
       </c>
       <c r="GJ6">
-        <v>0.003925122885181713</v>
+        <v>0.003908543892725362</v>
       </c>
       <c r="GK6">
-        <v>4.704783862374952E-05</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0004521289567742555</v>
+        <v>0.0004037246240379939</v>
       </c>
       <c r="GM6">
-        <v>0.0001084432068278029</v>
+        <v>5.688945426332482E-05</v>
       </c>
       <c r="GN6">
-        <v>2.987864312598542E-05</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.002419410929227026</v>
+        <v>0.002389034102294252</v>
       </c>
       <c r="GP6">
-        <v>0.002229737034775396</v>
+        <v>0.002197622100504234</v>
       </c>
       <c r="GQ6">
-        <v>0.0001078414608454053</v>
+        <v>5.628219408451722E-05</v>
       </c>
       <c r="GR6">
-        <v>0.003306963103264216</v>
+        <v>0.003284719503897394</v>
       </c>
       <c r="GS6">
-        <v>0.006322515815052813</v>
+        <v>0.006327905719562771</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>5.275012076538113E-05</v>
+        <v>5.247896234417397E-05</v>
       </c>
       <c r="C2">
-        <v>0.0001102457921498039</v>
+        <v>0.0001097037256865131</v>
       </c>
       <c r="D2">
-        <v>0.0001269979738049899</v>
+        <v>0.0001261828496398467</v>
       </c>
       <c r="E2">
-        <v>0.0001286429812729337</v>
+        <v>0.0001275540023390993</v>
       </c>
       <c r="F2">
-        <v>0.000130762127902815</v>
+        <v>0.0001293993192162585</v>
       </c>
       <c r="G2">
-        <v>0.000130828174422513</v>
+        <v>0.0001293993192162585</v>
       </c>
       <c r="H2">
-        <v>0.000131102101530523</v>
+        <v>0.0001293993192162585</v>
       </c>
       <c r="I2">
-        <v>0.0001311577114660588</v>
+        <v>0.0001293993192162585</v>
       </c>
       <c r="J2">
-        <v>0.0001364853222383745</v>
+        <v>0.0001344532695170386</v>
       </c>
       <c r="K2">
-        <v>0.0001431136149062753</v>
+        <v>0.0001408079703384422</v>
       </c>
       <c r="L2">
-        <v>0.0001544954859925734</v>
+        <v>0.0001519165003809197</v>
       </c>
       <c r="M2">
-        <v>0.0001746782283723644</v>
+        <v>0.0001718263660580419</v>
       </c>
       <c r="N2">
-        <v>0.0001754345740116473</v>
+        <v>0.0001723088100421102</v>
       </c>
       <c r="O2">
-        <v>0.0001761230151163814</v>
+        <v>0.0001727233459089311</v>
       </c>
       <c r="P2">
-        <v>0.0001771130712369027</v>
+        <v>0.0001734395127049935</v>
       </c>
       <c r="Q2">
-        <v>0.0001801903367898692</v>
+        <v>0.0001762429990563742</v>
       </c>
       <c r="R2">
-        <v>0.0001802106666282372</v>
+        <v>0.0001762429990563742</v>
       </c>
       <c r="S2">
-        <v>0.0001812164227474981</v>
+        <v>0.0001769748666795211</v>
       </c>
       <c r="T2">
-        <v>0.0001846585859711718</v>
+        <v>0.0001801432699539078</v>
       </c>
       <c r="U2">
-        <v>0.0001867777326010531</v>
+        <v>0.000181988586831067</v>
       </c>
       <c r="V2">
-        <v>0.0001904204250086289</v>
+        <v>0.0001853575298694393</v>
       </c>
       <c r="W2">
-        <v>0.0001959340902660087</v>
+        <v>0.0001905975444716699</v>
       </c>
       <c r="X2">
-        <v>0.0001968209617948133</v>
+        <v>0.0001912105212319125</v>
       </c>
       <c r="Y2">
-        <v>0.0001994486709838688</v>
+        <v>0.0001935644275004215</v>
       </c>
       <c r="Z2">
-        <v>0.0002064531857215677</v>
+        <v>0.0002002953702414066</v>
       </c>
       <c r="AA2">
-        <v>0.0002121186287667632</v>
+        <v>0.000205687170639373</v>
       </c>
       <c r="AB2">
-        <v>0.000213274105874005</v>
+        <v>0.0002065687671499022</v>
       </c>
       <c r="AC2">
-        <v>0.0002171444611633047</v>
+        <v>0.0002101653850816778</v>
       </c>
       <c r="AD2">
-        <v>0.0002283838862610379</v>
+        <v>0.0002211314616200238</v>
       </c>
       <c r="AE2">
-        <v>0.0002342411421908353</v>
+        <v>0.0002267150850227964</v>
       </c>
       <c r="AF2">
-        <v>0.0002362990795256303</v>
+        <v>0.000228499189375417</v>
       </c>
       <c r="AG2">
-        <v>0.0002389267887146859</v>
+        <v>0.000230853095643926</v>
       </c>
       <c r="AH2">
-        <v>0.0002399979587286956</v>
+        <v>0.0002316503806131121</v>
       </c>
       <c r="AI2">
-        <v>0.0002665269075990324</v>
+        <v>0.0002579067876118137</v>
       </c>
       <c r="AJ2">
-        <v>0.000294445649357801</v>
+        <v>0.000285553060825554</v>
       </c>
       <c r="AK2">
-        <v>0.0003213878101949665</v>
+        <v>0.0003122227015924849</v>
       </c>
       <c r="AL2">
-        <v>0.0003230813446590147</v>
+        <v>0.0003136423838481658</v>
       </c>
       <c r="AM2">
-        <v>0.0003237050745389435</v>
+        <v>0.0003139922050759644</v>
       </c>
       <c r="AN2">
-        <v>0.00032678234009191</v>
+        <v>0.000316795691427345</v>
       </c>
       <c r="AO2">
-        <v>0.0003277880962111709</v>
+        <v>0.0003175275590504919</v>
       </c>
       <c r="AP2">
-        <v>0.0003363974335200396</v>
+        <v>0.0003258634090343952</v>
       </c>
       <c r="AQ2">
-        <v>0.0003545969850590351</v>
+        <v>0.0003437899792359547</v>
       </c>
       <c r="AR2">
-        <v>0.0003682379299639816</v>
+        <v>0.000357157702287659</v>
       </c>
       <c r="AS2">
-        <v>0.0003683039764836796</v>
+        <v>0.000357157702287659</v>
       </c>
       <c r="AT2">
-        <v>0.0003773886707543881</v>
+        <v>0.0003659689343136234</v>
       </c>
       <c r="AU2">
-        <v>0.0003856881980881273</v>
+        <v>0.0003739949579765702</v>
       </c>
       <c r="AV2">
-        <v>0.0003928052582167914</v>
+        <v>0.0003808384520465071</v>
       </c>
       <c r="AW2">
-        <v>0.0004054800851992949</v>
+        <v>0.0003932400062025984</v>
       </c>
       <c r="AX2">
-        <v>0.0004091227776068707</v>
+        <v>0.0003966089492409706</v>
       </c>
       <c r="AY2">
-        <v>0.0004105373158933159</v>
+        <v>0.0003977496205989824</v>
       </c>
       <c r="AZ2">
-        <v>0.0004186082132454089</v>
+        <v>0.0004055470022175786</v>
       </c>
       <c r="BA2">
-        <v>0.000432845859602454</v>
+        <v>0.000419511458203837</v>
       </c>
       <c r="BB2">
-        <v>0.0004560029657434721</v>
+        <v>0.0004423958445720458</v>
       </c>
       <c r="BC2">
-        <v>0.0004770321220553156</v>
+        <v>0.0004631521688387103</v>
       </c>
       <c r="BD2">
-        <v>0.0004897069490378191</v>
+        <v>0.0004755537229948015</v>
       </c>
       <c r="BE2">
-        <v>0.0004968240091664832</v>
+        <v>0.0004823972170647384</v>
       </c>
       <c r="BF2">
-        <v>0.0005056694284564</v>
+        <v>0.0004909691614855678</v>
       </c>
       <c r="BG2">
-        <v>0.0005216670931721563</v>
+        <v>0.0005066937286905423</v>
       </c>
       <c r="BH2">
-        <v>0.0005247719907229046</v>
+        <v>0.0005095248484975914</v>
       </c>
       <c r="BI2">
-        <v>0.0005248480427867993</v>
+        <v>0.0005095248484975914</v>
       </c>
       <c r="BJ2">
-        <v>0.0005259192128008091</v>
+        <v>0.0005103221334667776</v>
       </c>
       <c r="BK2">
-        <v>0.0005261714205205627</v>
+        <v>0.0005103221334667776</v>
       </c>
       <c r="BL2">
-        <v>0.0005269141593609378</v>
+        <v>0.0005107909699340324</v>
       </c>
       <c r="BM2">
-        <v>0.0005280696364681796</v>
+        <v>0.0005116725664445616</v>
       </c>
       <c r="BN2">
-        <v>0.0005352872521887715</v>
+        <v>0.0005186166214118214</v>
       </c>
       <c r="BO2">
-        <v>0.0005656500667513373</v>
+        <v>0.0005487070963806347</v>
       </c>
       <c r="BP2">
-        <v>0.0005939926624760802</v>
+        <v>0.0005767772459232303</v>
       </c>
       <c r="BQ2">
-        <v>0.0006156878877344536</v>
+        <v>0.0005981996742787661</v>
       </c>
       <c r="BR2">
-        <v>0.0006172790199067224</v>
+        <v>0.000599516948839839</v>
       </c>
       <c r="BS2">
-        <v>0.0006175529470147324</v>
+        <v>0.000599516948839839</v>
       </c>
       <c r="BT2">
-        <v>0.0006221917652423423</v>
+        <v>0.0006038820702546564</v>
       </c>
       <c r="BU2">
-        <v>0.0006229345040827174</v>
+        <v>0.0006043509067219112</v>
       </c>
       <c r="BV2">
-        <v>0.0006233906061761029</v>
+        <v>0.0006045330913189877</v>
       </c>
       <c r="BW2">
-        <v>0.0006244617761901127</v>
+        <v>0.0006053303762881739</v>
       </c>
       <c r="BX2">
-        <v>0.0006245979447491815</v>
+        <v>0.0006053303762881739</v>
       </c>
       <c r="BY2">
-        <v>0.0006334433640390983</v>
+        <v>0.0006139023207090032</v>
       </c>
       <c r="BZ2">
-        <v>0.0006491229857803861</v>
+        <v>0.0006293088281593024</v>
       </c>
       <c r="CA2">
-        <v>0.0006564548398918071</v>
+        <v>0.0006363671275447021</v>
       </c>
       <c r="CB2">
-        <v>0.0006619685051491869</v>
+        <v>0.0006416071421469328</v>
       </c>
       <c r="CC2">
-        <v>0.0006639729129882791</v>
+        <v>0.0006433377141795907</v>
       </c>
       <c r="CD2">
-        <v>0.0006715227543822009</v>
+        <v>0.0006506140123486781</v>
       </c>
       <c r="CE2">
-        <v>0.000674047426179528</v>
+        <v>0.0006528648757891217</v>
       </c>
       <c r="CF2">
-        <v>0.0006802043368852699</v>
+        <v>0.0006587481697778694</v>
       </c>
       <c r="CG2">
-        <v>0.000693454577821581</v>
+        <v>0.0006717251682470779</v>
       </c>
       <c r="CH2">
-        <v>0.0006934859349990637</v>
+        <v>0.0006717251682470779</v>
       </c>
       <c r="CI2">
-        <v>0.0006972006671008564</v>
+        <v>0.0006751661547805401</v>
       </c>
       <c r="CJ2">
-        <v>0.0006972086426067162</v>
+        <v>0.0006751661547805401</v>
       </c>
       <c r="CK2">
-        <v>0.00070010182777446</v>
+        <v>0.0006777855510344668</v>
       </c>
       <c r="CL2">
-        <v>0.0007025596489771537</v>
+        <v>0.0006799695603531852</v>
       </c>
       <c r="CM2">
-        <v>0.0007025597371512326</v>
+        <v>0.0006799695603531852</v>
       </c>
       <c r="CN2">
-        <v>0.1076523711515465</v>
+        <v>0.107635149792519</v>
       </c>
       <c r="CO2">
-        <v>0.1112029173665194</v>
+        <v>0.1111856093956472</v>
       </c>
       <c r="CP2">
-        <v>0.1684562287703981</v>
+        <v>0.168441667589399</v>
       </c>
       <c r="CQ2">
-        <v>0.1797072198672029</v>
+        <v>0.1796929783561152</v>
       </c>
       <c r="CR2">
-        <v>0.2049717378390444</v>
+        <v>0.2049585553629825</v>
       </c>
       <c r="CS2">
-        <v>0.2108773869649569</v>
+        <v>0.2108642421342018</v>
       </c>
       <c r="CT2">
-        <v>0.2203500852045176</v>
+        <v>0.2203371662194915</v>
       </c>
       <c r="CU2">
-        <v>0.2273338606438814</v>
+        <v>0.2273210361869863</v>
       </c>
       <c r="CV2">
-        <v>0.2335800096424596</v>
+        <v>0.2335672407959225</v>
       </c>
       <c r="CW2">
-        <v>0.2381929802721444</v>
+        <v>0.2381801808681417</v>
       </c>
       <c r="CX2">
-        <v>0.251467605206498</v>
+        <v>0.2514552322409795</v>
       </c>
       <c r="CY2">
-        <v>0.3193428297576819</v>
+        <v>0.3193337640028426</v>
       </c>
       <c r="CZ2">
-        <v>0.3367486783603935</v>
+        <v>0.3367402570107705</v>
       </c>
       <c r="DA2">
-        <v>0.3944106537314659</v>
+        <v>0.3944050007331604</v>
       </c>
       <c r="DB2">
-        <v>0.3951472729723323</v>
+        <v>0.3951413848970985</v>
       </c>
       <c r="DC2">
-        <v>0.4319248040199443</v>
+        <v>0.4319205824157018</v>
       </c>
       <c r="DD2">
-        <v>0.4415260392491864</v>
+        <v>0.4415220502723895</v>
       </c>
       <c r="DE2">
-        <v>0.45837553789656</v>
+        <v>0.4583721639715019</v>
       </c>
       <c r="DF2">
-        <v>0.4585908611792745</v>
+        <v>0.4585872246732879</v>
       </c>
       <c r="DG2">
-        <v>0.4586911044762273</v>
+        <v>0.4586871993175982</v>
       </c>
       <c r="DH2">
-        <v>0.4608738673010018</v>
+        <v>0.46086980336516</v>
       </c>
       <c r="DI2">
-        <v>0.4634319177956493</v>
+        <v>0.4634277148830785</v>
       </c>
       <c r="DJ2">
-        <v>0.4694767423103892</v>
+        <v>0.4694725843861324</v>
       </c>
       <c r="DK2">
-        <v>0.4695997529905143</v>
+        <v>0.4695953276148407</v>
       </c>
       <c r="DL2">
-        <v>0.4721962235820776</v>
+        <v>0.4721916612567507</v>
       </c>
       <c r="DM2">
-        <v>0.4736847926625798</v>
+        <v>0.4736800349338117</v>
       </c>
       <c r="DN2">
-        <v>0.4781637983030189</v>
+        <v>0.4781590029486831</v>
       </c>
       <c r="DO2">
-        <v>0.4836968015588462</v>
+        <v>0.483692024188717</v>
       </c>
       <c r="DP2">
-        <v>0.4895269500908196</v>
+        <v>0.4895222063825244</v>
       </c>
       <c r="DQ2">
-        <v>0.4945794561852199</v>
+        <v>0.4945747051097088</v>
       </c>
       <c r="DR2">
-        <v>0.4947468204417844</v>
+        <v>0.4947418042549874</v>
       </c>
       <c r="DS2">
-        <v>0.5173644936261065</v>
+        <v>0.5173603968246443</v>
       </c>
       <c r="DT2">
-        <v>0.5360803991236507</v>
+        <v>0.5360770158470758</v>
       </c>
       <c r="DU2">
-        <v>0.5360826362024711</v>
+        <v>0.5360789791023657</v>
       </c>
       <c r="DV2">
-        <v>0.5389178247748708</v>
+        <v>0.5389140433200676</v>
       </c>
       <c r="DW2">
-        <v>0.5393046794938153</v>
+        <v>0.5393006445082222</v>
       </c>
       <c r="DX2">
-        <v>0.5393686946736764</v>
+        <v>0.5393643891240159</v>
       </c>
       <c r="DY2">
-        <v>0.5393701542369592</v>
+        <v>0.5393655748227458</v>
       </c>
       <c r="DZ2">
-        <v>0.539861780347493</v>
+        <v>0.5398569529303138</v>
       </c>
       <c r="EA2">
-        <v>0.5440835695085806</v>
+        <v>0.5440786908948823</v>
       </c>
       <c r="EB2">
-        <v>0.5494408260785164</v>
+        <v>0.5494359561764861</v>
       </c>
       <c r="EC2">
-        <v>0.5494446228932116</v>
+        <v>0.5494394792499437</v>
       </c>
       <c r="ED2">
-        <v>0.5494756631807198</v>
+        <v>0.5494702472336022</v>
       </c>
       <c r="EE2">
-        <v>0.5512155546410467</v>
+        <v>0.5512099565504617</v>
       </c>
       <c r="EF2">
-        <v>0.5522156231607642</v>
+        <v>0.5522098038930499</v>
       </c>
       <c r="EG2">
-        <v>0.5709898836536238</v>
+        <v>0.570984780989654</v>
       </c>
       <c r="EH2">
-        <v>0.6089985006024079</v>
+        <v>0.6089951293625262</v>
       </c>
       <c r="EI2">
-        <v>0.6221995685426664</v>
+        <v>0.6221966198603419</v>
       </c>
       <c r="EJ2">
-        <v>0.6226573003359211</v>
+        <v>0.6226541018623389</v>
       </c>
       <c r="EK2">
-        <v>0.6252132091307406</v>
+        <v>0.6252098715674316</v>
       </c>
       <c r="EL2">
-        <v>0.6509499060646771</v>
+        <v>0.6509476524489411</v>
       </c>
       <c r="EM2">
-        <v>0.6973679543383777</v>
+        <v>0.6973678758351894</v>
       </c>
       <c r="EN2">
-        <v>0.7571275895410564</v>
+        <v>0.7571303900634302</v>
       </c>
       <c r="EO2">
-        <v>0.7680504176642051</v>
+        <v>0.768053520542344</v>
       </c>
       <c r="EP2">
-        <v>0.7681734283443302</v>
+        <v>0.7681762637710523</v>
       </c>
       <c r="EQ2">
-        <v>0.7690101136371637</v>
+        <v>0.769012719266524</v>
       </c>
       <c r="ER2">
-        <v>0.7704914971182427</v>
+        <v>0.7704939069650438</v>
       </c>
       <c r="ES2">
-        <v>0.7705260447624693</v>
+        <v>0.7705281824904717</v>
       </c>
       <c r="ET2">
-        <v>0.7707053312080767</v>
+        <v>0.7707072044538177</v>
       </c>
       <c r="EU2">
-        <v>0.7743978875116495</v>
+        <v>0.7743996816381139</v>
       </c>
       <c r="EV2">
-        <v>0.7857298066019576</v>
+        <v>0.7857319246681604</v>
       </c>
       <c r="EW2">
-        <v>0.7967323757187048</v>
+        <v>0.7967348003478728</v>
       </c>
       <c r="EX2">
-        <v>0.8234900735706784</v>
+        <v>0.8234936360162612</v>
       </c>
       <c r="EY2">
-        <v>0.8524527222456453</v>
+        <v>0.8524575388426477</v>
       </c>
       <c r="EZ2">
-        <v>0.8551210680314386</v>
+        <v>0.8551257514709817</v>
       </c>
       <c r="FA2">
-        <v>0.8602878222166673</v>
+        <v>0.8602925043168171</v>
       </c>
       <c r="FB2">
-        <v>0.8617518270991414</v>
+        <v>0.861756312499823</v>
       </c>
       <c r="FC2">
-        <v>0.8709552993603148</v>
+        <v>0.8709599964021431</v>
       </c>
       <c r="FD2">
-        <v>0.8804861885952041</v>
+        <v>0.8804911145529658</v>
       </c>
       <c r="FE2">
-        <v>0.8805248293291021</v>
+        <v>0.8805294833840198</v>
       </c>
       <c r="FF2">
-        <v>0.8812815307683565</v>
+        <v>0.881285950805899</v>
       </c>
       <c r="FG2">
-        <v>0.8826107713616491</v>
+        <v>0.8826149875894495</v>
       </c>
       <c r="FH2">
-        <v>0.8834053059278663</v>
+        <v>0.8834092901343982</v>
       </c>
       <c r="FI2">
-        <v>0.8837403642409688</v>
+        <v>0.8837440921838902</v>
       </c>
       <c r="FJ2">
-        <v>0.8838526861919519</v>
+        <v>0.8838561461195105</v>
       </c>
       <c r="FK2">
-        <v>0.8843553538515992</v>
+        <v>0.8843585663587532</v>
       </c>
       <c r="FL2">
-        <v>0.8847896893667321</v>
+        <v>0.8847926508482217</v>
       </c>
       <c r="FM2">
-        <v>0.8857833743869621</v>
+        <v>0.8857861143545237</v>
       </c>
       <c r="FN2">
-        <v>0.888870737139118</v>
+        <v>0.8888733660568974</v>
       </c>
       <c r="FO2">
-        <v>0.8982359143873101</v>
+        <v>0.8982387634779233</v>
       </c>
       <c r="FP2">
-        <v>0.9009615463685047</v>
+        <v>0.900964265324125</v>
       </c>
       <c r="FQ2">
-        <v>0.9009882939183574</v>
+        <v>0.9009907403436397</v>
       </c>
       <c r="FR2">
-        <v>0.9110490761107085</v>
+        <v>0.9110517794095091</v>
       </c>
       <c r="FS2">
-        <v>0.9169118141400657</v>
+        <v>0.9169145528201487</v>
       </c>
       <c r="FT2">
-        <v>0.9198639113030803</v>
+        <v>0.9198665317966582</v>
       </c>
       <c r="FU2">
-        <v>0.9307244374312303</v>
+        <v>0.9307273569934694</v>
       </c>
       <c r="FV2">
-        <v>0.9387841257842231</v>
+        <v>0.9387871966406366</v>
       </c>
       <c r="FW2">
-        <v>0.9415636901610881</v>
+        <v>0.941566633728026</v>
       </c>
       <c r="FX2">
-        <v>0.945533199842428</v>
+        <v>0.9455360789023755</v>
       </c>
       <c r="FY2">
-        <v>0.9463842705741067</v>
+        <v>0.9463869205956799</v>
       </c>
       <c r="FZ2">
-        <v>0.9501483943719343</v>
+        <v>0.9501509690501903</v>
       </c>
       <c r="GA2">
-        <v>0.9521563242107438</v>
+        <v>0.9521587308874561</v>
       </c>
       <c r="GB2">
-        <v>0.9527392518639481</v>
+        <v>0.9527414153548385</v>
       </c>
       <c r="GC2">
-        <v>0.9621224821106911</v>
+        <v>0.9621248667269061</v>
       </c>
       <c r="GD2">
-        <v>0.9693519455303318</v>
+        <v>0.9693544376373762</v>
       </c>
       <c r="GE2">
-        <v>0.9707684374166201</v>
+        <v>0.9707707303173718</v>
       </c>
       <c r="GF2">
-        <v>0.9710755357419671</v>
+        <v>0.9710775709039166</v>
       </c>
       <c r="GG2">
-        <v>0.9717537782875199</v>
+        <v>0.9717555752925389</v>
       </c>
       <c r="GH2">
-        <v>0.9787064227293828</v>
+        <v>0.9787083126200359</v>
       </c>
       <c r="GI2">
-        <v>0.985342895196627</v>
+        <v>0.9853448612914228</v>
       </c>
       <c r="GJ2">
-        <v>0.9866107051948511</v>
+        <v>0.9866124642387765</v>
       </c>
       <c r="GK2">
-        <v>0.9867707118020063</v>
+        <v>0.9867722053464502</v>
       </c>
       <c r="GL2">
-        <v>0.9889872069240728</v>
+        <v>0.9889885434710476</v>
       </c>
       <c r="GM2">
-        <v>0.9911649944492467</v>
+        <v>0.9911661719565079</v>
       </c>
       <c r="GN2">
-        <v>0.9924666134447566</v>
+        <v>0.9924675856849378</v>
       </c>
       <c r="GO2">
-        <v>0.9925275941998613</v>
+        <v>0.9925282957158762</v>
       </c>
       <c r="GP2">
-        <v>0.9930160301606511</v>
+        <v>0.9930164835053853</v>
       </c>
       <c r="GQ2">
-        <v>0.9940667727763007</v>
+        <v>0.9940670076175122</v>
       </c>
       <c r="GR2">
-        <v>0.9972450842211555</v>
+        <v>0.997245212811112</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.17133825217208E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.171674537407058E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.577777805495131E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>9.707795667610804E-05</v>
+        <v>1.981680016621858E-06</v>
       </c>
       <c r="F3">
-        <v>0.0004824697038416782</v>
+        <v>0.0003120961202186359</v>
       </c>
       <c r="G3">
-        <v>0.0005650567525201528</v>
+        <v>0.0003153817720114545</v>
       </c>
       <c r="H3">
-        <v>0.0005741752859262975</v>
+        <v>0.0003153817720114545</v>
       </c>
       <c r="I3">
-        <v>0.0005792896481540942</v>
+        <v>0.0003153817720114545</v>
       </c>
       <c r="J3">
-        <v>0.0007113133140345042</v>
+        <v>0.0003687610235235174</v>
       </c>
       <c r="K3">
-        <v>0.0009797122259891462</v>
+        <v>0.0005603278650268423</v>
       </c>
       <c r="L3">
-        <v>0.001125698922491478</v>
+        <v>0.0006278557073291079</v>
       </c>
       <c r="M3">
-        <v>0.00124189324766684</v>
+        <v>0.0006651952558441144</v>
       </c>
       <c r="N3">
-        <v>0.001387022374130975</v>
+        <v>0.0007318541315249552</v>
       </c>
       <c r="O3">
-        <v>0.001466366862665024</v>
+        <v>0.0007318541315249552</v>
       </c>
       <c r="P3">
-        <v>0.001466366975086389</v>
+        <v>0.0007318541315249552</v>
       </c>
       <c r="Q3">
-        <v>0.001536539998211936</v>
+        <v>0.0007318541315249552</v>
       </c>
       <c r="R3">
-        <v>0.002067532621862652</v>
+        <v>0.001189504395135463</v>
       </c>
       <c r="S3">
-        <v>0.003184500871613061</v>
+        <v>0.002240917543839217</v>
       </c>
       <c r="T3">
-        <v>0.004063145810748412</v>
+        <v>0.003050840210357461</v>
       </c>
       <c r="U3">
-        <v>0.004423829306813462</v>
+        <v>0.003335918041858353</v>
       </c>
       <c r="V3">
-        <v>0.004429895139683638</v>
+        <v>0.003335918041858353</v>
       </c>
       <c r="W3">
-        <v>0.004443900291307436</v>
+        <v>0.003335918041858353</v>
       </c>
       <c r="X3">
-        <v>0.004592763797937902</v>
+        <v>0.003406360925342308</v>
       </c>
       <c r="Y3">
-        <v>0.004812720987734922</v>
+        <v>0.003548842283719579</v>
       </c>
       <c r="Z3">
-        <v>0.004839387491922664</v>
+        <v>0.003548842283719579</v>
       </c>
       <c r="AA3">
-        <v>0.004839636302963746</v>
+        <v>0.003548842283719579</v>
       </c>
       <c r="AB3">
-        <v>0.004893741465373621</v>
+        <v>0.003548842283719579</v>
       </c>
       <c r="AC3">
-        <v>0.005290278283035599</v>
+        <v>0.003870249905613402</v>
       </c>
       <c r="AD3">
-        <v>0.005610238417286808</v>
+        <v>0.004114063186637634</v>
       </c>
       <c r="AE3">
-        <v>0.005649201252022234</v>
+        <v>0.004114063186637634</v>
       </c>
       <c r="AF3">
-        <v>0.005677508532283057</v>
+        <v>0.004114063186637634</v>
       </c>
       <c r="AG3">
-        <v>0.006067565679656426</v>
+        <v>0.004428905027373244</v>
       </c>
       <c r="AH3">
-        <v>0.00645902793709238</v>
+        <v>0.004745170651227934</v>
       </c>
       <c r="AI3">
-        <v>0.006467240073458154</v>
+        <v>0.004745170651227934</v>
       </c>
       <c r="AJ3">
-        <v>0.006801772238358409</v>
+        <v>0.005003749616308748</v>
       </c>
       <c r="AK3">
-        <v>0.00694041058453344</v>
+        <v>0.005063831453185745</v>
       </c>
       <c r="AL3">
-        <v>0.007253625528484214</v>
+        <v>0.005300809904440783</v>
       </c>
       <c r="AM3">
-        <v>0.007726665709553695</v>
+        <v>0.005699737572822764</v>
       </c>
       <c r="AN3">
-        <v>0.007745148360376923</v>
+        <v>0.005699737572822764</v>
       </c>
       <c r="AO3">
-        <v>0.007764476762237821</v>
+        <v>0.005699737572822764</v>
       </c>
       <c r="AP3">
-        <v>0.007806793592122637</v>
+        <v>0.005699737572822764</v>
       </c>
       <c r="AQ3">
-        <v>0.007933217977753652</v>
+        <v>0.005747443133062963</v>
       </c>
       <c r="AR3">
-        <v>0.008014518156374809</v>
+        <v>0.005749424813079585</v>
       </c>
       <c r="AS3">
-        <v>0.008291607528716528</v>
+        <v>0.005949797605892806</v>
       </c>
       <c r="AT3">
-        <v>0.009180112528291052</v>
+        <v>0.006769711367045013</v>
       </c>
       <c r="AU3">
-        <v>0.01016577557219305</v>
+        <v>0.007688074343728386</v>
       </c>
       <c r="AV3">
-        <v>0.01064357379347446</v>
+        <v>0.008091823283777291</v>
       </c>
       <c r="AW3">
-        <v>0.01067811596001299</v>
+        <v>0.008091823283777291</v>
       </c>
       <c r="AX3">
-        <v>0.01071561386768317</v>
+        <v>0.008091823283777291</v>
       </c>
       <c r="AY3">
-        <v>0.01073015608933088</v>
+        <v>0.008091823283777291</v>
       </c>
       <c r="AZ3">
-        <v>0.01081973005332056</v>
+        <v>0.008102188702728164</v>
       </c>
       <c r="BA3">
-        <v>0.01126685377323571</v>
+        <v>0.008474855495979844</v>
       </c>
       <c r="BB3">
-        <v>0.0121023502104492</v>
+        <v>0.009241056243279189</v>
       </c>
       <c r="BC3">
-        <v>0.01256310345097141</v>
+        <v>0.009627533685161352</v>
       </c>
       <c r="BD3">
-        <v>0.01263543441419308</v>
+        <v>0.009627533685161352</v>
       </c>
       <c r="BE3">
-        <v>0.01264132644585551</v>
+        <v>0.009627533685161352</v>
       </c>
       <c r="BF3">
-        <v>0.01266678345698938</v>
+        <v>0.009627533685161352</v>
       </c>
       <c r="BG3">
-        <v>0.01267663149742802</v>
+        <v>0.009627533685161352</v>
       </c>
       <c r="BH3">
-        <v>0.01271201423700398</v>
+        <v>0.009627533685161352</v>
       </c>
       <c r="BI3">
-        <v>0.01273821904117116</v>
+        <v>0.009627533685161352</v>
       </c>
       <c r="BJ3">
-        <v>0.01273821915359253</v>
+        <v>0.009627533685161352</v>
       </c>
       <c r="BK3">
-        <v>0.0130027504253749</v>
+        <v>0.009815181487911353</v>
       </c>
       <c r="BL3">
-        <v>0.01331303696919524</v>
+        <v>0.01004919262238271</v>
       </c>
       <c r="BM3">
-        <v>0.01337322993187627</v>
+        <v>0.01004919262238271</v>
       </c>
       <c r="BN3">
-        <v>0.01337610409830429</v>
+        <v>0.01004919262238271</v>
       </c>
       <c r="BO3">
-        <v>0.01342317114640068</v>
+        <v>0.01004919262238271</v>
       </c>
       <c r="BP3">
-        <v>0.01342466312216714</v>
+        <v>0.01004919262238271</v>
       </c>
       <c r="BQ3">
-        <v>0.0134271792407792</v>
+        <v>0.01004919262238271</v>
       </c>
       <c r="BR3">
-        <v>0.01346075351227462</v>
+        <v>0.01004919262238271</v>
       </c>
       <c r="BS3">
-        <v>0.01352377491508163</v>
+        <v>0.01004919262238271</v>
       </c>
       <c r="BT3">
-        <v>0.01356115828474671</v>
+        <v>0.01004919262238271</v>
       </c>
       <c r="BU3">
-        <v>0.01390100269988358</v>
+        <v>0.01031315443426864</v>
       </c>
       <c r="BV3">
-        <v>0.01424084711502044</v>
+        <v>0.01057711624615457</v>
       </c>
       <c r="BW3">
-        <v>0.01431772279844453</v>
+        <v>0.01057711624615457</v>
       </c>
       <c r="BX3">
-        <v>0.01432109006239451</v>
+        <v>0.01057711624615457</v>
       </c>
       <c r="BY3">
-        <v>0.01462021017571749</v>
+        <v>0.01079981255507177</v>
       </c>
       <c r="BZ3">
-        <v>0.01517985544064441</v>
+        <v>0.01128649623610092</v>
       </c>
       <c r="CA3">
-        <v>0.01552179531587461</v>
+        <v>0.01155258135546791</v>
       </c>
       <c r="CB3">
-        <v>0.01574883663598716</v>
+        <v>0.01170224098793573</v>
       </c>
       <c r="CC3">
-        <v>0.01579554513806758</v>
+        <v>0.01170224098793573</v>
       </c>
       <c r="CD3">
-        <v>0.01579759639015895</v>
+        <v>0.01170224098793573</v>
       </c>
       <c r="CE3">
-        <v>0.01581392610288628</v>
+        <v>0.01170224098793573</v>
       </c>
       <c r="CF3">
-        <v>0.01599412106091227</v>
+        <v>0.01180443169871173</v>
       </c>
       <c r="CG3">
-        <v>0.01634275740644073</v>
+        <v>0.01207730228038661</v>
       </c>
       <c r="CH3">
-        <v>0.01682887806809283</v>
+        <v>0.01248948426096726</v>
       </c>
       <c r="CI3">
-        <v>0.01715275345251842</v>
+        <v>0.01273726482345485</v>
       </c>
       <c r="CJ3">
-        <v>0.01717146190835171</v>
+        <v>0.01273726482345485</v>
       </c>
       <c r="CK3">
-        <v>0.01726488858251299</v>
+        <v>0.01275153415274777</v>
       </c>
       <c r="CL3">
-        <v>0.01736365688691218</v>
+        <v>0.01277121609928943</v>
       </c>
       <c r="CM3">
-        <v>0.01740366187169403</v>
+        <v>0.01277121609928943</v>
       </c>
       <c r="CN3">
-        <v>0.1345244920883232</v>
+        <v>0.1313681118508724</v>
       </c>
       <c r="CO3">
-        <v>0.1354364562289426</v>
+        <v>0.1322117965107586</v>
       </c>
       <c r="CP3">
-        <v>0.191351415719427</v>
+        <v>0.1887894328114081</v>
       </c>
       <c r="CQ3">
-        <v>0.2001595421117461</v>
+        <v>0.1976342149076166</v>
       </c>
       <c r="CR3">
-        <v>0.2207318480280484</v>
+        <v>0.218399515304917</v>
       </c>
       <c r="CS3">
-        <v>0.2249144374143433</v>
+        <v>0.2225572898269654</v>
       </c>
       <c r="CT3">
-        <v>0.2363353699230382</v>
+        <v>0.2340496006406647</v>
       </c>
       <c r="CU3">
-        <v>0.2368032708838788</v>
+        <v>0.2344433207917126</v>
       </c>
       <c r="CV3">
-        <v>0.2429540774578393</v>
+        <v>0.2405954689084736</v>
       </c>
       <c r="CW3">
-        <v>0.2437042109912507</v>
+        <v>0.241275172330997</v>
       </c>
       <c r="CX3">
-        <v>0.2518274903530662</v>
+        <v>0.2494260061969934</v>
       </c>
       <c r="CY3">
-        <v>0.3189603983432046</v>
+        <v>0.3173706706969502</v>
       </c>
       <c r="CZ3">
-        <v>0.3493783336980369</v>
+        <v>0.348112442948365</v>
       </c>
       <c r="DA3">
-        <v>0.371529486684662</v>
+        <v>0.3704775723314471</v>
       </c>
       <c r="DB3">
-        <v>0.3773974559460248</v>
+        <v>0.3763431244000791</v>
       </c>
       <c r="DC3">
-        <v>0.3939587186836729</v>
+        <v>0.3930440772990996</v>
       </c>
       <c r="DD3">
-        <v>0.4004447359725639</v>
+        <v>0.3995358908769244</v>
       </c>
       <c r="DE3">
-        <v>0.413055374534249</v>
+        <v>0.4122337182120842</v>
       </c>
       <c r="DF3">
-        <v>0.4138429532693282</v>
+        <v>0.4129513644601877</v>
       </c>
       <c r="DG3">
-        <v>0.4142630480180394</v>
+        <v>0.4132966430836789</v>
       </c>
       <c r="DH3">
-        <v>0.4276461326141297</v>
+        <v>0.4267771817903339</v>
       </c>
       <c r="DI3">
-        <v>0.4288369687671703</v>
+        <v>0.4279034445017494</v>
       </c>
       <c r="DJ3">
-        <v>0.4396213392475123</v>
+        <v>0.4387507337656423</v>
       </c>
       <c r="DK3">
-        <v>0.441018261309732</v>
+        <v>0.440085821142387</v>
       </c>
       <c r="DL3">
-        <v>0.4473317955909405</v>
+        <v>0.4464028595184635</v>
       </c>
       <c r="DM3">
-        <v>0.4540624158907262</v>
+        <v>0.4531425267321435</v>
       </c>
       <c r="DN3">
-        <v>0.464176492341213</v>
+        <v>0.4633106141669829</v>
       </c>
       <c r="DO3">
-        <v>0.4646912318641398</v>
+        <v>0.4637517953360651</v>
       </c>
       <c r="DP3">
-        <v>0.4647258841226832</v>
+        <v>0.4637517953360651</v>
       </c>
       <c r="DQ3">
-        <v>0.4665408441035226</v>
+        <v>0.4655104761006271</v>
       </c>
       <c r="DR3">
-        <v>0.468823715405203</v>
+        <v>0.467743286442352</v>
       </c>
       <c r="DS3">
-        <v>0.4843084240949008</v>
+        <v>0.4833533785461472</v>
       </c>
       <c r="DT3">
-        <v>0.5206781887148311</v>
+        <v>0.5201260762467131</v>
       </c>
       <c r="DU3">
-        <v>0.5220866467775646</v>
+        <v>0.5214728529303887</v>
       </c>
       <c r="DV3">
-        <v>0.5333944502812207</v>
+        <v>0.5328505313235099</v>
       </c>
       <c r="DW3">
-        <v>0.5399244295720698</v>
+        <v>0.5393868911315095</v>
       </c>
       <c r="DX3">
-        <v>0.5402427854162495</v>
+        <v>0.5396290788024248</v>
       </c>
       <c r="DY3">
-        <v>0.5408388785427998</v>
+        <v>0.5401526947149481</v>
       </c>
       <c r="DZ3">
-        <v>0.5409478361776529</v>
+        <v>0.5401827014019362</v>
       </c>
       <c r="EA3">
-        <v>0.5422886572373737</v>
+        <v>0.5414609422280453</v>
       </c>
       <c r="EB3">
-        <v>0.5512571446368353</v>
+        <v>0.5504682164314617</v>
       </c>
       <c r="EC3">
-        <v>0.5518089701614139</v>
+        <v>0.5509469764525584</v>
       </c>
       <c r="ED3">
-        <v>0.5519208632163978</v>
+        <v>0.550979957569622</v>
       </c>
       <c r="EE3">
-        <v>0.5529267130611989</v>
+        <v>0.5519187756174873</v>
       </c>
       <c r="EF3">
-        <v>0.5530915963985429</v>
+        <v>0.5520054512254728</v>
       </c>
       <c r="EG3">
-        <v>0.5743242913442593</v>
+        <v>0.5734399168199655</v>
       </c>
       <c r="EH3">
-        <v>0.6222743714799834</v>
+        <v>0.6219468253728069</v>
       </c>
       <c r="EI3">
-        <v>0.6317156469005033</v>
+        <v>0.6314331706619775</v>
       </c>
       <c r="EJ3">
-        <v>0.6317252151559295</v>
+        <v>0.6314331706619775</v>
       </c>
       <c r="EK3">
-        <v>0.6366423759749427</v>
+        <v>0.6363352786234574</v>
       </c>
       <c r="EL3">
-        <v>0.6643594232094759</v>
+        <v>0.6643402695973006</v>
       </c>
       <c r="EM3">
-        <v>0.7118034823226617</v>
+        <v>0.7123344324165691</v>
       </c>
       <c r="EN3">
-        <v>0.7723020550173029</v>
+        <v>0.7735565953477318</v>
       </c>
       <c r="EO3">
-        <v>0.7819824404484728</v>
+        <v>0.783285228273887</v>
       </c>
       <c r="EP3">
-        <v>0.781983657049827</v>
+        <v>0.783285228273887</v>
       </c>
       <c r="EQ3">
-        <v>0.7830982508994716</v>
+        <v>0.7843342354681545</v>
       </c>
       <c r="ER3">
-        <v>0.7859822418279262</v>
+        <v>0.7871761539501878</v>
       </c>
       <c r="ES3">
-        <v>0.7862533648000022</v>
+        <v>0.7873704810529115</v>
       </c>
       <c r="ET3">
-        <v>0.7863504916743282</v>
+        <v>0.7873884997557746</v>
       </c>
       <c r="EU3">
-        <v>0.7884447397676072</v>
+        <v>0.7894301802016003</v>
       </c>
       <c r="EV3">
-        <v>0.8026706364012368</v>
+        <v>0.8037647314041872</v>
       </c>
       <c r="EW3">
-        <v>0.8150265829515778</v>
+        <v>0.8162044820263744</v>
       </c>
       <c r="EX3">
-        <v>0.8344556638169602</v>
+        <v>0.8358113646084779</v>
       </c>
       <c r="EY3">
-        <v>0.8625240570671426</v>
+        <v>0.8641723707724177</v>
       </c>
       <c r="EZ3">
-        <v>0.8659669270204901</v>
+        <v>0.8675805954410192</v>
       </c>
       <c r="FA3">
-        <v>0.8721419142955276</v>
+        <v>0.8737572456056394</v>
       </c>
       <c r="FB3">
-        <v>0.8726197125168089</v>
+        <v>0.8741609945456883</v>
       </c>
       <c r="FC3">
-        <v>0.8784931283784142</v>
+        <v>0.8800320655965611</v>
       </c>
       <c r="FD3">
-        <v>0.8861062057175051</v>
+        <v>0.8876659171658537</v>
       </c>
       <c r="FE3">
-        <v>0.88627537595504</v>
+        <v>0.8877569366443215</v>
       </c>
       <c r="FF3">
-        <v>0.8875672003125786</v>
+        <v>0.8889855296319336</v>
       </c>
       <c r="FG3">
-        <v>0.8891638439836941</v>
+        <v>0.8905229927960514</v>
       </c>
       <c r="FH3">
-        <v>0.8910902780694986</v>
+        <v>0.8923946290885043</v>
       </c>
       <c r="FI3">
-        <v>0.8910965795670792</v>
+        <v>0.8923946290885043</v>
       </c>
       <c r="FJ3">
-        <v>0.8931350486578739</v>
+        <v>0.8943797892628926</v>
       </c>
       <c r="FK3">
-        <v>0.8934260292308343</v>
+        <v>0.8945942378619158</v>
       </c>
       <c r="FL3">
-        <v>0.8948337847935365</v>
+        <v>0.8959403027097628</v>
       </c>
       <c r="FM3">
-        <v>0.896454385065719</v>
+        <v>0.8975020408435773</v>
       </c>
       <c r="FN3">
-        <v>0.8983799977514868</v>
+        <v>0.8993728448200877</v>
       </c>
       <c r="FO3">
-        <v>0.9042588623133349</v>
+        <v>0.9052494369811092</v>
       </c>
       <c r="FP3">
-        <v>0.9075712114608688</v>
+        <v>0.9085254063019237</v>
       </c>
       <c r="FQ3">
-        <v>0.9080650890828664</v>
+        <v>0.908945448328126</v>
       </c>
       <c r="FR3">
-        <v>0.9159787734353465</v>
+        <v>0.9168839017948341</v>
       </c>
       <c r="FS3">
-        <v>0.9208727016533249</v>
+        <v>0.9217624684081689</v>
       </c>
       <c r="FT3">
-        <v>0.924377013909409</v>
+        <v>0.9252329519102692</v>
       </c>
       <c r="FU3">
-        <v>0.9370536939740356</v>
+        <v>0.9379976983997008</v>
       </c>
       <c r="FV3">
-        <v>0.9468387724098686</v>
+        <v>0.947832415636754</v>
       </c>
       <c r="FW3">
-        <v>0.9496642648357176</v>
+        <v>0.9506150582067295</v>
       </c>
       <c r="FX3">
-        <v>0.9515421318193589</v>
+        <v>0.9524374819698269</v>
       </c>
       <c r="FY3">
-        <v>0.9516807701655339</v>
+        <v>0.9524975638067039</v>
       </c>
       <c r="FZ3">
-        <v>0.9529471729219402</v>
+        <v>0.9537003973555958</v>
       </c>
       <c r="GA3">
-        <v>0.9537195324563416</v>
+        <v>0.9544026221491184</v>
       </c>
       <c r="GB3">
-        <v>0.9541662604162391</v>
+        <v>0.954774887922943</v>
       </c>
       <c r="GC3">
-        <v>0.9630278358109388</v>
+        <v>0.9636738293262034</v>
       </c>
       <c r="GD3">
-        <v>0.9680788114359121</v>
+        <v>0.9687115304108717</v>
       </c>
       <c r="GE3">
-        <v>0.9682856896751266</v>
+        <v>0.9688407590073831</v>
       </c>
       <c r="GF3">
-        <v>0.9682869062764808</v>
+        <v>0.9688407590073831</v>
       </c>
       <c r="GG3">
-        <v>0.9701137866578512</v>
+        <v>0.9706115185873352</v>
       </c>
       <c r="GH3">
-        <v>0.9784455280289518</v>
+        <v>0.978973584795689</v>
       </c>
       <c r="GI3">
-        <v>0.9835671192570704</v>
+        <v>0.9840828399218372</v>
       </c>
       <c r="GJ3">
-        <v>0.9839116929724179</v>
+        <v>0.9843515938834517</v>
       </c>
       <c r="GK3">
-        <v>0.9846228964040953</v>
+        <v>0.9849918498469121</v>
       </c>
       <c r="GL3">
-        <v>0.988753548588077</v>
+        <v>0.9890969969528776</v>
       </c>
       <c r="GM3">
-        <v>0.9919711311313899</v>
+        <v>0.9922769402790492</v>
       </c>
       <c r="GN3">
-        <v>0.993133691683171</v>
+        <v>0.993374551623695</v>
       </c>
       <c r="GO3">
-        <v>0.9931440670806332</v>
+        <v>0.993374551623695</v>
       </c>
       <c r="GP3">
-        <v>0.9944909683406249</v>
+        <v>0.9946589534522314</v>
       </c>
       <c r="GQ3">
-        <v>0.9945779179584977</v>
+        <v>0.9946666596491047</v>
       </c>
       <c r="GR3">
-        <v>0.9975827558923349</v>
+        <v>0.9976310311195813</v>
       </c>
       <c r="GS3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GT3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GU3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GV3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GW3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GX3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GY3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GZ3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HA3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HB3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HC3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HD3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HE3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HF3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HG3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HH3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HI3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HJ3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HK3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HL3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HM3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HN3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HO3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HP3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HQ3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HR3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HS3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HT3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HU3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HV3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HW3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HX3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HY3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HZ3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IA3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IB3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IC3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ID3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IE3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IF3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IG3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IH3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="II3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IJ3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IK3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IL3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IM3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IN3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IO3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IP3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IQ3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IR3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IS3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IT3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IU3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IV3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IW3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001020502519961101</v>
+        <v>7.410092903492004E-05</v>
       </c>
       <c r="C4">
-        <v>0.0002577342550413001</v>
+        <v>0.0002021125710928395</v>
       </c>
       <c r="D4">
-        <v>0.0005640172610322171</v>
+        <v>0.0004815009017200029</v>
       </c>
       <c r="E4">
-        <v>0.001097659271470292</v>
+        <v>0.0009894223071777743</v>
       </c>
       <c r="F4">
-        <v>0.001361642776633828</v>
+        <v>0.001226292704497713</v>
       </c>
       <c r="G4">
-        <v>0.001416749803711725</v>
+        <v>0.001253207996178572</v>
       </c>
       <c r="H4">
-        <v>0.001429439147959929</v>
+        <v>0.001253207996178572</v>
       </c>
       <c r="I4">
-        <v>0.001457769158514066</v>
+        <v>0.001253207996178572</v>
       </c>
       <c r="J4">
-        <v>0.001485033387047357</v>
+        <v>0.001253207996178572</v>
       </c>
       <c r="K4">
-        <v>0.001534181991008707</v>
+        <v>0.001274134095747698</v>
       </c>
       <c r="L4">
-        <v>0.001738914525013289</v>
+        <v>0.001451447552894624</v>
       </c>
       <c r="M4">
-        <v>0.002211444384256006</v>
+        <v>0.001897941227103536</v>
       </c>
       <c r="N4">
-        <v>0.002275949375517728</v>
+        <v>0.001934303013579267</v>
       </c>
       <c r="O4">
-        <v>0.002308037566145376</v>
+        <v>0.001938080600704329</v>
       </c>
       <c r="P4">
-        <v>0.002410087818141486</v>
+        <v>0.002012181529739249</v>
       </c>
       <c r="Q4">
-        <v>0.00268502164351921</v>
+        <v>0.002260058794172339</v>
       </c>
       <c r="R4">
-        <v>0.003044369550548081</v>
+        <v>0.002592786050298729</v>
       </c>
       <c r="S4">
-        <v>0.003196791713529469</v>
+        <v>0.002717519008315967</v>
       </c>
       <c r="T4">
-        <v>0.003303802065622599</v>
+        <v>0.002796605651153583</v>
       </c>
       <c r="U4">
-        <v>0.003476844659007324</v>
+        <v>0.002942065522432355</v>
       </c>
       <c r="V4">
-        <v>0.00361608731173092</v>
+        <v>0.003053550911868359</v>
       </c>
       <c r="W4">
-        <v>0.003618307709774351</v>
+        <v>0.003053550911868359</v>
       </c>
       <c r="X4">
-        <v>0.003714355051653043</v>
+        <v>0.003121617932062057</v>
       </c>
       <c r="Y4">
-        <v>0.004333936963772109</v>
+        <v>0.003715923028500326</v>
       </c>
       <c r="Z4">
-        <v>0.005776499091988725</v>
+        <v>0.005137458169188916</v>
       </c>
       <c r="AA4">
-        <v>0.006709911710246341</v>
+        <v>0.006047214577637012</v>
       </c>
       <c r="AB4">
-        <v>0.006898488583934917</v>
+        <v>0.006208288947456328</v>
       </c>
       <c r="AC4">
-        <v>0.006940916924764819</v>
+        <v>0.00622246008079557</v>
       </c>
       <c r="AD4">
-        <v>0.006956650243072564</v>
+        <v>0.00622246008079557</v>
       </c>
       <c r="AE4">
-        <v>0.007063660595165694</v>
+        <v>0.006301546723633186</v>
       </c>
       <c r="AF4">
-        <v>0.007103879915952386</v>
+        <v>0.006313497429661601</v>
       </c>
       <c r="AG4">
-        <v>0.007154455976941657</v>
+        <v>0.006335858357574441</v>
       </c>
       <c r="AH4">
-        <v>0.007342200950613963</v>
+        <v>0.006496096531487937</v>
       </c>
       <c r="AI4">
-        <v>0.007346311437494364</v>
+        <v>0.006496096531487937</v>
       </c>
       <c r="AJ4">
-        <v>0.007433998169209523</v>
+        <v>0.006555759767750673</v>
       </c>
       <c r="AK4">
-        <v>0.007471694247946861</v>
+        <v>0.00656517420183559</v>
       </c>
       <c r="AL4">
-        <v>0.007502217130543891</v>
+        <v>0.006567378397758645</v>
       </c>
       <c r="AM4">
-        <v>0.007618443548817288</v>
+        <v>0.006655728698075499</v>
       </c>
       <c r="AN4">
-        <v>0.007863770913615908</v>
+        <v>0.006873846615666594</v>
       </c>
       <c r="AO4">
-        <v>0.008142120889060453</v>
+        <v>0.007125157670992425</v>
       </c>
       <c r="AP4">
-        <v>0.008205629595302688</v>
+        <v>0.007160518027683289</v>
       </c>
       <c r="AQ4">
-        <v>0.008758115006109341</v>
+        <v>0.007687380139874742</v>
       </c>
       <c r="AR4">
-        <v>0.009259115275908942</v>
+        <v>0.008162491244398653</v>
       </c>
       <c r="AS4">
-        <v>0.01025393429536767</v>
+        <v>0.00913397115359349</v>
       </c>
       <c r="AT4">
-        <v>0.01117985155347868</v>
+        <v>0.01003619349623481</v>
       </c>
       <c r="AU4">
-        <v>0.01119722946181859</v>
+        <v>0.01003619349623481</v>
       </c>
       <c r="AV4">
-        <v>0.01120105805349348</v>
+        <v>0.01003619349623481</v>
       </c>
       <c r="AW4">
-        <v>0.01120974432666338</v>
+        <v>0.01003619349623481</v>
       </c>
       <c r="AX4">
-        <v>0.01128383591811262</v>
+        <v>0.01008219138761587</v>
       </c>
       <c r="AY4">
-        <v>0.01134466062230235</v>
+        <v>0.01011485388220358</v>
       </c>
       <c r="AZ4">
-        <v>0.01159444092718807</v>
+        <v>0.01033744773463885</v>
       </c>
       <c r="BA4">
-        <v>0.01228540974070347</v>
+        <v>0.01100350837081658</v>
       </c>
       <c r="BB4">
-        <v>0.01302118835509535</v>
+        <v>0.01171461020341295</v>
       </c>
       <c r="BC4">
-        <v>0.01335279644158163</v>
+        <v>0.01201945439196846</v>
       </c>
       <c r="BD4">
-        <v>0.01336290711777939</v>
+        <v>0.01201945439196846</v>
       </c>
       <c r="BE4">
-        <v>0.01343134088911796</v>
+        <v>0.01205976524654237</v>
       </c>
       <c r="BF4">
-        <v>0.01343179161838678</v>
+        <v>0.01205976524654237</v>
       </c>
       <c r="BG4">
-        <v>0.01343288776800822</v>
+        <v>0.01205976524654237</v>
       </c>
       <c r="BH4">
-        <v>0.01358183580092165</v>
+        <v>0.01218100613425994</v>
       </c>
       <c r="BI4">
-        <v>0.01389060037696111</v>
+        <v>0.01246288884963768</v>
       </c>
       <c r="BJ4">
-        <v>0.01408303895072522</v>
+        <v>0.01262784486115614</v>
       </c>
       <c r="BK4">
-        <v>0.01408496833126296</v>
+        <v>0.01262784486115614</v>
       </c>
       <c r="BL4">
-        <v>0.01410778586370928</v>
+        <v>0.01262784486115614</v>
       </c>
       <c r="BM4">
-        <v>0.01410787525894102</v>
+        <v>0.01262784486115614</v>
       </c>
       <c r="BN4">
-        <v>0.01411214463862453</v>
+        <v>0.01262784486115614</v>
       </c>
       <c r="BO4">
-        <v>0.01412317526584029</v>
+        <v>0.01262784486115614</v>
       </c>
       <c r="BP4">
-        <v>0.01412908866365596</v>
+        <v>0.01262784486115614</v>
       </c>
       <c r="BQ4">
-        <v>0.01414403033694822</v>
+        <v>0.01262784486115614</v>
       </c>
       <c r="BR4">
-        <v>0.01473862887857861</v>
+        <v>0.01319703757424591</v>
       </c>
       <c r="BS4">
-        <v>0.01542791953206119</v>
+        <v>0.01386141138445741</v>
       </c>
       <c r="BT4">
-        <v>0.01559126261525619</v>
+        <v>0.01399712165776711</v>
       </c>
       <c r="BU4">
-        <v>0.01560806887558492</v>
+        <v>0.01399712165776711</v>
       </c>
       <c r="BV4">
-        <v>0.01573636211809434</v>
+        <v>0.01409760109478917</v>
       </c>
       <c r="BW4">
-        <v>0.01577907536592982</v>
+        <v>0.01411205860637933</v>
       </c>
       <c r="BX4">
-        <v>0.01577978907758378</v>
+        <v>0.01411205860637933</v>
       </c>
       <c r="BY4">
-        <v>0.01580488166907459</v>
+        <v>0.01411205860637933</v>
       </c>
       <c r="BZ4">
-        <v>0.0158666560202829</v>
+        <v>0.01414567565191472</v>
       </c>
       <c r="CA4">
-        <v>0.01592482998142079</v>
+        <v>0.01417567371514772</v>
       </c>
       <c r="CB4">
-        <v>0.01635276266979118</v>
+        <v>0.01457733992095272</v>
       </c>
       <c r="CC4">
-        <v>0.0166458043755231</v>
+        <v>0.01484341857391701</v>
       </c>
       <c r="CD4">
-        <v>0.01677478545804597</v>
+        <v>0.01494458940292352</v>
       </c>
       <c r="CE4">
-        <v>0.01677617402277313</v>
+        <v>0.01494458940292352</v>
       </c>
       <c r="CF4">
-        <v>0.01709208392895235</v>
+        <v>0.01523365434656396</v>
       </c>
       <c r="CG4">
-        <v>0.0179076967449058</v>
+        <v>0.01602500264049523</v>
       </c>
       <c r="CH4">
-        <v>0.01807914744825938</v>
+        <v>0.01616886240130338</v>
       </c>
       <c r="CI4">
-        <v>0.01815870266981549</v>
+        <v>0.01622035213670045</v>
       </c>
       <c r="CJ4">
-        <v>0.01815988160053855</v>
+        <v>0.01622035213670045</v>
       </c>
       <c r="CK4">
-        <v>0.01819074046114215</v>
+        <v>0.01622289404560348</v>
       </c>
       <c r="CL4">
-        <v>0.01828209173292899</v>
+        <v>0.01628624074543722</v>
       </c>
       <c r="CM4">
-        <v>0.01866605127043926</v>
+        <v>0.01664370672525827</v>
       </c>
       <c r="CN4">
-        <v>0.02046623160565091</v>
+        <v>0.0184247067952498</v>
       </c>
       <c r="CO4">
-        <v>0.1046182032516694</v>
+        <v>0.102982758655338</v>
       </c>
       <c r="CP4">
-        <v>0.1063639076858155</v>
+        <v>0.1047090015134701</v>
       </c>
       <c r="CQ4">
-        <v>0.1685879729029225</v>
+        <v>0.1672259123464754</v>
       </c>
       <c r="CR4">
-        <v>0.1770236300679246</v>
+        <v>0.1756766545125258</v>
       </c>
       <c r="CS4">
-        <v>0.1976788804719427</v>
+        <v>0.196410091278168</v>
       </c>
       <c r="CT4">
-        <v>0.2004103514253705</v>
+        <v>0.1991271911039591</v>
       </c>
       <c r="CU4">
-        <v>0.2102274846173943</v>
+        <v>0.2089665431692644</v>
       </c>
       <c r="CV4">
-        <v>0.2226065858595304</v>
+        <v>0.2213810931579316</v>
       </c>
       <c r="CW4">
-        <v>0.2310181230240607</v>
+        <v>0.2298075907690494</v>
       </c>
       <c r="CX4">
-        <v>0.235505649111837</v>
+        <v>0.2342898139089604</v>
       </c>
       <c r="CY4">
-        <v>0.2562884685183504</v>
+        <v>0.2551514784369655</v>
       </c>
       <c r="CZ4">
-        <v>0.3093831895568869</v>
+        <v>0.3084919016204545</v>
       </c>
       <c r="DA4">
-        <v>0.335399360065765</v>
+        <v>0.3346139420108527</v>
       </c>
       <c r="DB4">
-        <v>0.3637384186200789</v>
+        <v>0.3630708657229013</v>
       </c>
       <c r="DC4">
-        <v>0.3770619178806875</v>
+        <v>0.3764346905535755</v>
       </c>
       <c r="DD4">
-        <v>0.3950596712327248</v>
+        <v>0.39449690708706</v>
       </c>
       <c r="DE4">
-        <v>0.40276543438345</v>
+        <v>0.4022139861031124</v>
       </c>
       <c r="DF4">
-        <v>0.4154003666305902</v>
+        <v>0.4148856881951358</v>
       </c>
       <c r="DG4">
-        <v>0.4162492197471939</v>
+        <v>0.4157104484409462</v>
       </c>
       <c r="DH4">
-        <v>0.4162647134274969</v>
+        <v>0.4157104484409462</v>
       </c>
       <c r="DI4">
-        <v>0.4200621505017751</v>
+        <v>0.4194990189826456</v>
       </c>
       <c r="DJ4">
-        <v>0.4238768482763908</v>
+        <v>0.423304939358065</v>
       </c>
       <c r="DK4">
-        <v>0.4315115084257253</v>
+        <v>0.4309505482004287</v>
       </c>
       <c r="DL4">
-        <v>0.4315190439514727</v>
+        <v>0.4309505482004287</v>
       </c>
       <c r="DM4">
-        <v>0.4359379850379075</v>
+        <v>0.435363832169525</v>
       </c>
       <c r="DN4">
-        <v>0.4392116927019415</v>
+        <v>0.4386259687888321</v>
       </c>
       <c r="DO4">
-        <v>0.4484451988825495</v>
+        <v>0.4478786800223948</v>
       </c>
       <c r="DP4">
-        <v>0.453322968977959</v>
+        <v>0.4527531623702289</v>
       </c>
       <c r="DQ4">
-        <v>0.4567027796440684</v>
+        <v>0.4561219499021401</v>
       </c>
       <c r="DR4">
-        <v>0.4604840392180301</v>
+        <v>0.4598942594037309</v>
       </c>
       <c r="DS4">
-        <v>0.4618129909440244</v>
+        <v>0.4612015974638344</v>
       </c>
       <c r="DT4">
-        <v>0.4763454202282798</v>
+        <v>0.4757805951715663</v>
       </c>
       <c r="DU4">
-        <v>0.5050286907893266</v>
+        <v>0.5045835083837165</v>
       </c>
       <c r="DV4">
-        <v>0.5075012448376899</v>
+        <v>0.5070403542706593</v>
       </c>
       <c r="DW4">
-        <v>0.5092988528728513</v>
+        <v>0.5088187687573733</v>
       </c>
       <c r="DX4">
-        <v>0.5102640300917302</v>
+        <v>0.5097604537972314</v>
       </c>
       <c r="DY4">
-        <v>0.5104370726851148</v>
+        <v>0.5099059136685102</v>
       </c>
       <c r="DZ4">
-        <v>0.5104943007162343</v>
+        <v>0.50993496091699</v>
       </c>
       <c r="EA4">
-        <v>0.5121425803484747</v>
+        <v>0.5115632758764738</v>
       </c>
       <c r="EB4">
-        <v>0.5130193414656242</v>
+        <v>0.5124160882383314</v>
       </c>
       <c r="EC4">
-        <v>0.5167016103376496</v>
+        <v>0.5160888958550148</v>
       </c>
       <c r="ED4">
-        <v>0.5167916140954101</v>
+        <v>0.516150888082328</v>
       </c>
       <c r="EE4">
-        <v>0.5168012798145991</v>
+        <v>0.516150888082328</v>
       </c>
       <c r="EF4">
-        <v>0.5203283940835897</v>
+        <v>0.519667739885465</v>
       </c>
       <c r="EG4">
-        <v>0.5207044720109457</v>
+        <v>0.5200172835548963</v>
       </c>
       <c r="EH4">
-        <v>0.5365572183210265</v>
+        <v>0.5359234163387022</v>
       </c>
       <c r="EI4">
-        <v>0.5829076292276438</v>
+        <v>0.5824847021143438</v>
       </c>
       <c r="EJ4">
-        <v>0.5962307544882451</v>
+        <v>0.5958481510136935</v>
       </c>
       <c r="EK4">
-        <v>0.5967303982280182</v>
+        <v>0.5963218985831386</v>
       </c>
       <c r="EL4">
-        <v>0.5981729603562348</v>
+        <v>0.5977434337238271</v>
       </c>
       <c r="EM4">
-        <v>0.6152344326899584</v>
+        <v>0.6148645343312411</v>
       </c>
       <c r="EN4">
-        <v>0.6569175035052821</v>
+        <v>0.656734378107754</v>
       </c>
       <c r="EO4">
-        <v>0.7214623087677829</v>
+        <v>0.7215840131702044</v>
       </c>
       <c r="EP4">
-        <v>0.7382345550958492</v>
+        <v>0.738414394223517</v>
       </c>
       <c r="EQ4">
-        <v>0.7390988860827556</v>
+        <v>0.7392547122665685</v>
       </c>
       <c r="ER4">
-        <v>0.7405207917105682</v>
+        <v>0.7406554842377312</v>
       </c>
       <c r="ES4">
-        <v>0.7416392024324444</v>
+        <v>0.7417511940706349</v>
       </c>
       <c r="ET4">
-        <v>0.7422693153447695</v>
+        <v>0.7423560845488308</v>
       </c>
       <c r="EU4">
-        <v>0.7429198899274948</v>
+        <v>0.7429815423604565</v>
       </c>
       <c r="EV4">
-        <v>0.7485289030372075</v>
+        <v>0.7485910438244829</v>
       </c>
       <c r="EW4">
-        <v>0.7657514043740808</v>
+        <v>0.7658740049806629</v>
       </c>
       <c r="EX4">
-        <v>0.7773492586009357</v>
+        <v>0.7775032736340314</v>
       </c>
       <c r="EY4">
-        <v>0.7951927549499558</v>
+        <v>0.795410436589148</v>
       </c>
       <c r="EZ4">
-        <v>0.8217365454691542</v>
+        <v>0.8220628215928764</v>
       </c>
       <c r="FA4">
-        <v>0.8248343691297478</v>
+        <v>0.8251481659526577</v>
       </c>
       <c r="FB4">
-        <v>0.8303171648369917</v>
+        <v>0.8306307982339417</v>
       </c>
       <c r="FC4">
-        <v>0.8315069916602648</v>
+        <v>0.8317982929573728</v>
       </c>
       <c r="FD4">
-        <v>0.841061823847158</v>
+        <v>0.8413739895084423</v>
       </c>
       <c r="FE4">
-        <v>0.8523679770683071</v>
+        <v>0.8527100508268859</v>
       </c>
       <c r="FF4">
-        <v>0.8527032766748657</v>
+        <v>0.8530186055983363</v>
       </c>
       <c r="FG4">
-        <v>0.8528432359076032</v>
+        <v>0.8531308112681693</v>
       </c>
       <c r="FH4">
-        <v>0.8541311221327944</v>
+        <v>0.8543968717673034</v>
       </c>
       <c r="FI4">
-        <v>0.8565002384791345</v>
+        <v>0.8567497458051687</v>
       </c>
       <c r="FJ4">
-        <v>0.8575651119999634</v>
+        <v>0.8577916419736307</v>
       </c>
       <c r="FK4">
-        <v>0.8577765514440993</v>
+        <v>0.857975696975053</v>
       </c>
       <c r="FL4">
-        <v>0.8604001162954164</v>
+        <v>0.8605843334770876</v>
       </c>
       <c r="FM4">
-        <v>0.8604092148825944</v>
+        <v>0.8605843334770876</v>
       </c>
       <c r="FN4">
-        <v>0.86126583684935</v>
+        <v>0.8614169026909987</v>
       </c>
       <c r="FO4">
-        <v>0.8646774540160814</v>
+        <v>0.8648176609706902</v>
       </c>
       <c r="FP4">
-        <v>0.8780172922770096</v>
+        <v>0.8781979091754541</v>
       </c>
       <c r="FQ4">
-        <v>0.8874009814605552</v>
+        <v>0.887601578949375</v>
       </c>
       <c r="FR4">
-        <v>0.8875113979227149</v>
+        <v>0.8876840892912591</v>
       </c>
       <c r="FS4">
-        <v>0.8982006846317981</v>
+        <v>0.8984000986302121</v>
       </c>
       <c r="FT4">
-        <v>0.9071240888063405</v>
+        <v>0.9073411065066562</v>
       </c>
       <c r="FU4">
-        <v>0.9104884506721477</v>
+        <v>0.910694365461443</v>
       </c>
       <c r="FV4">
-        <v>0.9269449879940387</v>
+        <v>0.9272074072032627</v>
       </c>
       <c r="FW4">
-        <v>0.9413218672752515</v>
+        <v>0.9416300516556148</v>
       </c>
       <c r="FX4">
-        <v>0.9466853283801612</v>
+        <v>0.9469927330967223</v>
       </c>
       <c r="FY4">
-        <v>0.9504800751543867</v>
+        <v>0.9507785994457959</v>
       </c>
       <c r="FZ4">
-        <v>0.950802122900686</v>
+        <v>0.951073833925052</v>
       </c>
       <c r="GA4">
-        <v>0.9532077859477409</v>
+        <v>0.9534634433889436</v>
       </c>
       <c r="GB4">
-        <v>0.9548428290797225</v>
+        <v>0.9550784534955516</v>
       </c>
       <c r="GC4">
-        <v>0.9559632689016384</v>
+        <v>0.9561762029066649</v>
       </c>
       <c r="GD4">
-        <v>0.9668414911144172</v>
+        <v>0.9670821234026853</v>
       </c>
       <c r="GE4">
-        <v>0.9741065472565222</v>
+        <v>0.9743562196214463</v>
       </c>
       <c r="GF4">
-        <v>0.9756143266860146</v>
+        <v>0.9758433088422511</v>
       </c>
       <c r="GG4">
-        <v>0.9761001318255169</v>
+        <v>0.9763031463495946</v>
       </c>
       <c r="GH4">
-        <v>0.9763476297903579</v>
+        <v>0.9765234460760969</v>
       </c>
       <c r="GI4">
-        <v>0.9817407423958476</v>
+        <v>0.9819159321366315</v>
       </c>
       <c r="GJ4">
-        <v>0.9874822488081519</v>
+        <v>0.9876586110919534</v>
       </c>
       <c r="GK4">
-        <v>0.9906297775697178</v>
+        <v>0.990793917227331</v>
       </c>
       <c r="GL4">
-        <v>0.9909665001963042</v>
+        <v>0.9911039023672126</v>
       </c>
       <c r="GM4">
-        <v>0.9914242070652569</v>
+        <v>0.9915354965059605</v>
       </c>
       <c r="GN4">
-        <v>0.9923806116839643</v>
+        <v>0.9924683636443842</v>
       </c>
       <c r="GO4">
-        <v>0.9932894827017419</v>
+        <v>0.9933534517207704</v>
       </c>
       <c r="GP4">
-        <v>0.9933026077989986</v>
+        <v>0.9933534517207704</v>
       </c>
       <c r="GQ4">
-        <v>0.9934695880722647</v>
+        <v>0.9934928179664165</v>
       </c>
       <c r="GR4">
-        <v>0.9946924143961833</v>
+        <v>0.9946934825982431</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.843670094922902E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.211539840582969E-05</v>
+        <v>1.861659509664219E-05</v>
       </c>
       <c r="D5">
-        <v>0.0002192358843181859</v>
+        <v>0.0001755996047597602</v>
       </c>
       <c r="E5">
-        <v>0.0004527963421145321</v>
+        <v>0.0003892345326824467</v>
       </c>
       <c r="F5">
-        <v>0.0005658430558880788</v>
+        <v>0.0004819031569796193</v>
       </c>
       <c r="G5">
-        <v>0.0005894832926771998</v>
+        <v>0.0004848295603485341</v>
       </c>
       <c r="H5">
-        <v>0.000594992366461095</v>
+        <v>0.0004848295603485341</v>
       </c>
       <c r="I5">
-        <v>0.0006010196296622875</v>
+        <v>0.0004848295603485341</v>
       </c>
       <c r="J5">
-        <v>0.0006217444113540895</v>
+        <v>0.0004848295603485341</v>
       </c>
       <c r="K5">
-        <v>0.0006690460569330383</v>
+        <v>0.0005115062270843909</v>
       </c>
       <c r="L5">
-        <v>0.0009679449369104085</v>
+        <v>0.0007907249394961437</v>
       </c>
       <c r="M5">
-        <v>0.001807842164946531</v>
+        <v>0.001612973585653841</v>
       </c>
       <c r="N5">
-        <v>0.002557866789982668</v>
+        <v>0.002345012134446588</v>
       </c>
       <c r="O5">
-        <v>0.002701243814768653</v>
+        <v>0.002468124967748609</v>
       </c>
       <c r="P5">
-        <v>0.002703646129148843</v>
+        <v>0.002468124967748609</v>
       </c>
       <c r="Q5">
-        <v>0.002724598791848252</v>
+        <v>0.00246835370450706</v>
       </c>
       <c r="R5">
-        <v>0.002956133099576964</v>
+        <v>0.002679954873655927</v>
       </c>
       <c r="S5">
-        <v>0.003762610686497525</v>
+        <v>0.003468658379489414</v>
       </c>
       <c r="T5">
-        <v>0.004469418810091077</v>
+        <v>0.004157318137941474</v>
       </c>
       <c r="U5">
-        <v>0.004789562900777621</v>
+        <v>0.004457861842204346</v>
       </c>
       <c r="V5">
-        <v>0.004932855835560799</v>
+        <v>0.004580890269724322</v>
       </c>
       <c r="W5">
-        <v>0.004939633448787038</v>
+        <v>0.004580890269724322</v>
       </c>
       <c r="X5">
-        <v>0.004946135711304087</v>
+        <v>0.004580890269724322</v>
       </c>
       <c r="Y5">
-        <v>0.00503082705413112</v>
+        <v>0.004645097041482242</v>
       </c>
       <c r="Z5">
-        <v>0.005437043837690806</v>
+        <v>0.005032036663359194</v>
       </c>
       <c r="AA5">
-        <v>0.006721056180551677</v>
+        <v>0.006300068188973421</v>
       </c>
       <c r="AB5">
-        <v>0.007242317147951587</v>
+        <v>0.006802484014710847</v>
       </c>
       <c r="AC5">
-        <v>0.00724727790911718</v>
+        <v>0.006802484014710847</v>
       </c>
       <c r="AD5">
-        <v>0.00724858975936097</v>
+        <v>0.006802484014710847</v>
       </c>
       <c r="AE5">
-        <v>0.007330789582104835</v>
+        <v>0.006864189910097252</v>
       </c>
       <c r="AF5">
-        <v>0.007773614896886529</v>
+        <v>0.007287875537494103</v>
       </c>
       <c r="AG5">
-        <v>0.008266089313325533</v>
+        <v>0.007761396711487828</v>
       </c>
       <c r="AH5">
-        <v>0.008681396247188652</v>
+        <v>0.008157460619482707</v>
       </c>
       <c r="AI5">
-        <v>0.00904612465936344</v>
+        <v>0.008502756070642298</v>
       </c>
       <c r="AJ5">
-        <v>0.009328722748796682</v>
+        <v>0.008765612778916798</v>
       </c>
       <c r="AK5">
-        <v>0.009362602859927615</v>
+        <v>0.008778817509946701</v>
       </c>
       <c r="AL5">
-        <v>0.009374647447829667</v>
+        <v>0.008778817509946701</v>
       </c>
       <c r="AM5">
-        <v>0.009843556963482063</v>
+        <v>0.009228685290988676</v>
       </c>
       <c r="AN5">
-        <v>0.01139304851520474</v>
+        <v>0.01076319296706889</v>
       </c>
       <c r="AO5">
-        <v>0.01259608165536249</v>
+        <v>0.01194994119258347</v>
       </c>
       <c r="AP5">
-        <v>0.01320386761565064</v>
+        <v>0.01253920693445107</v>
       </c>
       <c r="AQ5">
-        <v>0.01321847285113817</v>
+        <v>0.01253920693445107</v>
       </c>
       <c r="AR5">
-        <v>0.01321938592776865</v>
+        <v>0.01253920693445107</v>
       </c>
       <c r="AS5">
-        <v>0.01335002041212929</v>
+        <v>0.01264952937586417</v>
       </c>
       <c r="AT5">
-        <v>0.01350727030737835</v>
+        <v>0.01278656717576815</v>
       </c>
       <c r="AU5">
-        <v>0.01352228679487961</v>
+        <v>0.01278656717576815</v>
       </c>
       <c r="AV5">
-        <v>0.01352248000104606</v>
+        <v>0.01278656717576815</v>
       </c>
       <c r="AW5">
-        <v>0.01358929926927651</v>
+        <v>0.01283283475876716</v>
       </c>
       <c r="AX5">
-        <v>0.01384877847793804</v>
+        <v>0.01307248576902282</v>
       </c>
       <c r="AY5">
-        <v>0.01403536890416651</v>
+        <v>0.01323897428102414</v>
       </c>
       <c r="AZ5">
-        <v>0.01403697859692024</v>
+        <v>0.01323897428102414</v>
       </c>
       <c r="BA5">
-        <v>0.01428358730515214</v>
+        <v>0.0134657064588644</v>
       </c>
       <c r="BB5">
-        <v>0.01488950292537786</v>
+        <v>0.01405309483706938</v>
       </c>
       <c r="BC5">
-        <v>0.01564839068070985</v>
+        <v>0.01479402979945491</v>
       </c>
       <c r="BD5">
-        <v>0.01574650143398483</v>
+        <v>0.01487170637494255</v>
       </c>
       <c r="BE5">
-        <v>0.01582032195644899</v>
+        <v>0.01492500150365647</v>
       </c>
       <c r="BF5">
-        <v>0.01598723678202068</v>
+        <v>0.01507174052814197</v>
       </c>
       <c r="BG5">
-        <v>0.01651572935966198</v>
+        <v>0.01558141512064708</v>
       </c>
       <c r="BH5">
-        <v>0.01745618049105464</v>
+        <v>0.01650459527551183</v>
       </c>
       <c r="BI5">
-        <v>0.01759856600580752</v>
+        <v>0.0166267128754097</v>
       </c>
       <c r="BJ5">
-        <v>0.01762614145272801</v>
+        <v>0.01663358926661975</v>
       </c>
       <c r="BK5">
-        <v>0.0176293017128335</v>
+        <v>0.01663358926661975</v>
       </c>
       <c r="BL5">
-        <v>0.01763356981397597</v>
+        <v>0.01663358926661975</v>
       </c>
       <c r="BM5">
-        <v>0.01764581283538464</v>
+        <v>0.01663358926661975</v>
       </c>
       <c r="BN5">
-        <v>0.01792312954464159</v>
+        <v>0.01689114476179903</v>
       </c>
       <c r="BO5">
-        <v>0.01914400388539489</v>
+        <v>0.0180958011861318</v>
       </c>
       <c r="BP5">
-        <v>0.02077984223999986</v>
+        <v>0.01971697991918768</v>
       </c>
       <c r="BQ5">
-        <v>0.02158167476676537</v>
+        <v>0.02050102092148988</v>
       </c>
       <c r="BR5">
-        <v>0.02163671005360247</v>
+        <v>0.02053546027126368</v>
       </c>
       <c r="BS5">
-        <v>0.02165538251522576</v>
+        <v>0.02053546027126368</v>
       </c>
       <c r="BT5">
-        <v>0.02165925365765498</v>
+        <v>0.02053546027126368</v>
       </c>
       <c r="BU5">
-        <v>0.0217132560574576</v>
+        <v>0.02056886285525083</v>
       </c>
       <c r="BV5">
-        <v>0.02226379147583471</v>
+        <v>0.02110066306493626</v>
       </c>
       <c r="BW5">
-        <v>0.02334538261193868</v>
+        <v>0.02216551324094304</v>
       </c>
       <c r="BX5">
-        <v>0.02398282916321691</v>
+        <v>0.022784550956825</v>
       </c>
       <c r="BY5">
-        <v>0.02409108426183051</v>
+        <v>0.02287240997223487</v>
       </c>
       <c r="BZ5">
-        <v>0.02409148035858374</v>
+        <v>0.02287240997223487</v>
       </c>
       <c r="CA5">
-        <v>0.02409157441446688</v>
+        <v>0.02287240997223487</v>
       </c>
       <c r="CB5">
-        <v>0.02410567628943761</v>
+        <v>0.02287240997223487</v>
       </c>
       <c r="CC5">
-        <v>0.02433443764707376</v>
+        <v>0.02308122777816193</v>
       </c>
       <c r="CD5">
-        <v>0.02447849732188253</v>
+        <v>0.0232050258250103</v>
       </c>
       <c r="CE5">
-        <v>0.02448402289206698</v>
+        <v>0.0232050258250103</v>
       </c>
       <c r="CF5">
-        <v>0.0248723199550285</v>
+        <v>0.02357397843320397</v>
       </c>
       <c r="CG5">
-        <v>0.02539472127246647</v>
+        <v>0.0240775388912824</v>
       </c>
       <c r="CH5">
-        <v>0.02552020097665504</v>
+        <v>0.02418268719501955</v>
       </c>
       <c r="CI5">
-        <v>0.02552290649204535</v>
+        <v>0.02418268719501955</v>
       </c>
       <c r="CJ5">
-        <v>0.0255231625135539</v>
+        <v>0.02418268719501955</v>
       </c>
       <c r="CK5">
-        <v>0.02555204893951814</v>
+        <v>0.02419087948833139</v>
       </c>
       <c r="CL5">
-        <v>0.02561580110764621</v>
+        <v>0.02423406845349107</v>
       </c>
       <c r="CM5">
-        <v>0.02562381655791377</v>
+        <v>0.02423406845349107</v>
       </c>
       <c r="CN5">
-        <v>0.02718603591006131</v>
+        <v>0.02578135172610728</v>
       </c>
       <c r="CO5">
-        <v>0.1238697491374043</v>
+        <v>0.1228073341522615</v>
       </c>
       <c r="CP5">
-        <v>0.1279150022724365</v>
+        <v>0.1268469756279057</v>
       </c>
       <c r="CQ5">
-        <v>0.1895663143303832</v>
+        <v>0.1887090013539322</v>
       </c>
       <c r="CR5">
-        <v>0.2034683527944391</v>
+        <v>0.2026424428815988</v>
       </c>
       <c r="CS5">
-        <v>0.2255331455309711</v>
+        <v>0.2247692918894778</v>
       </c>
       <c r="CT5">
-        <v>0.2264046904600637</v>
+        <v>0.2256233070818173</v>
       </c>
       <c r="CU5">
-        <v>0.233446911995136</v>
+        <v>0.2326711713321745</v>
       </c>
       <c r="CV5">
-        <v>0.2462495324224928</v>
+        <v>0.2455010662302256</v>
       </c>
       <c r="CW5">
-        <v>0.2521206572184734</v>
+        <v>0.2513734359769101</v>
       </c>
       <c r="CX5">
-        <v>0.2556483640362298</v>
+        <v>0.254893587617901</v>
       </c>
       <c r="CY5">
-        <v>0.2788716438114326</v>
+        <v>0.278183274076416</v>
       </c>
       <c r="CZ5">
-        <v>0.322252775259513</v>
+        <v>0.3217065100414344</v>
       </c>
       <c r="DA5">
-        <v>0.3352883966946475</v>
+        <v>0.3347702809250043</v>
       </c>
       <c r="DB5">
-        <v>0.3684870678028331</v>
+        <v>0.3680728188350569</v>
       </c>
       <c r="DC5">
-        <v>0.3829336942850675</v>
+        <v>0.3825528934467088</v>
       </c>
       <c r="DD5">
-        <v>0.3980696507903121</v>
+        <v>0.3977248866900303</v>
       </c>
       <c r="DE5">
-        <v>0.4071319590928157</v>
+        <v>0.4068004236447784</v>
       </c>
       <c r="DF5">
-        <v>0.4203227035331283</v>
+        <v>0.4200199000596619</v>
       </c>
       <c r="DG5">
-        <v>0.4208656938512536</v>
+        <v>0.4205441268353349</v>
       </c>
       <c r="DH5">
-        <v>0.420919747870058</v>
+        <v>0.4205775812321662</v>
       </c>
       <c r="DI5">
-        <v>0.4237895839658543</v>
+        <v>0.4234373916801733</v>
       </c>
       <c r="DJ5">
-        <v>0.4284203641204317</v>
+        <v>0.4280647589774785</v>
       </c>
       <c r="DK5">
-        <v>0.4428821226031713</v>
+        <v>0.4425600224141263</v>
       </c>
       <c r="DL5">
-        <v>0.4430149355376046</v>
+        <v>0.4426725314862434</v>
       </c>
       <c r="DM5">
-        <v>0.4446484715921327</v>
+        <v>0.4442913992735031</v>
       </c>
       <c r="DN5">
-        <v>0.4458647078327312</v>
+        <v>0.4454914001804414</v>
       </c>
       <c r="DO5">
-        <v>0.4505179509880584</v>
+        <v>0.4501413148327481</v>
       </c>
       <c r="DP5">
-        <v>0.455374049550157</v>
+        <v>0.4549948466652076</v>
       </c>
       <c r="DQ5">
-        <v>0.4615069077548744</v>
+        <v>0.4611299326958058</v>
       </c>
       <c r="DR5">
-        <v>0.4706416360597955</v>
+        <v>0.470278161608405</v>
       </c>
       <c r="DS5">
-        <v>0.4728751127343498</v>
+        <v>0.4724992229445237</v>
       </c>
       <c r="DT5">
-        <v>0.4844133981195027</v>
+        <v>0.4840600349023693</v>
       </c>
       <c r="DU5">
-        <v>0.5111070240105471</v>
+        <v>0.5108330995045017</v>
       </c>
       <c r="DV5">
-        <v>0.5126257595612431</v>
+        <v>0.5123367356829892</v>
       </c>
       <c r="DW5">
-        <v>0.5145822476265515</v>
+        <v>0.5142797682475471</v>
       </c>
       <c r="DX5">
-        <v>0.5149281473580978</v>
+        <v>0.5146061643116181</v>
       </c>
       <c r="DY5">
-        <v>0.5152203990078532</v>
+        <v>0.5148787108317765</v>
       </c>
       <c r="DZ5">
-        <v>0.5154111609042209</v>
+        <v>0.5150493864788429</v>
       </c>
       <c r="EA5">
-        <v>0.5156091656108304</v>
+        <v>0.5152273321347363</v>
       </c>
       <c r="EB5">
-        <v>0.5170161223577951</v>
+        <v>0.5166187697518008</v>
       </c>
       <c r="EC5">
-        <v>0.5185304230083432</v>
+        <v>0.518117954375968</v>
       </c>
       <c r="ED5">
-        <v>0.5185781170899352</v>
+        <v>0.5181450249524134</v>
       </c>
       <c r="EE5">
-        <v>0.5186547975324948</v>
+        <v>0.5182011907409464</v>
       </c>
       <c r="EF5">
-        <v>0.5215900798304757</v>
+        <v>0.5211266931581874</v>
       </c>
       <c r="EG5">
-        <v>0.5216259061886716</v>
+        <v>0.5211418514449324</v>
       </c>
       <c r="EH5">
-        <v>0.5358421936632172</v>
+        <v>0.5353907220676384</v>
       </c>
       <c r="EI5">
-        <v>0.5778934750669066</v>
+        <v>0.5775791140648536</v>
       </c>
       <c r="EJ5">
-        <v>0.5977352717292341</v>
+        <v>0.5974746190857789</v>
       </c>
       <c r="EK5">
-        <v>0.6001869968110738</v>
+        <v>0.5999147484071762</v>
       </c>
       <c r="EL5">
-        <v>0.600315550505365</v>
+        <v>0.6000229822446266</v>
       </c>
       <c r="EM5">
-        <v>0.6130996429321034</v>
+        <v>0.6128342795647287</v>
       </c>
       <c r="EN5">
-        <v>0.6552224643381809</v>
+        <v>0.6550944802151429</v>
       </c>
       <c r="EO5">
-        <v>0.7170624364024252</v>
+        <v>0.7171458744135277</v>
       </c>
       <c r="EP5">
-        <v>0.7295669318198305</v>
+        <v>0.7296765247667796</v>
       </c>
       <c r="EQ5">
-        <v>0.7299542458727591</v>
+        <v>0.730044490673489</v>
       </c>
       <c r="ER5">
-        <v>0.7338666055033554</v>
+        <v>0.7339507395959616</v>
       </c>
       <c r="ES5">
-        <v>0.7376331326290836</v>
+        <v>0.7377106083756101</v>
       </c>
       <c r="ET5">
-        <v>0.7377383230025949</v>
+        <v>0.7377953911570995</v>
       </c>
       <c r="EU5">
-        <v>0.7377744910068021</v>
+        <v>0.7378108923728232</v>
       </c>
       <c r="EV5">
-        <v>0.7406398851024502</v>
+        <v>0.7406662441398475</v>
       </c>
       <c r="EW5">
-        <v>0.7581910486883153</v>
+        <v>0.7582625141775036</v>
       </c>
       <c r="EX5">
-        <v>0.7708373691104549</v>
+        <v>0.7709355221242687</v>
       </c>
       <c r="EY5">
-        <v>0.792625683837758</v>
+        <v>0.7927848548780362</v>
       </c>
       <c r="EZ5">
-        <v>0.8223237888290932</v>
+        <v>0.8225736811597122</v>
       </c>
       <c r="FA5">
-        <v>0.828121884422636</v>
+        <v>0.828372747460825</v>
       </c>
       <c r="FB5">
-        <v>0.831073643521167</v>
+        <v>0.8313147885531712</v>
       </c>
       <c r="FC5">
-        <v>0.8325933927718968</v>
+        <v>0.8328194422383925</v>
       </c>
       <c r="FD5">
-        <v>0.8441957241591875</v>
+        <v>0.8444445407073198</v>
       </c>
       <c r="FE5">
-        <v>0.8594729816691488</v>
+        <v>0.8597583655763844</v>
       </c>
       <c r="FF5">
-        <v>0.8607658511123053</v>
+        <v>0.861035287462947</v>
       </c>
       <c r="FG5">
-        <v>0.8608212573571548</v>
+        <v>0.8610700991637744</v>
       </c>
       <c r="FH5">
-        <v>0.8617869047293885</v>
+        <v>0.8620185701777401</v>
       </c>
       <c r="FI5">
-        <v>0.8629113604669233</v>
+        <v>0.8631264459226022</v>
       </c>
       <c r="FJ5">
-        <v>0.86372161559397</v>
+        <v>0.8639189411541809</v>
       </c>
       <c r="FK5">
-        <v>0.8637325663523355</v>
+        <v>0.8639189411541809</v>
       </c>
       <c r="FL5">
-        <v>0.8654222960087394</v>
+        <v>0.8655942135645102</v>
       </c>
       <c r="FM5">
-        <v>0.8654713099423755</v>
+        <v>0.8656226089493781</v>
       </c>
       <c r="FN5">
-        <v>0.8669910591931054</v>
+        <v>0.8671272626345995</v>
       </c>
       <c r="FO5">
-        <v>0.8698163294874141</v>
+        <v>0.8699423399252578</v>
       </c>
       <c r="FP5">
-        <v>0.878281682269991</v>
+        <v>0.8784186796410528</v>
       </c>
       <c r="FQ5">
-        <v>0.8845100418778963</v>
+        <v>0.8846496257067729</v>
       </c>
       <c r="FR5">
-        <v>0.8845436320470176</v>
+        <v>0.8846625394069875</v>
       </c>
       <c r="FS5">
-        <v>0.8933351498404821</v>
+        <v>0.8934662689658162</v>
       </c>
       <c r="FT5">
-        <v>0.9023127321401576</v>
+        <v>0.902456761750157</v>
       </c>
       <c r="FU5">
-        <v>0.9039200072938092</v>
+        <v>0.9040492700202124</v>
       </c>
       <c r="FV5">
-        <v>0.917005519230609</v>
+        <v>0.9171631187569053</v>
       </c>
       <c r="FW5">
-        <v>0.9283812706103364</v>
+        <v>0.9285607863530086</v>
       </c>
       <c r="FX5">
-        <v>0.9337691934901875</v>
+        <v>0.9339481396381027</v>
       </c>
       <c r="FY5">
-        <v>0.9392424399728868</v>
+        <v>0.9394211369377634</v>
       </c>
       <c r="FZ5">
-        <v>0.9406260000190706</v>
+        <v>0.9407890899935154</v>
       </c>
       <c r="GA5">
-        <v>0.9454631093805353</v>
+        <v>0.9456235613160878</v>
       </c>
       <c r="GB5">
-        <v>0.9484392864798814</v>
+        <v>0.9485901121050208</v>
       </c>
       <c r="GC5">
-        <v>0.9489886512982194</v>
+        <v>0.9491207373187678</v>
       </c>
       <c r="GD5">
-        <v>0.9604605026811546</v>
+        <v>0.9606148657979074</v>
       </c>
       <c r="GE5">
-        <v>0.972013817066809</v>
+        <v>0.9721907631939545</v>
       </c>
       <c r="GF5">
-        <v>0.9767020848233053</v>
+        <v>0.9768758339736701</v>
       </c>
       <c r="GG5">
-        <v>0.9787614795920488</v>
+        <v>0.9789221596823732</v>
       </c>
       <c r="GH5">
-        <v>0.9787730435814349</v>
+        <v>0.9789221596823732</v>
       </c>
       <c r="GI5">
-        <v>0.9841470427608212</v>
+        <v>0.9842955369799842</v>
       </c>
       <c r="GJ5">
-        <v>0.9905058494730808</v>
+        <v>0.9906574200119428</v>
       </c>
       <c r="GK5">
-        <v>0.9937045262798541</v>
+        <v>0.9938473060510039</v>
       </c>
       <c r="GL5">
-        <v>0.9940513550414314</v>
+        <v>0.9941746346338488</v>
       </c>
       <c r="GM5">
-        <v>0.9942735610888487</v>
+        <v>0.9943768725127085</v>
       </c>
       <c r="GN5">
-        <v>0.9945291930173817</v>
+        <v>0.9946126617953253</v>
       </c>
       <c r="GO5">
-        <v>0.9946286242407008</v>
+        <v>0.9946916637995561</v>
       </c>
       <c r="GP5">
-        <v>0.995126589807323</v>
+        <v>0.9951706967443915</v>
       </c>
       <c r="GQ5">
-        <v>0.9954511641481575</v>
+        <v>0.9954756873355126</v>
       </c>
       <c r="GR5">
-        <v>0.9961267209707079</v>
+        <v>0.9961329784363785</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.001044919369433861</v>
+        <v>0.001001947167299167</v>
       </c>
       <c r="C6">
-        <v>0.001090205881109133</v>
+        <v>0.001001947167299167</v>
       </c>
       <c r="D6">
-        <v>0.001090331702705453</v>
+        <v>0.001001947167299167</v>
       </c>
       <c r="E6">
-        <v>0.001153058170870569</v>
+        <v>0.001012700950188023</v>
       </c>
       <c r="F6">
-        <v>0.001247229272115861</v>
+        <v>0.001055187514126325</v>
       </c>
       <c r="G6">
-        <v>0.001299299606592692</v>
+        <v>0.001055187514126325</v>
       </c>
       <c r="H6">
-        <v>0.001309939330281457</v>
+        <v>0.001055187514126325</v>
       </c>
       <c r="I6">
-        <v>0.001445490916316282</v>
+        <v>0.001139433759603858</v>
       </c>
       <c r="J6">
-        <v>0.002125658296419923</v>
+        <v>0.001773286473860658</v>
       </c>
       <c r="K6">
-        <v>0.002601231552508382</v>
+        <v>0.002200670232832692</v>
       </c>
       <c r="L6">
-        <v>0.00262025246195198</v>
+        <v>0.002200670232832692</v>
       </c>
       <c r="M6">
-        <v>0.002741931788392598</v>
+        <v>0.00227091709802674</v>
       </c>
       <c r="N6">
-        <v>0.003208946124731424</v>
+        <v>0.002689663506206912</v>
       </c>
       <c r="O6">
-        <v>0.003877373375178489</v>
+        <v>0.003311668508234592</v>
       </c>
       <c r="P6">
-        <v>0.003985816582006292</v>
+        <v>0.003368557962497917</v>
       </c>
       <c r="Q6">
-        <v>0.003989076722010925</v>
+        <v>0.003368557962497917</v>
       </c>
       <c r="R6">
-        <v>0.004020713814085472</v>
+        <v>0.003368557962497917</v>
       </c>
       <c r="S6">
-        <v>0.004289900006211197</v>
+        <v>0.003587663396343107</v>
       </c>
       <c r="T6">
-        <v>0.004956553146710159</v>
+        <v>0.004207878031079896</v>
       </c>
       <c r="U6">
-        <v>0.00514468630120686</v>
+        <v>0.004345187684706688</v>
       </c>
       <c r="V6">
-        <v>0.0052478602181888</v>
+        <v>0.004396759563136374</v>
       </c>
       <c r="W6">
-        <v>0.005301755676612242</v>
+        <v>0.004398601411900779</v>
       </c>
       <c r="X6">
-        <v>0.005305905235190859</v>
+        <v>0.004398601411900779</v>
       </c>
       <c r="Y6">
-        <v>0.005311916297415022</v>
+        <v>0.004398601411900779</v>
       </c>
       <c r="Z6">
-        <v>0.005469534722804344</v>
+        <v>0.004505116709776032</v>
       </c>
       <c r="AA6">
-        <v>0.006552833891115513</v>
+        <v>0.005545795375432646</v>
       </c>
       <c r="AB6">
-        <v>0.008231080642023186</v>
+        <v>0.007186873521862138</v>
       </c>
       <c r="AC6">
-        <v>0.009412362607468147</v>
+        <v>0.008326432865824997</v>
       </c>
       <c r="AD6">
-        <v>0.009672935069845843</v>
+        <v>0.008536845636619663</v>
       </c>
       <c r="AE6">
-        <v>0.009686491899449277</v>
+        <v>0.008536845636619663</v>
       </c>
       <c r="AF6">
-        <v>0.009699141199579259</v>
+        <v>0.008536845636619663</v>
       </c>
       <c r="AG6">
-        <v>0.009701964309696677</v>
+        <v>0.008536845636619663</v>
       </c>
       <c r="AH6">
-        <v>0.009945223912580811</v>
+        <v>0.008729786898739123</v>
       </c>
       <c r="AI6">
-        <v>0.01046422999739877</v>
+        <v>0.00920100149017522</v>
       </c>
       <c r="AJ6">
-        <v>0.01096840318265062</v>
+        <v>0.00965724725837654</v>
       </c>
       <c r="AK6">
-        <v>0.01106769589574609</v>
+        <v>0.009704902366881658</v>
       </c>
       <c r="AL6">
-        <v>0.01107224766831294</v>
+        <v>0.009704902366881658</v>
       </c>
       <c r="AM6">
-        <v>0.01107244636548713</v>
+        <v>0.009704902366881658</v>
       </c>
       <c r="AN6">
-        <v>0.01107387142414544</v>
+        <v>0.009704902366881658</v>
       </c>
       <c r="AO6">
-        <v>0.01134070825633989</v>
+        <v>0.00992163691205674</v>
       </c>
       <c r="AP6">
-        <v>0.01160440361862623</v>
+        <v>0.01013520119995729</v>
       </c>
       <c r="AQ6">
-        <v>0.01162608217399209</v>
+        <v>0.01013520119995729</v>
       </c>
       <c r="AR6">
-        <v>0.01180817957866535</v>
+        <v>0.01026641979419318</v>
       </c>
       <c r="AS6">
-        <v>0.01208245297064226</v>
+        <v>0.01049065904526629</v>
       </c>
       <c r="AT6">
-        <v>0.01223040246631442</v>
+        <v>0.0105874168106267</v>
       </c>
       <c r="AU6">
-        <v>0.01225586492856959</v>
+        <v>0.0105874168106267</v>
       </c>
       <c r="AV6">
-        <v>0.01227405391803752</v>
+        <v>0.0105874168106267</v>
       </c>
       <c r="AW6">
-        <v>0.01239434148451886</v>
+        <v>0.01065625916224449</v>
       </c>
       <c r="AX6">
-        <v>0.0125429956501704</v>
+        <v>0.01075372805494135</v>
       </c>
       <c r="AY6">
-        <v>0.01259177912874338</v>
+        <v>0.01075372805494135</v>
       </c>
       <c r="AZ6">
-        <v>0.01259471879195739</v>
+        <v>0.01075372805494135</v>
       </c>
       <c r="BA6">
-        <v>0.01267668964955956</v>
+        <v>0.01078390257633523</v>
       </c>
       <c r="BB6">
-        <v>0.01330050713131156</v>
+        <v>0.01136088902085398</v>
       </c>
       <c r="BC6">
-        <v>0.0140048096107092</v>
+        <v>0.0120190980002817</v>
       </c>
       <c r="BD6">
-        <v>0.0143605816303021</v>
+        <v>0.01232558270479592</v>
       </c>
       <c r="BE6">
-        <v>0.01437144651398428</v>
+        <v>0.01232558270479592</v>
       </c>
       <c r="BF6">
-        <v>0.01457031098816707</v>
+        <v>0.01247372201628839</v>
       </c>
       <c r="BG6">
-        <v>0.01504294431434153</v>
+        <v>0.01289813890482426</v>
       </c>
       <c r="BH6">
-        <v>0.01535518320520787</v>
+        <v>0.01316069155776214</v>
       </c>
       <c r="BI6">
-        <v>0.01570135789508151</v>
+        <v>0.01345749098587755</v>
       </c>
       <c r="BJ6">
-        <v>0.01595067142778855</v>
+        <v>0.01365654165398274</v>
       </c>
       <c r="BK6">
-        <v>0.01609628407352907</v>
+        <v>0.01375094115531007</v>
       </c>
       <c r="BL6">
-        <v>0.01612505970968732</v>
+        <v>0.01375094115531007</v>
       </c>
       <c r="BM6">
-        <v>0.01615493835281331</v>
+        <v>0.01375094115531007</v>
       </c>
       <c r="BN6">
-        <v>0.01652950691185637</v>
+        <v>0.01407639464439679</v>
       </c>
       <c r="BO6">
-        <v>0.01717323263302601</v>
+        <v>0.01467347176069757</v>
       </c>
       <c r="BP6">
-        <v>0.01778601894510069</v>
+        <v>0.01523932594963563</v>
       </c>
       <c r="BQ6">
-        <v>0.01810737595570031</v>
+        <v>0.01551108027766831</v>
       </c>
       <c r="BR6">
-        <v>0.01810904057205161</v>
+        <v>0.01551108027766831</v>
       </c>
       <c r="BS6">
-        <v>0.01811219706885928</v>
+        <v>0.01551108027766831</v>
       </c>
       <c r="BT6">
-        <v>0.01811332700162623</v>
+        <v>0.01551108027766831</v>
       </c>
       <c r="BU6">
-        <v>0.01832828056533837</v>
+        <v>0.01567545611365824</v>
       </c>
       <c r="BV6">
-        <v>0.01904773364429282</v>
+        <v>0.01634895452760658</v>
       </c>
       <c r="BW6">
-        <v>0.01967804262585493</v>
+        <v>0.01693249195784145</v>
       </c>
       <c r="BX6">
-        <v>0.02004386778515375</v>
+        <v>0.0172491219256295</v>
       </c>
       <c r="BY6">
-        <v>0.02020304955049735</v>
+        <v>0.01735721488937696</v>
       </c>
       <c r="BZ6">
-        <v>0.02026684991863105</v>
+        <v>0.01736905241309005</v>
       </c>
       <c r="CA6">
-        <v>0.02031337003727024</v>
+        <v>0.01736905241309005</v>
       </c>
       <c r="CB6">
-        <v>0.02032554368891413</v>
+        <v>0.01736905241309005</v>
       </c>
       <c r="CC6">
-        <v>0.0209855202296084</v>
+        <v>0.01798252926592247</v>
       </c>
       <c r="CD6">
-        <v>0.0226323084814363</v>
+        <v>0.0195918606382396</v>
       </c>
       <c r="CE6">
-        <v>0.02372834184937497</v>
+        <v>0.02064539019541684</v>
       </c>
       <c r="CF6">
-        <v>0.02387315495513887</v>
+        <v>0.02073898283005397</v>
       </c>
       <c r="CG6">
-        <v>0.02391419006693851</v>
+        <v>0.02073898283005397</v>
       </c>
       <c r="CH6">
-        <v>0.02406378640256249</v>
+        <v>0.02083740252644984</v>
       </c>
       <c r="CI6">
-        <v>0.02451037098949893</v>
+        <v>0.02123553197392235</v>
       </c>
       <c r="CJ6">
-        <v>0.02508668387264054</v>
+        <v>0.02176457850377581</v>
       </c>
       <c r="CK6">
-        <v>0.02551033674024778</v>
+        <v>0.02213956609340869</v>
       </c>
       <c r="CL6">
-        <v>0.02560828860338248</v>
+        <v>0.02218586806485805</v>
       </c>
       <c r="CM6">
-        <v>0.02561956678805257</v>
+        <v>0.02218586806485805</v>
       </c>
       <c r="CN6">
-        <v>0.1028209245297468</v>
+        <v>0.1000421254163659</v>
       </c>
       <c r="CO6">
-        <v>0.1052370724590693</v>
+        <v>0.1024278666177294</v>
       </c>
       <c r="CP6">
-        <v>0.1457592112737096</v>
+        <v>0.1432687891008318</v>
       </c>
       <c r="CQ6">
-        <v>0.1777773833371092</v>
+        <v>0.1755278173611326</v>
       </c>
       <c r="CR6">
-        <v>0.2162677782111823</v>
+        <v>0.2143183776902177</v>
       </c>
       <c r="CS6">
-        <v>0.2162706013212997</v>
+        <v>0.2143183776902177</v>
       </c>
       <c r="CT6">
-        <v>0.2167351180577116</v>
+        <v>0.2147346036113109</v>
       </c>
       <c r="CU6">
-        <v>0.2199972452622874</v>
+        <v>0.2179740763555273</v>
       </c>
       <c r="CV6">
-        <v>0.220023000552534</v>
+        <v>0.2179740763555273</v>
       </c>
       <c r="CW6">
-        <v>0.2202650582954533</v>
+        <v>0.2181658047442442</v>
       </c>
       <c r="CX6">
-        <v>0.2867165013516056</v>
+        <v>0.2851736388323377</v>
       </c>
       <c r="CY6">
-        <v>0.3555760243373165</v>
+        <v>0.3546116196790021</v>
       </c>
       <c r="CZ6">
-        <v>0.3582703786585009</v>
+        <v>0.3572781166613919</v>
       </c>
       <c r="DA6">
-        <v>0.3760161131394</v>
+        <v>0.3751339195543442</v>
       </c>
       <c r="DB6">
-        <v>0.3829172295375275</v>
+        <v>0.38204572795679</v>
       </c>
       <c r="DC6">
-        <v>0.4050134768911647</v>
+        <v>0.4042919103492069</v>
       </c>
       <c r="DD6">
-        <v>0.410362853734684</v>
+        <v>0.4096377595812407</v>
       </c>
       <c r="DE6">
-        <v>0.4419339208111623</v>
+        <v>0.4414455857359258</v>
       </c>
       <c r="DF6">
-        <v>0.4425562938929566</v>
+        <v>0.4420211145444947</v>
       </c>
       <c r="DG6">
-        <v>0.4425985187367214</v>
+        <v>0.4420211145444947</v>
       </c>
       <c r="DH6">
-        <v>0.4446103118778721</v>
+        <v>0.4439987955873367</v>
       </c>
       <c r="DI6">
-        <v>0.4451945234607827</v>
+        <v>0.444535813197969</v>
       </c>
       <c r="DJ6">
-        <v>0.4562577111371607</v>
+        <v>0.455647832690433</v>
       </c>
       <c r="DK6">
-        <v>0.4566785895048491</v>
+        <v>0.4560200203555693</v>
       </c>
       <c r="DL6">
-        <v>0.458522730950904</v>
+        <v>0.4578285133999545</v>
       </c>
       <c r="DM6">
-        <v>0.4587833034132817</v>
+        <v>0.4580389261707491</v>
       </c>
       <c r="DN6">
-        <v>0.4622598767115844</v>
+        <v>0.4614948101200763</v>
       </c>
       <c r="DO6">
-        <v>0.4680584595419634</v>
+        <v>0.4672939817105161</v>
       </c>
       <c r="DP6">
-        <v>0.4765124562946658</v>
+        <v>0.4757729005372454</v>
       </c>
       <c r="DQ6">
-        <v>0.4851089270432006</v>
+        <v>0.484395598943258</v>
       </c>
       <c r="DR6">
-        <v>0.4855472189303796</v>
+        <v>0.4847853596994807</v>
       </c>
       <c r="DS6">
-        <v>0.4964748956107216</v>
+        <v>0.4957606264190299</v>
       </c>
       <c r="DT6">
-        <v>0.5207287679012437</v>
+        <v>0.5201842054926042</v>
       </c>
       <c r="DU6">
-        <v>0.520970825644163</v>
+        <v>0.5203759338813211</v>
       </c>
       <c r="DV6">
-        <v>0.5248196595315763</v>
+        <v>0.5242074896897367</v>
       </c>
       <c r="DW6">
-        <v>0.5251293678225166</v>
+        <v>0.5244674885531879</v>
       </c>
       <c r="DX6">
-        <v>0.5259947223972031</v>
+        <v>0.5252882254547677</v>
       </c>
       <c r="DY6">
-        <v>0.5260408486818539</v>
+        <v>0.5252882254547677</v>
       </c>
       <c r="DZ6">
-        <v>0.5260874425104909</v>
+        <v>0.5252882254547677</v>
       </c>
       <c r="EA6">
-        <v>0.5292327574184836</v>
+        <v>0.5284098154740721</v>
       </c>
       <c r="EB6">
-        <v>0.5312181990604052</v>
+        <v>0.5303609035414695</v>
       </c>
       <c r="EC6">
-        <v>0.5312488202895095</v>
+        <v>0.5303609035414695</v>
       </c>
       <c r="ED6">
-        <v>0.5313999682450881</v>
+        <v>0.5304608890763398</v>
       </c>
       <c r="EE6">
-        <v>0.5363141909013365</v>
+        <v>0.5353675965154894</v>
       </c>
       <c r="EF6">
-        <v>0.5371068116381507</v>
+        <v>0.5361149330709368</v>
       </c>
       <c r="EG6">
-        <v>0.551461710218239</v>
+        <v>0.5505488275911417</v>
       </c>
       <c r="EH6">
-        <v>0.5840290612655739</v>
+        <v>0.5833620673256149</v>
       </c>
       <c r="EI6">
-        <v>0.6028503677150101</v>
+        <v>0.6023032983643969</v>
       </c>
       <c r="EJ6">
-        <v>0.6040971292785396</v>
+        <v>0.6035089373393074</v>
       </c>
       <c r="EK6">
-        <v>0.6041454504271262</v>
+        <v>0.6035089373393074</v>
       </c>
       <c r="EL6">
-        <v>0.6178776500254298</v>
+        <v>0.6173144266751267</v>
       </c>
       <c r="EM6">
-        <v>0.6686011185416593</v>
+        <v>0.6684501603906683</v>
       </c>
       <c r="EN6">
-        <v>0.7259437368642644</v>
+        <v>0.7262656995599303</v>
       </c>
       <c r="EO6">
-        <v>0.7338363156333895</v>
+        <v>0.7341780557587969</v>
       </c>
       <c r="EP6">
-        <v>0.7349323490013281</v>
+        <v>0.7352315853159741</v>
       </c>
       <c r="EQ6">
-        <v>0.7413333258140857</v>
+        <v>0.741638671023255</v>
       </c>
       <c r="ER6">
-        <v>0.7460402006763995</v>
+        <v>0.7463361306035017</v>
       </c>
       <c r="ES6">
-        <v>0.7462136982113243</v>
+        <v>0.746458670521695</v>
       </c>
       <c r="ET6">
-        <v>0.7464044862857434</v>
+        <v>0.7465986594240313</v>
       </c>
       <c r="EU6">
-        <v>0.7502970494718776</v>
+        <v>0.7504743452516529</v>
       </c>
       <c r="EV6">
-        <v>0.7608014461646014</v>
+        <v>0.7610224531891151</v>
       </c>
       <c r="EW6">
-        <v>0.7803116585938857</v>
+        <v>0.7806589031088562</v>
       </c>
       <c r="EX6">
-        <v>0.8086895037637727</v>
+        <v>0.8092442457527371</v>
       </c>
       <c r="EY6">
-        <v>0.8409997798186276</v>
+        <v>0.841798054746554</v>
       </c>
       <c r="EZ6">
-        <v>0.8485792668969113</v>
+        <v>0.8493944501883485</v>
       </c>
       <c r="FA6">
-        <v>0.8490906377819526</v>
+        <v>0.8498579596136228</v>
       </c>
       <c r="FB6">
-        <v>0.8525831510797891</v>
+        <v>0.8533299296312415</v>
       </c>
       <c r="FC6">
-        <v>0.8655093117016711</v>
+        <v>0.8663219937224128</v>
       </c>
       <c r="FD6">
-        <v>0.8748602404281364</v>
+        <v>0.8757060637037792</v>
       </c>
       <c r="FE6">
-        <v>0.8761340905908735</v>
+        <v>0.8769390395086474</v>
       </c>
       <c r="FF6">
-        <v>0.8761457977100311</v>
+        <v>0.8769390395086474</v>
       </c>
       <c r="FG6">
-        <v>0.8776889454648907</v>
+        <v>0.8784437806575783</v>
       </c>
       <c r="FH6">
-        <v>0.877755391842947</v>
+        <v>0.8784582884383529</v>
       </c>
       <c r="FI6">
-        <v>0.8777554163129173</v>
+        <v>0.8784582884383529</v>
       </c>
       <c r="FJ6">
-        <v>0.8777666944975874</v>
+        <v>0.8784582884383529</v>
       </c>
       <c r="FK6">
-        <v>0.8794161769493365</v>
+        <v>0.8800703386993269</v>
       </c>
       <c r="FL6">
-        <v>0.8799160285347147</v>
+        <v>0.8805222232659768</v>
       </c>
       <c r="FM6">
-        <v>0.88064981087325</v>
+        <v>0.8812101822479884</v>
       </c>
       <c r="FN6">
-        <v>0.8829129708070477</v>
+        <v>0.8834415335236434</v>
       </c>
       <c r="FO6">
-        <v>0.8893494906187657</v>
+        <v>0.889884487933891</v>
       </c>
       <c r="FP6">
-        <v>0.8923089342321956</v>
+        <v>0.8928185033970317</v>
       </c>
       <c r="FQ6">
-        <v>0.8931740392068894</v>
+        <v>0.893638988411369</v>
       </c>
       <c r="FR6">
-        <v>0.9018799464522229</v>
+        <v>0.902372126153178</v>
       </c>
       <c r="FS6">
-        <v>0.9104406862018029</v>
+        <v>0.9109587661334612</v>
       </c>
       <c r="FT6">
-        <v>0.9105432732088019</v>
+        <v>0.9110097457236637</v>
       </c>
       <c r="FU6">
-        <v>0.9248127917913878</v>
+        <v>0.9253574778529817</v>
       </c>
       <c r="FV6">
-        <v>0.9316873980902908</v>
+        <v>0.9322425332266311</v>
       </c>
       <c r="FW6">
-        <v>0.9337605938296454</v>
+        <v>0.9342821795402937</v>
       </c>
       <c r="FX6">
-        <v>0.9380806717032738</v>
+        <v>0.938589297655234</v>
       </c>
       <c r="FY6">
-        <v>0.9392682200685355</v>
+        <v>0.9397351808221794</v>
       </c>
       <c r="FZ6">
-        <v>0.9449243943030803</v>
+        <v>0.9453906388326374</v>
       </c>
       <c r="GA6">
-        <v>0.9485823286960778</v>
+        <v>0.9490295458083158</v>
       </c>
       <c r="GB6">
-        <v>0.9486546476739623</v>
+        <v>0.9490499800034348</v>
       </c>
       <c r="GC6">
-        <v>0.956199850453249</v>
+        <v>0.956611776976526</v>
       </c>
       <c r="GD6">
-        <v>0.9658345441714135</v>
+        <v>0.9662822122758826</v>
       </c>
       <c r="GE6">
-        <v>0.9708070806259561</v>
+        <v>0.9712477678812268</v>
       </c>
       <c r="GF6">
-        <v>0.9724149646789221</v>
+        <v>0.972817838549778</v>
       </c>
       <c r="GG6">
-        <v>0.9726259773727495</v>
+        <v>0.9729782374030861</v>
       </c>
       <c r="GH6">
-        <v>0.9771655642399568</v>
+        <v>0.9775068760176888</v>
       </c>
       <c r="GI6">
-        <v>0.9810509101263021</v>
+        <v>0.9813752784086304</v>
       </c>
       <c r="GJ6">
-        <v>0.9849760330114838</v>
+        <v>0.9852838223013557</v>
       </c>
       <c r="GK6">
-        <v>0.9850230808501076</v>
+        <v>0.9852838223013557</v>
       </c>
       <c r="GL6">
-        <v>0.9854752098068819</v>
+        <v>0.9856875469253937</v>
       </c>
       <c r="GM6">
-        <v>0.9855836530137096</v>
+        <v>0.985744436379657</v>
       </c>
       <c r="GN6">
-        <v>0.9856135316568356</v>
+        <v>0.985744436379657</v>
       </c>
       <c r="GO6">
-        <v>0.9880329425860627</v>
+        <v>0.9881334704819513</v>
       </c>
       <c r="GP6">
-        <v>0.990262679620838</v>
+        <v>0.9903310925824556</v>
       </c>
       <c r="GQ6">
-        <v>0.9903705210816834</v>
+        <v>0.99038737477654</v>
       </c>
       <c r="GR6">
-        <v>0.9936774841849476</v>
+        <v>0.9936720942804375</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>122</v>
       </c>
       <c r="E2">
-        <v>0.0006972086426067162</v>
+        <v>0.0006799695603531852</v>
       </c>
       <c r="F2">
-        <v>0.5173644936261065</v>
+        <v>0.5173603968246443</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>123</v>
       </c>
       <c r="E3">
-        <v>0.01717146190835171</v>
+        <v>0.01277121609928943</v>
       </c>
       <c r="F3">
-        <v>0.5206781887148311</v>
+        <v>0.5201260762467131</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>124</v>
       </c>
       <c r="E4">
-        <v>0.01819074046114215</v>
+        <v>0.01664370672525827</v>
       </c>
       <c r="F4">
-        <v>0.5050286907893266</v>
+        <v>0.5045835083837165</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>124</v>
       </c>
       <c r="E5">
-        <v>0.02555204893951814</v>
+        <v>0.02423406845349107</v>
       </c>
       <c r="F5">
-        <v>0.5111070240105471</v>
+        <v>0.5108330995045017</v>
       </c>
       <c r="G5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>123</v>
       </c>
       <c r="E6">
-        <v>0.02508668387264054</v>
+        <v>0.02218586806485805</v>
       </c>
       <c r="F6">
-        <v>0.5207287679012437</v>
+        <v>0.5201842054926042</v>
       </c>
       <c r="G6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>48</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>143</v>
       </c>
       <c r="E2">
-        <v>0.0006972086426067162</v>
+        <v>0.0006799695603531852</v>
       </c>
       <c r="F2">
-        <v>0.7571275895410564</v>
+        <v>0.7571303900634302</v>
       </c>
       <c r="G2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>142</v>
       </c>
       <c r="E3">
-        <v>0.01717146190835171</v>
+        <v>0.01277121609928943</v>
       </c>
       <c r="F3">
-        <v>0.7118034823226617</v>
+        <v>0.7123344324165691</v>
       </c>
       <c r="G3">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>144</v>
       </c>
       <c r="E4">
-        <v>0.01819074046114215</v>
+        <v>0.01664370672525827</v>
       </c>
       <c r="F4">
-        <v>0.7214623087677829</v>
+        <v>0.7215840131702044</v>
       </c>
       <c r="G4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>144</v>
       </c>
       <c r="E5">
-        <v>0.02555204893951814</v>
+        <v>0.02423406845349107</v>
       </c>
       <c r="F5">
-        <v>0.7170624364024252</v>
+        <v>0.7171458744135277</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>143</v>
       </c>
       <c r="E6">
-        <v>0.02508668387264054</v>
+        <v>0.02218586806485805</v>
       </c>
       <c r="F6">
-        <v>0.7259437368642644</v>
+        <v>0.7262656995599303</v>
       </c>
       <c r="G6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>48</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>153</v>
       </c>
       <c r="E2">
-        <v>0.0006972086426067162</v>
+        <v>0.0006799695603531852</v>
       </c>
       <c r="F2">
-        <v>0.8234900735706784</v>
+        <v>0.8234936360162612</v>
       </c>
       <c r="G2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>151</v>
       </c>
       <c r="E3">
-        <v>0.01717146190835171</v>
+        <v>0.01277121609928943</v>
       </c>
       <c r="F3">
-        <v>0.8026706364012368</v>
+        <v>0.8037647314041872</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>155</v>
       </c>
       <c r="E4">
-        <v>0.01819074046114215</v>
+        <v>0.01664370672525827</v>
       </c>
       <c r="F4">
-        <v>0.8217365454691542</v>
+        <v>0.8220628215928764</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>155</v>
       </c>
       <c r="E5">
-        <v>0.02555204893951814</v>
+        <v>0.02423406845349107</v>
       </c>
       <c r="F5">
-        <v>0.8223237888290932</v>
+        <v>0.8225736811597122</v>
       </c>
       <c r="G5">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>153</v>
       </c>
       <c r="E6">
-        <v>0.02508668387264054</v>
+        <v>0.02218586806485805</v>
       </c>
       <c r="F6">
-        <v>0.8086895037637727</v>
+        <v>0.8092442457527371</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>48</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>171</v>
       </c>
       <c r="E2">
-        <v>0.0006972086426067162</v>
+        <v>0.0006799695603531852</v>
       </c>
       <c r="F2">
-        <v>0.9009615463685047</v>
+        <v>0.900964265324125</v>
       </c>
       <c r="G2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>170</v>
       </c>
       <c r="E3">
-        <v>0.01717146190835171</v>
+        <v>0.01277121609928943</v>
       </c>
       <c r="F3">
-        <v>0.9042588623133349</v>
+        <v>0.9052494369811092</v>
       </c>
       <c r="G3">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>175</v>
       </c>
       <c r="E4">
-        <v>0.01819074046114215</v>
+        <v>0.01664370672525827</v>
       </c>
       <c r="F4">
-        <v>0.9071240888063405</v>
+        <v>0.9073411065066562</v>
       </c>
       <c r="G4">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>175</v>
       </c>
       <c r="E5">
-        <v>0.02555204893951814</v>
+        <v>0.02423406845349107</v>
       </c>
       <c r="F5">
-        <v>0.9023127321401576</v>
+        <v>0.902456761750157</v>
       </c>
       <c r="G5">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>173</v>
       </c>
       <c r="E6">
-        <v>0.02508668387264054</v>
+        <v>0.02218586806485805</v>
       </c>
       <c r="F6">
-        <v>0.9018799464522229</v>
+        <v>0.902372126153178</v>
       </c>
       <c r="G6">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H6">
         <v>48</v>

--- a/on_trucks/Processed_Stand_Alone/48_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/48_455-55R22.xlsx
@@ -1994,19 +1994,19 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>5.247896234417397E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5.722476334233911E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.647912395333366E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.371152699252568E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.845316877159247E-06</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2018,580 +2018,580 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.053950300780087E-06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>6.354700821403598E-06</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.110853004247753E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.990986567712219E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.824439840683194E-07</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4.145358668208292E-07</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>7.161667960624741E-07</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.803486351380677E-06</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>7.31867623146872E-07</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>3.168403274386701E-06</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1.845316877159247E-06</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>3.368943038372223E-06</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>5.24001460223067E-06</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>6.129767602425514E-07</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>2.353906268509051E-06</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>6.730942740985072E-06</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>5.391800397966362E-06</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>8.815965105292398E-07</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>3.596617931775575E-06</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.096607653834606E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>5.583623402772537E-06</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.784104352620581E-06</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.353906268509051E-06</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>7.972849691861149E-07</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.625640699870161E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2.764627321374028E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.666964076693081E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.419682255680885E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>3.49821227798618E-07</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.803486351380677E-06</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>7.31867623146872E-07</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>8.335849983903349E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.792657020155948E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1.336772305170426E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>8.811232025964383E-06</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>8.026023662946828E-06</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>6.843494069936947E-06</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>1.240155415609123E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>3.368943038372223E-06</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>1.140671358011831E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>7.797381618596131E-06</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>1.396445598625846E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>2.288438636820873E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>2.075632426666447E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>1.240155415609123E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>6.843494069936947E-06</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>8.571944420829391E-06</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>1.57245672049745E-05</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>2.831119807049218E-06</v>
+        <v>0</v>
       </c>
       <c r="BI2">
         <v>0</v>
       </c>
       <c r="BJ2">
-        <v>7.972849691861149E-07</v>
+        <v>0</v>
       </c>
       <c r="BK2">
         <v>0</v>
       </c>
       <c r="BL2">
-        <v>4.688364672548169E-07</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>8.815965105292398E-07</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>6.944054967259743E-06</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>3.009047496881328E-05</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>2.807014954259572E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>2.142242835553568E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>1.317274561072945E-06</v>
+        <v>0</v>
       </c>
       <c r="BS2">
         <v>0</v>
       </c>
       <c r="BT2">
-        <v>4.365121414817476E-06</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>4.688364672548169E-07</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>1.821845970764477E-07</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>7.972849691861149E-07</v>
+        <v>0</v>
       </c>
       <c r="BX2">
         <v>0</v>
       </c>
       <c r="BY2">
-        <v>8.571944420829391E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>1.540650745029914E-05</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>7.058299385399762E-06</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>5.24001460223067E-06</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>1.730572032657888E-06</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>7.276298169087331E-06</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>2.250863440443703E-06</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>5.883293988747691E-06</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>1.297699846920855E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
         <v>0</v>
       </c>
       <c r="CI2">
-        <v>3.440986533462154E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
         <v>0</v>
       </c>
       <c r="CK2">
-        <v>2.619396253926738E-06</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>2.184009318718336E-06</v>
+        <v>0</v>
       </c>
       <c r="CM2">
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1069551802321658</v>
+        <v>0.3335432414591398</v>
       </c>
       <c r="CO2">
-        <v>0.003550459603128224</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.05725605819375177</v>
+        <v>0.1181309955029276</v>
       </c>
       <c r="CQ2">
-        <v>0.01125131076671623</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.02526557700686728</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.005905686771219307</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.009472924085289759</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.006983869967494762</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.006246204608936178</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.004612940072219189</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.01327505137283782</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.06787853176186309</v>
+        <v>0.1641722693738971</v>
       </c>
       <c r="CZ2">
-        <v>0.01740649300792798</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.0576647437223899</v>
+        <v>0.1199023722195161</v>
       </c>
       <c r="DB2">
-        <v>0.0007363841639381231</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.03677919751860326</v>
+        <v>0.02937758563872904</v>
       </c>
       <c r="DD2">
-        <v>0.009601467856687675</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.01685011369911238</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.0002150607017859954</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>9.997464431030108E-05</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.002182604047561799</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.002557911517918582</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.006044869503053826</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.0001227432287083214</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.002596333641910001</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.001488373677061083</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.00447896801487133</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.005533021240033962</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.005830182193807312</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.005052498727184442</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.0001670991452786411</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.02261859256965685</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.01871661902243151</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>1.963255289890627E-06</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.002835064217701935</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.0003866011881545358</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>6.37446157935606E-05</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>1.185698729952916E-06</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.0004913781075679312</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.004221737964568521</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.005357265281603797</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>3.523073457617429E-06</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>3.076798365845331E-05</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.00173970931685955</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.0009998473425881695</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.01877497709660412</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.03801034837287226</v>
+        <v>0.03471379601331092</v>
       </c>
       <c r="EI2">
-        <v>0.01320149049781571</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.0004574820019970232</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.00255576970509268</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.02573778088150958</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.04642022338624834</v>
+        <v>0.0711649442537594</v>
       </c>
       <c r="EN2">
-        <v>0.05976251422824076</v>
+        <v>0.12899479553872</v>
       </c>
       <c r="EO2">
-        <v>0.01092313047891385</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.0001227432287083214</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.0008364554954716905</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.001481187698519831</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>3.42755254278962E-05</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.0001790219633459876</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.003692477184296255</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.01133224303004656</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.01100287567971238</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.0267588356683884</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.02896390282638654</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.002668212628333984</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.005166752845835463</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.001463808183005887</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.009203683902320067</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.009531118150822766</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>3.836883105406684E-05</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.0007564674218791614</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.001329036783550476</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.0007943025449486873</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.0003348020494919505</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.0001120539356203075</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.0005024202392426915</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.0004340844894684779</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.0009934635063019749</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.003087251702373682</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.009365397421025963</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.002725501846201643</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>2.647501951471923E-05</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.01006103906586945</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.005862773410639606</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.002951978976509518</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.01086082519681116</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.008059839647167121</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.002779437087389325</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.003969445174349513</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.0008508416933043647</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.003764048454510437</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.002007761837265839</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.0005826844673824237</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.009383451372067661</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.007229570910470023</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.001416292679995632</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.0003068405865447211</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0006780043886223408</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.00695273732749703</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.006636548671386947</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.001267602947353608</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0001597411076737034</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.002216338124597407</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.002177628485460334</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.001301413728429813</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>6.071003093842845E-05</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0004881877895091228</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.001050524112126864</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.003178205193599847</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.002754787188887892</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2776,13 +2776,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.981680016621858E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0003101144402020141</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>3.285651792818583E-06</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.337925151206288E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0001915668415033249</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.752784230226565E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.73395485150065E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>6.665887568084078E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0004576502636105084</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.001051413148703754</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0008099226665182447</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0002850778315008921</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -2833,10 +2833,10 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>7.044288348395497E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0001424813583772712</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.000321407621893822</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0002438132810242325</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -2860,25 +2860,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0003148418407356097</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0003162656238546907</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0002585789650808133</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>6.008183687699717E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0002369784512550371</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0003989276683819815</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>0</v>
@@ -2890,22 +2890,22 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>4.770556024019951E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>1.981680016621858E-06</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0002003727928132215</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0008199137611522064</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0009183629766833733</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.000403748940048906</v>
+        <v>0</v>
       </c>
       <c r="AW3">
         <v>0</v>
@@ -2917,16 +2917,16 @@
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>1.036541895087308E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0003726667932516797</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0007662007472993456</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.000386477441882162</v>
+        <v>0</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0001876478027500013</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.000234011134471357</v>
+        <v>0</v>
       </c>
       <c r="BM3">
         <v>0</v>
@@ -2980,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0002639618118859303</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0002639618118859303</v>
+        <v>0</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -2992,16 +2992,16 @@
         <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0002226963089172012</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0004866836810291487</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0002660851193669884</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0001496596324678231</v>
+        <v>0</v>
       </c>
       <c r="CC3">
         <v>0</v>
@@ -3013,358 +3013,358 @@
         <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.0001021907107760039</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0002728705816748736</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0004121819805806541</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.0002477805624875926</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
         <v>0</v>
       </c>
       <c r="CK3">
-        <v>1.426932929292076E-05</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>1.968194654166052E-05</v>
+        <v>0</v>
       </c>
       <c r="CM3">
         <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1185968957515829</v>
+        <v>0.3909408943429044</v>
       </c>
       <c r="CO3">
-        <v>0.0008436846598862258</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.05657763630064958</v>
+        <v>0.1162892664690923</v>
       </c>
       <c r="CQ3">
-        <v>0.008844782096208424</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.02076530039730043</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.004157774522048376</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.01149231081369929</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.000393720151047934</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.006152148116760956</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.0006797034225234912</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.008150833865996359</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.06794466449995686</v>
+        <v>0.1666280294060672</v>
       </c>
       <c r="CZ3">
-        <v>0.03074177225141471</v>
+        <v>0.001875418553627222</v>
       </c>
       <c r="DA3">
-        <v>0.02236512938308212</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.005865552068632018</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.01670095289902053</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.006491813577824739</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.01269782733515982</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.0007176462481034189</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.0003452786234912003</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.01348053870665504</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.001126262711415545</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.01084728926389291</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.001335087376744678</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.006317038376076512</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.006739667213679991</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.01016808743483946</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.0004411811690821544</v>
+        <v>0</v>
       </c>
       <c r="DP3">
         <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.001758680764562057</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.00223281034172488</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.01561009210379514</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.03677269770056591</v>
+        <v>0.02858330747167286</v>
       </c>
       <c r="DU3">
-        <v>0.001346776683675608</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.01137767839312118</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.006536359807999629</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.0002421876709153367</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.0005236159125232154</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>3.000668698813502E-05</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.001278240826109095</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.009007274203416366</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.0004787600210967571</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>3.298111706365422E-05</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.0009388180478651773</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>8.667560798562931E-05</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.02143446559449267</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.0485069085528413</v>
+        <v>0.08054813486439155</v>
       </c>
       <c r="EI3">
-        <v>0.009486345289170561</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
         <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.004902107961479957</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.02800499097384321</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.04799416281926849</v>
+        <v>0.07827744586136433</v>
       </c>
       <c r="EN3">
-        <v>0.0612221629311627</v>
+        <v>0.1368575030308802</v>
       </c>
       <c r="EO3">
-        <v>0.009728632926155181</v>
+        <v>0</v>
       </c>
       <c r="EP3">
         <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.001049007194267485</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.002841918482033278</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.0001943271027237019</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>1.801870286312065E-05</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.002041680445825596</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.01433455120258697</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.01243975062218718</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.01960688258210348</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.02836100616393981</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.003408224668601503</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.006176650164620242</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.000403748940048906</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.005871071050872829</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.007633851569292631</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>9.101947846778971E-05</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.001228592987611983</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.001537463164117802</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.001871636292452933</v>
+        <v>0</v>
       </c>
       <c r="FI3">
         <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.001985160174388328</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.0002144485990232536</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.001346064847846986</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.001561738133814535</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.0018708039765104</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.005876592161021456</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.003275969320814533</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.0004200420262022686</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.0079384534667082</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.004878566613334715</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.003470483502100312</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.01276474648943158</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.009834717237053224</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.002782642569975459</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.001822423763097424</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>6.008183687699717E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.001202833548891861</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0007022247935226972</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0003722657738245832</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.008898941403260372</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.005037701084668322</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0001292285965114354</v>
+        <v>0</v>
       </c>
       <c r="GF3">
         <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.001770759579952093</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.008362066208353801</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.005109255126148191</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0002687539616144711</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.000640255963460403</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.004105147105965413</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.00317994332617162</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.001097611344645763</v>
+        <v>0</v>
       </c>
       <c r="GO3">
         <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.001284401828536404</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>7.706196873293523E-06</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.002964371470476591</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.002368968880418398</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,22 +3540,22 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>7.410092903492004E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0001280116420579194</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0002793883306271634</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0005079214054577714</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0002368703973199387</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>2.691529168085885E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3567,112 +3567,112 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.092609956912623E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0001773134571469254</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0004464936742089123</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>3.63617864757311E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>3.777587125061666E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>7.410092903492004E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0002478772644330906</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0003327272561263903</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001247329580172372</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>7.908664283761664E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0001454598712787721</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0001114853894360034</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>6.806702019369796E-05</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0005943050964382691</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.00142153514068859</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0009097564084480953</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0001610743698193165</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>1.417113333924149E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>7.908664283761664E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.195070602841452E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>2.236092791284026E-05</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0001602381739134953</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>5.966323626273623E-05</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>9.414434084916641E-06</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>2.204195923055369E-06</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>8.835030031685354E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0002181179175910944</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0002513110553258311</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>3.536035669086395E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0005268621121914529</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0004751111045239123</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0009714799091948362</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0009022223426413213</v>
+        <v>0</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -3684,28 +3684,28 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>4.599789138106193E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>3.26624945877077E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0002225938524352669</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0006660606361777345</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0007111018325963701</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0003048441885555108</v>
+        <v>0</v>
       </c>
       <c r="BD4">
         <v>0</v>
       </c>
       <c r="BE4">
-        <v>4.031085457390622E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0001212408877175734</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0002818827153777446</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0001649560115184502</v>
+        <v>0</v>
       </c>
       <c r="BK4">
         <v>0</v>
@@ -3744,22 +3744,22 @@
         <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0005691927130897728</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0006643738102114973</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0001357102733097001</v>
+        <v>0</v>
       </c>
       <c r="BU4">
         <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0001004794370220633</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>1.44575115901608E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
         <v>0</v>
@@ -3768,376 +3768,376 @@
         <v>0</v>
       </c>
       <c r="BZ4">
-        <v>3.361704553538808E-05</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>2.999806323299682E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0004016662058050078</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0002660786529642843</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0001011708290065085</v>
+        <v>0</v>
       </c>
       <c r="CE4">
         <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0002890649436404454</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.000791348293931271</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0001438597608081415</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>5.148973539707515E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
         <v>0</v>
       </c>
       <c r="CK4">
-        <v>2.541908903036096E-06</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>6.334669983373962E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0003574659798210461</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.001781000069991531</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.08455805186008823</v>
+        <v>0.3147472959345223</v>
       </c>
       <c r="CP4">
-        <v>0.001726242858132028</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.06251691083300534</v>
+        <v>0.1872958099734836</v>
       </c>
       <c r="CR4">
-        <v>0.008450742166050431</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.02073343676564215</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.002717099825791134</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.009839352065305309</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.01241454998866714</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.008426497611117863</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.004482223139910966</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.02086166452800505</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.0533404231834891</v>
+        <v>0.1342333580161698</v>
       </c>
       <c r="DA4">
-        <v>0.02612204039039817</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.02845692371204861</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.01336382483067417</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.01806221653348456</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.007717079016052361</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.01267170209202346</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.0008247602458104218</v>
+        <v>0</v>
       </c>
       <c r="DH4">
         <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.003788570541699416</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.003805920375419343</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.007645608842363697</v>
+        <v>0</v>
       </c>
       <c r="DL4">
         <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.004413283969096276</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.003262136619307124</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.00925271123356272</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.004874482347834099</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.003368787531911208</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.003772309501590725</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.001307338060103545</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0145789977077319</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.02880291321215018</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.00245684588694284</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.001778414486714042</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.0009416850398581752</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.0001454598712787721</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>2.904724847978926E-05</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.001628314959483824</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.0008528123618576098</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.003672807616683444</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>6.199222731320033E-05</v>
+        <v>0</v>
       </c>
       <c r="EE4">
         <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.003516851803136969</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.0003495436694312411</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.01590613278380596</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.04656128577564152</v>
+        <v>0.09503343024915489</v>
       </c>
       <c r="EJ4">
-        <v>0.01336344889934976</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0004737475694450285</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.00142153514068859</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.01712110060741401</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.04186984377651288</v>
+        <v>0.06790546743841532</v>
       </c>
       <c r="EO4">
-        <v>0.06484963506245033</v>
+        <v>0.2007846383882542</v>
       </c>
       <c r="EP4">
-        <v>0.01683038105331253</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.0008403180430514742</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.001400771971162693</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.001095709832903781</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.000604890478195935</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.0006254578116257493</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.005609501464026371</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.01728296115618005</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.01162926865336839</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.01790716295511668</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.0266523850037283</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.00308534435978141</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.005482632281283989</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.001167494723431142</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.00957569655106948</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.01133606131844361</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.0003085547714503981</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.000112205669832918</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.001266060499134081</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.002352874037865365</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.00104189616846199</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.000184055001422332</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.002608636502034524</v>
+        <v>0</v>
       </c>
       <c r="FM4">
         <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.000832569213911081</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.003400758279691589</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.01338024820476386</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.009403669773920854</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>8.251034188410823E-05</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.01071600933895305</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.008941007876444147</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.003353258954786735</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.01651304174181971</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.01442264445235207</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.005362681441107525</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.003785866349073584</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.0002952344792560063</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.002389609463891656</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.001615010106607996</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.001097749411113304</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.01090592049602032</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.007274096218760972</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.001487089220804839</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0004598375073434585</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.000220299726502232</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.005392486060534686</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.005742678955321872</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.00313530613537755</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.0003099851398815816</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0004315941387478866</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.0009328671384236202</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0008850880763861895</v>
+        <v>0</v>
       </c>
       <c r="GP4">
         <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0001393662456461511</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.001200664631826555</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.005306517401756993</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4316,19 +4316,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.861659509664219E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.000156983009663118</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0002136349279226865</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>9.266862429717259E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2.926403368914804E-06</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -4340,40 +4340,40 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.667666673585674E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0002792187124117528</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0008222486461576974</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0007320385487927464</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.000123112833302021</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.287367584516549E-07</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0002116011691488668</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0007887035058334872</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0006886597584520598</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0003005437042628712</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.000123028427519976</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -4382,16 +4382,16 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>6.420677175792032E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0003869396218769518</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.001268031525614227</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0005024158257374267</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -4400,40 +4400,40 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>6.170589538640419E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0004236856273968514</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0004735211739937249</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0003960639079948788</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0003452954511595908</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0002628567082745005</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>1.320473102990189E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0004498677810419763</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.001534507676080211</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.001186748225514576</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0005892657418676089</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -4442,10 +4442,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.000110322441413094</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.000137037799903981</v>
+        <v>0</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -4454,46 +4454,46 @@
         <v>0</v>
       </c>
       <c r="AW5">
-        <v>4.626758299901488E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0002396510102556536</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0001664885120013194</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0002267321778402612</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0005873883782049846</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0007409349623855235</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>7.767657548764656E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>5.329512871391298E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0001467390244855045</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0005096745925051107</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0009231801548647507</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0001221175998978653</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>6.876391210053571E-06</v>
+        <v>0</v>
       </c>
       <c r="BK5">
         <v>0</v>
@@ -4505,19 +4505,19 @@
         <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0002575554951792824</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.001204656424332765</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.001621178733055885</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0007840410023021991</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>3.443934977379683E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
         <v>0</v>
@@ -4526,19 +4526,19 @@
         <v>0</v>
       </c>
       <c r="BU5">
-        <v>3.340258398715004E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0005318002096854307</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.00106485017600678</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0006190377158819567</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>8.785901540986592E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
         <v>0</v>
@@ -4550,22 +4550,22 @@
         <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.0002088178059270601</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0001237980468483765</v>
+        <v>0</v>
       </c>
       <c r="CE5">
         <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.000368952608193664</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0005035604580784308</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0001051483037371516</v>
+        <v>0</v>
       </c>
       <c r="CI5">
         <v>0</v>
@@ -4574,343 +4574,343 @@
         <v>0</v>
       </c>
       <c r="CK5">
-        <v>8.192293311844392E-06</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>4.318896515967295E-05</v>
+        <v>0</v>
       </c>
       <c r="CM5">
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.001547283272616214</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.09702598242615423</v>
+        <v>0.3901254391032253</v>
       </c>
       <c r="CP5">
-        <v>0.004039641475644212</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.06186202572602648</v>
+        <v>0.1851723819383307</v>
       </c>
       <c r="CR5">
-        <v>0.01393344152766659</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.02212684900787904</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.0008540151923394786</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.007047864250357206</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.01282989489805112</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.005872369746684534</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.003520151640990825</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.02328968645851505</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.04352323596501837</v>
+        <v>0.07828477943456513</v>
       </c>
       <c r="DA5">
-        <v>0.01306377088356986</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.0333025379100526</v>
+        <v>0.01871345955755836</v>
       </c>
       <c r="DC5">
-        <v>0.01448007461165197</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.01517199324332148</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.009075536954748114</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.01321947641488355</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.00052422677567297</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>3.345439683128588E-05</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.002859810448007108</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.004627367297305181</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.01449526343664786</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.0001125090721170536</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.001618867787259688</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.001200000906938271</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.004649914652306692</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.004853531832459554</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.006135086030598203</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.009148228912599225</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.002221061336118706</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0115608119578456</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.02677306460213243</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.001503636178487436</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.001943032564557836</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.000326396064071051</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.0002725465201584161</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.0001706756470664558</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.0001779456558933489</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.001391437617064518</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.001499184624167167</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>2.707057644548472E-05</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>5.616578853298986E-05</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.002925502417240958</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>1.515828674506139E-05</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.014248870622706</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.0421883919972153</v>
+        <v>0.07050464381523179</v>
       </c>
       <c r="EJ5">
-        <v>0.01989550502092533</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.002440129321397253</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.0001082338374504178</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.01281129732010214</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.04226020065041425</v>
+        <v>0.07092318041876382</v>
       </c>
       <c r="EO5">
-        <v>0.06205139419838482</v>
+        <v>0.1862761157323251</v>
       </c>
       <c r="EP5">
-        <v>0.01253065035325186</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.0003679659067094438</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.003906248922472622</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.003759868779648511</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>8.478278148932954E-05</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>1.550121572368609E-05</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.002855351767024305</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.01759627003765602</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.01267300794676517</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.02184933275376748</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.02978882628167603</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.005799066301112864</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.002942041092346194</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.0015046536852214</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.01162509846892723</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.01531382486906464</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.001276921886562626</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>3.481170082738055E-05</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.0009484710139656409</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.001107875744862134</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.0007924952315785975</v>
+        <v>0</v>
       </c>
       <c r="FK5">
         <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.001675272410329312</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>2.8395384867933E-05</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0015046536852214</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.002815077290658296</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.008476339715794942</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.006230946065720023</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>1.291370021461238E-05</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.008803729558828738</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.008990492784340862</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.001592508270055431</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.0131138487366929</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.01139766759610336</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.005387353285094136</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.005472997299660624</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.001367953055751965</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.004834471322572418</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.002966550788932888</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.000530625213747009</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.0114941284791397</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.01157589739604698</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.004685070779715585</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.002046325708703057</v>
+        <v>0</v>
       </c>
       <c r="GH5">
         <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.005373377297610961</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.006361883031958625</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.003189886039061096</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.0003273285828449038</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.0002022378788596621</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.0002357892826168602</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>7.900200423086192E-05</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0004790329448354003</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0003049905911210579</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.0006572911008658624</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.003867021563621529</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,7 +5086,7 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.001001947167299167</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5095,10 +5095,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.075378288885645E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>4.248656393830211E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -5107,28 +5107,28 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.424624547753236E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0006338527142568002</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0004273837589720345</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>7.024686519404797E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0004187464081801721</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0006220050020276794</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>5.688945426332482E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0002191054338451904</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0006202146347367885</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0001373096536267925</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>5.15718784296855E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>1.841848764405674E-06</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -5158,19 +5158,19 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0001065152978752531</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.001040678665656614</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001641078146429492</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.001139559343962859</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0002104127707946666</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -5182,16 +5182,16 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0001929412621194598</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.000471214591436098</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0004562457682013189</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>4.765510850511799E-05</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -5203,22 +5203,22 @@
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0002167345451750813</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0002135642879005523</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.00013121859423589</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0002242392510731072</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>9.675776536040756E-05</v>
+        <v>0</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -5227,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>6.884235161779276E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>9.746889269685907E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
         <v>0</v>
@@ -5239,37 +5239,37 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>3.017452139387901E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0005769864445187532</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0006582089794277186</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0003064847045142185</v>
+        <v>0</v>
       </c>
       <c r="BE6">
         <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0001481393114924728</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0004244168885358673</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.000262552652937881</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.000296799428115413</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0001990506681051891</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>9.439950132733287E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
         <v>0</v>
@@ -5278,16 +5278,16 @@
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0003254534890867197</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.0005970771163007755</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0005658541889380646</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0002717543280326705</v>
+        <v>0</v>
       </c>
       <c r="BR6">
         <v>0</v>
@@ -5299,22 +5299,22 @@
         <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0001643758359899379</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0006734984139483344</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0005835374302348687</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0003166299677880548</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0001080929637474601</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>1.183752371309374E-05</v>
+        <v>0</v>
       </c>
       <c r="CA6">
         <v>0</v>
@@ -5323,148 +5323,148 @@
         <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0006134768528324188</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.001609331372317127</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.001053529557177242</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>9.359263463712834E-05</v>
+        <v>0</v>
       </c>
       <c r="CG6">
         <v>0</v>
       </c>
       <c r="CH6">
-        <v>9.841969639587355E-05</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.000398129447472507</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0005290465298534564</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.000374987589632877</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>4.630197144935994E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.07785625735150785</v>
+        <v>0.2383211124563145</v>
       </c>
       <c r="CO6">
-        <v>0.002385741201363545</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.04084092248310237</v>
+        <v>0.05312660371864186</v>
       </c>
       <c r="CQ6">
-        <v>0.03225902826030076</v>
+        <v>0.01018981305389</v>
       </c>
       <c r="CR6">
-        <v>0.0387905603290851</v>
+        <v>0.04286826583793685</v>
       </c>
       <c r="CS6">
         <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.0004162259210932785</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.0032394727442164</v>
+        <v>0</v>
       </c>
       <c r="CV6">
         <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.0001917283887168917</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.06700783408809344</v>
+        <v>0.184044461333506</v>
       </c>
       <c r="CY6">
-        <v>0.06943798084666437</v>
+        <v>0.1962029312410181</v>
       </c>
       <c r="CZ6">
-        <v>0.002666496982389793</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.01785580289295228</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.006911808402445895</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.02224618239241687</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.005345849232033722</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.03180782615468514</v>
+        <v>0.00793236617172738</v>
       </c>
       <c r="DF6">
-        <v>0.0005755288085689177</v>
+        <v>0</v>
       </c>
       <c r="DG6">
         <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.001977681042841987</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.0005370176106323026</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.01111201949246398</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.0003721876651363258</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.001808493044385164</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.0002104127707946666</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.003455883949327183</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.005799171590439843</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.008478918826729274</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.008622698406012617</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.0003897607562227141</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.01097526671954917</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.0244235790735743</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.0001917283887168917</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.003831555808415614</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.0002599988634511365</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.0008207369015798234</v>
+        <v>0</v>
       </c>
       <c r="DY6">
         <v>0</v>
@@ -5473,106 +5473,106 @@
         <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.003121590019304347</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.001951088067397449</v>
+        <v>0</v>
       </c>
       <c r="EC6">
         <v>0</v>
       </c>
       <c r="ED6">
-        <v>9.998553487031537E-05</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.004906707439149547</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0007473365554474621</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.01443389452020486</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.03281323973447322</v>
+        <v>0.01296263469824469</v>
       </c>
       <c r="EI6">
-        <v>0.01894123103878201</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.001205638974910552</v>
+        <v>0</v>
       </c>
       <c r="EK6">
         <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.01380548933581923</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.05113573371554164</v>
+        <v>0.1046334323213461</v>
       </c>
       <c r="EN6">
-        <v>0.05781553916926192</v>
+        <v>0.1380537240426795</v>
       </c>
       <c r="EO6">
-        <v>0.007912356198866674</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.001053529557177242</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.006407085707280885</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.004697459580246682</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.0001225399181933036</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.0001399889023362478</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.00387568582762161</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.01054810793746224</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.01963644991974114</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.02858534264388094</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.03255380899381691</v>
+        <v>0.01166465512469491</v>
       </c>
       <c r="EZ6">
-        <v>0.007596395441794459</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.0004635094252742426</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.003471970017618778</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.01299206409117131</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.009384069981366386</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.001232975804868122</v>
+        <v>0</v>
       </c>
       <c r="FF6">
         <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.001504741148930998</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>1.450778077458932E-05</v>
+        <v>0</v>
       </c>
       <c r="FI6">
         <v>0</v>
@@ -5581,109 +5581,109 @@
         <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.001612050260974041</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.0004518845666499419</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.0006879589820115715</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.002231351275654994</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.006442954410247516</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.00293401546314078</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.0008204850143373151</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.008733137741808917</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.0085866399802832</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>5.097959020251993E-05</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.01434773212931802</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.006885055373649347</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.002039646313662652</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.004307118114940313</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.001145883166945446</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.005655458010458022</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.003638906975678408</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>2.043419511895644E-05</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.00756179697309123</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.009670435299356602</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.004965555605344172</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.001570070668551141</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.0001603988533081128</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.004528638614602761</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.003868402390941503</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.003908543892725362</v>
+        <v>0</v>
       </c>
       <c r="GK6">
         <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0004037246240379939</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>5.688945426332482E-05</v>
+        <v>0</v>
       </c>
       <c r="GN6">
         <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.002389034102294252</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.002197622100504234</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>5.628219408451722E-05</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.003284719503897394</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.006327905719562771</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>5.247896234417397E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0001097037256865131</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0001261828496398467</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0001275540023390993</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0001293993192162585</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0001293993192162585</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0001293993192162585</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001293993192162585</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0001344532695170386</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0001408079703384422</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0001519165003809197</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0001718263660580419</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0001723088100421102</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001727233459089311</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001734395127049935</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0001762429990563742</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001762429990563742</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0001769748666795211</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0001801432699539078</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.000181988586831067</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0001853575298694393</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0001905975444716699</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0001912105212319125</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0001935644275004215</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0002002953702414066</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.000205687170639373</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0002065687671499022</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0002101653850816778</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0002211314616200238</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0002267150850227964</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.000228499189375417</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.000230853095643926</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0002316503806131121</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0002579067876118137</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.000285553060825554</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0003122227015924849</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0003136423838481658</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0003139922050759644</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.000316795691427345</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0003175275590504919</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0003258634090343952</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0003437899792359547</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.000357157702287659</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.000357157702287659</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0003659689343136234</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0003739949579765702</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0003808384520465071</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0003932400062025984</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0003966089492409706</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0003977496205989824</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0004055470022175786</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.000419511458203837</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0004423958445720458</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0004631521688387103</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0004755537229948015</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0004823972170647384</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0004909691614855678</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0005066937286905423</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0005095248484975914</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0005095248484975914</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0005103221334667776</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0005103221334667776</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0005107909699340324</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0005116725664445616</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0005186166214118214</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0005487070963806347</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0005767772459232303</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0005981996742787661</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.000599516948839839</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.000599516948839839</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0006038820702546564</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0006043509067219112</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0006045330913189877</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0006053303762881739</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0006053303762881739</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0006139023207090032</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0006293088281593024</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0006363671275447021</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0006416071421469328</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0006433377141795907</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0006506140123486781</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0006528648757891217</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0006587481697778694</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0006717251682470779</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0006717251682470779</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0006751661547805401</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0006751661547805401</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0006777855510344668</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0006799695603531852</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0006799695603531852</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.107635149792519</v>
+        <v>0.3335432414591398</v>
       </c>
       <c r="CO2">
-        <v>0.1111856093956472</v>
+        <v>0.3335432414591398</v>
       </c>
       <c r="CP2">
-        <v>0.168441667589399</v>
+        <v>0.4516742369620673</v>
       </c>
       <c r="CQ2">
-        <v>0.1796929783561152</v>
+        <v>0.4516742369620673</v>
       </c>
       <c r="CR2">
-        <v>0.2049585553629825</v>
+        <v>0.4516742369620673</v>
       </c>
       <c r="CS2">
-        <v>0.2108642421342018</v>
+        <v>0.4516742369620673</v>
       </c>
       <c r="CT2">
-        <v>0.2203371662194915</v>
+        <v>0.4516742369620673</v>
       </c>
       <c r="CU2">
-        <v>0.2273210361869863</v>
+        <v>0.4516742369620673</v>
       </c>
       <c r="CV2">
-        <v>0.2335672407959225</v>
+        <v>0.4516742369620673</v>
       </c>
       <c r="CW2">
-        <v>0.2381801808681417</v>
+        <v>0.4516742369620673</v>
       </c>
       <c r="CX2">
-        <v>0.2514552322409795</v>
+        <v>0.4516742369620673</v>
       </c>
       <c r="CY2">
-        <v>0.3193337640028426</v>
+        <v>0.6158465063359644</v>
       </c>
       <c r="CZ2">
-        <v>0.3367402570107705</v>
+        <v>0.6158465063359644</v>
       </c>
       <c r="DA2">
-        <v>0.3944050007331604</v>
+        <v>0.7357488785554805</v>
       </c>
       <c r="DB2">
-        <v>0.3951413848970985</v>
+        <v>0.7357488785554805</v>
       </c>
       <c r="DC2">
-        <v>0.4319205824157018</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DD2">
-        <v>0.4415220502723895</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DE2">
-        <v>0.4583721639715019</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DF2">
-        <v>0.4585872246732879</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DG2">
-        <v>0.4586871993175982</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DH2">
-        <v>0.46086980336516</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DI2">
-        <v>0.4634277148830785</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DJ2">
-        <v>0.4694725843861324</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DK2">
-        <v>0.4695953276148407</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DL2">
-        <v>0.4721916612567507</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DM2">
-        <v>0.4736800349338117</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DN2">
-        <v>0.4781590029486831</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DO2">
-        <v>0.483692024188717</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DP2">
-        <v>0.4895222063825244</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DQ2">
-        <v>0.4945747051097088</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DR2">
-        <v>0.4947418042549874</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DS2">
-        <v>0.5173603968246443</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DT2">
-        <v>0.5360770158470758</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DU2">
-        <v>0.5360789791023657</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DV2">
-        <v>0.5389140433200676</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DW2">
-        <v>0.5393006445082222</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DX2">
-        <v>0.5393643891240159</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DY2">
-        <v>0.5393655748227458</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="DZ2">
-        <v>0.5398569529303138</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="EA2">
-        <v>0.5440786908948823</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="EB2">
-        <v>0.5494359561764861</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="EC2">
-        <v>0.5494394792499437</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="ED2">
-        <v>0.5494702472336022</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="EE2">
-        <v>0.5512099565504617</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="EF2">
-        <v>0.5522098038930499</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="EG2">
-        <v>0.570984780989654</v>
+        <v>0.7651264641942096</v>
       </c>
       <c r="EH2">
-        <v>0.6089951293625262</v>
+        <v>0.7998402602075205</v>
       </c>
       <c r="EI2">
-        <v>0.6221966198603419</v>
+        <v>0.7998402602075205</v>
       </c>
       <c r="EJ2">
-        <v>0.6226541018623389</v>
+        <v>0.7998402602075205</v>
       </c>
       <c r="EK2">
-        <v>0.6252098715674316</v>
+        <v>0.7998402602075205</v>
       </c>
       <c r="EL2">
-        <v>0.6509476524489411</v>
+        <v>0.7998402602075205</v>
       </c>
       <c r="EM2">
-        <v>0.6973678758351894</v>
+        <v>0.8710052044612799</v>
       </c>
       <c r="EN2">
-        <v>0.7571303900634302</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.768053520542344</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.7681762637710523</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.769012719266524</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.7704939069650438</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.7705281824904717</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.7707072044538177</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.7743996816381139</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.7857319246681604</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.7967348003478728</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.8234936360162612</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.8524575388426477</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.8551257514709817</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8602925043168171</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.861756312499823</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8709599964021431</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8804911145529658</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8805294833840198</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.881285950805899</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8826149875894495</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8834092901343982</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8837440921838902</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8838561461195105</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.8843585663587532</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.8847926508482217</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.8857861143545237</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.8888733660568974</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.8982387634779233</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.900964265324125</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9009907403436397</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9110517794095091</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9169145528201487</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9198665317966582</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9307273569934694</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9387871966406366</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.941566633728026</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9455360789023755</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9463869205956799</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9501509690501903</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9521587308874561</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9527414153548385</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9621248667269061</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9693544376373762</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9707707303173718</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9710775709039166</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9717555752925389</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9787083126200359</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9853448612914228</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9866124642387765</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9867722053464502</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9889885434710476</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9911661719565079</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9924675856849378</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9925282957158762</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9930164835053853</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9940670076175122</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.997245212811112</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7427,763 +7427,763 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.981680016621858E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0003120961202186359</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0003153817720114545</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0003153817720114545</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0003153817720114545</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0003687610235235174</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0005603278650268423</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0006278557073291079</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0006651952558441144</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0007318541315249552</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0007318541315249552</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0007318541315249552</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0007318541315249552</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001189504395135463</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.002240917543839217</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.003050840210357461</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.003335918041858353</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.003335918041858353</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.003335918041858353</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.003406360925342308</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.003548842283719579</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.003548842283719579</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.003548842283719579</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.003548842283719579</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.003870249905613402</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.004114063186637634</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.004114063186637634</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.004114063186637634</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.004428905027373244</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.004745170651227934</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.004745170651227934</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.005003749616308748</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.005063831453185745</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.005300809904440783</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.005699737572822764</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.005699737572822764</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.005699737572822764</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.005699737572822764</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.005747443133062963</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.005749424813079585</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.005949797605892806</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.006769711367045013</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.007688074343728386</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.008091823283777291</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.008091823283777291</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.008091823283777291</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.008091823283777291</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.008102188702728164</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.008474855495979844</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.009241056243279189</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.009627533685161352</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.009627533685161352</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.009627533685161352</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.009627533685161352</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.009627533685161352</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.009627533685161352</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.009627533685161352</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.009627533685161352</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.009815181487911353</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.01004919262238271</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.01004919262238271</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.01004919262238271</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.01004919262238271</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.01004919262238271</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.01004919262238271</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.01004919262238271</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.01004919262238271</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.01004919262238271</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.01031315443426864</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.01057711624615457</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.01057711624615457</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.01057711624615457</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.01079981255507177</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.01128649623610092</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.01155258135546791</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.01170224098793573</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.01170224098793573</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.01170224098793573</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.01170224098793573</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.01180443169871173</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.01207730228038661</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01248948426096726</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01273726482345485</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.01273726482345485</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.01275153415274777</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.01277121609928943</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.01277121609928943</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1313681118508724</v>
+        <v>0.3909408943429044</v>
       </c>
       <c r="CO3">
-        <v>0.1322117965107586</v>
+        <v>0.3909408943429044</v>
       </c>
       <c r="CP3">
-        <v>0.1887894328114081</v>
+        <v>0.5072301608119967</v>
       </c>
       <c r="CQ3">
-        <v>0.1976342149076166</v>
+        <v>0.5072301608119967</v>
       </c>
       <c r="CR3">
-        <v>0.218399515304917</v>
+        <v>0.5072301608119967</v>
       </c>
       <c r="CS3">
-        <v>0.2225572898269654</v>
+        <v>0.5072301608119967</v>
       </c>
       <c r="CT3">
-        <v>0.2340496006406647</v>
+        <v>0.5072301608119967</v>
       </c>
       <c r="CU3">
-        <v>0.2344433207917126</v>
+        <v>0.5072301608119967</v>
       </c>
       <c r="CV3">
-        <v>0.2405954689084736</v>
+        <v>0.5072301608119967</v>
       </c>
       <c r="CW3">
-        <v>0.241275172330997</v>
+        <v>0.5072301608119967</v>
       </c>
       <c r="CX3">
-        <v>0.2494260061969934</v>
+        <v>0.5072301608119967</v>
       </c>
       <c r="CY3">
-        <v>0.3173706706969502</v>
+        <v>0.6738581902180638</v>
       </c>
       <c r="CZ3">
-        <v>0.348112442948365</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DA3">
-        <v>0.3704775723314471</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DB3">
-        <v>0.3763431244000791</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DC3">
-        <v>0.3930440772990996</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DD3">
-        <v>0.3995358908769244</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DE3">
-        <v>0.4122337182120842</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DF3">
-        <v>0.4129513644601877</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DG3">
-        <v>0.4132966430836789</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DH3">
-        <v>0.4267771817903339</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DI3">
-        <v>0.4279034445017494</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DJ3">
-        <v>0.4387507337656423</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DK3">
-        <v>0.440085821142387</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DL3">
-        <v>0.4464028595184635</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DM3">
-        <v>0.4531425267321435</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DN3">
-        <v>0.4633106141669829</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DO3">
-        <v>0.4637517953360651</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DP3">
-        <v>0.4637517953360651</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DQ3">
-        <v>0.4655104761006271</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DR3">
-        <v>0.467743286442352</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DS3">
-        <v>0.4833533785461472</v>
+        <v>0.6757336087716911</v>
       </c>
       <c r="DT3">
-        <v>0.5201260762467131</v>
+        <v>0.7043169162433639</v>
       </c>
       <c r="DU3">
-        <v>0.5214728529303887</v>
+        <v>0.7043169162433639</v>
       </c>
       <c r="DV3">
-        <v>0.5328505313235099</v>
+        <v>0.7043169162433639</v>
       </c>
       <c r="DW3">
-        <v>0.5393868911315095</v>
+        <v>0.7043169162433639</v>
       </c>
       <c r="DX3">
-        <v>0.5396290788024248</v>
+        <v>0.7043169162433639</v>
       </c>
       <c r="DY3">
-        <v>0.5401526947149481</v>
+        <v>0.7043169162433639</v>
       </c>
       <c r="DZ3">
-        <v>0.5401827014019362</v>
+        <v>0.7043169162433639</v>
       </c>
       <c r="EA3">
-        <v>0.5414609422280453</v>
+        <v>0.7043169162433639</v>
       </c>
       <c r="EB3">
-        <v>0.5504682164314617</v>
+        <v>0.7043169162433639</v>
       </c>
       <c r="EC3">
-        <v>0.5509469764525584</v>
+        <v>0.7043169162433639</v>
       </c>
       <c r="ED3">
-        <v>0.550979957569622</v>
+        <v>0.7043169162433639</v>
       </c>
       <c r="EE3">
-        <v>0.5519187756174873</v>
+        <v>0.7043169162433639</v>
       </c>
       <c r="EF3">
-        <v>0.5520054512254728</v>
+        <v>0.7043169162433639</v>
       </c>
       <c r="EG3">
-        <v>0.5734399168199655</v>
+        <v>0.7043169162433639</v>
       </c>
       <c r="EH3">
-        <v>0.6219468253728069</v>
+        <v>0.7848650511077555</v>
       </c>
       <c r="EI3">
-        <v>0.6314331706619775</v>
+        <v>0.7848650511077555</v>
       </c>
       <c r="EJ3">
-        <v>0.6314331706619775</v>
+        <v>0.7848650511077555</v>
       </c>
       <c r="EK3">
-        <v>0.6363352786234574</v>
+        <v>0.7848650511077555</v>
       </c>
       <c r="EL3">
-        <v>0.6643402695973006</v>
+        <v>0.7848650511077555</v>
       </c>
       <c r="EM3">
-        <v>0.7123344324165691</v>
+        <v>0.8631424969691198</v>
       </c>
       <c r="EN3">
-        <v>0.7735565953477318</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.783285228273887</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.783285228273887</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.7843342354681545</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.7871761539501878</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.7873704810529115</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.7873884997557746</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.7894301802016003</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.8037647314041872</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8162044820263744</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.8358113646084779</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8641723707724177</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8675805954410192</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8737572456056394</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8741609945456883</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8800320655965611</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8876659171658537</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8877569366443215</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8889855296319336</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8905229927960514</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.8923946290885043</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.8923946290885043</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.8943797892628926</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.8945942378619158</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.8959403027097628</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.8975020408435773</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.8993728448200877</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9052494369811092</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9085254063019237</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.908945448328126</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9168839017948341</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9217624684081689</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9252329519102692</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9379976983997008</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.947832415636754</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9506150582067295</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9524374819698269</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9524975638067039</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9537003973555958</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9544026221491184</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.954774887922943</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9636738293262034</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9687115304108717</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9688407590073831</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9688407590073831</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9706115185873352</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.978973584795689</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9840828399218372</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9843515938834517</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9849918498469121</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9890969969528776</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9922769402790492</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.993374551623695</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.993374551623695</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9946589534522314</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9946666596491047</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9976310311195813</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>7.410092903492004E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0002021125710928395</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0004815009017200029</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0009894223071777743</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.001226292704497713</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.001253207996178572</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.001253207996178572</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001253207996178572</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.001253207996178572</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001274134095747698</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.001451447552894624</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001897941227103536</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.001934303013579267</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.001938080600704329</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.002012181529739249</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.002260058794172339</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.002592786050298729</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.002717519008315967</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.002796605651153583</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.002942065522432355</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.003053550911868359</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.003053550911868359</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.003121617932062057</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.003715923028500326</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.005137458169188916</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.006047214577637012</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.006208288947456328</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.00622246008079557</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.00622246008079557</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.006301546723633186</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.006313497429661601</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.006335858357574441</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.006496096531487937</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.006496096531487937</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.006555759767750673</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.00656517420183559</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.006567378397758645</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.006655728698075499</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.006873846615666594</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.007125157670992425</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.007160518027683289</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.007687380139874742</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.008162491244398653</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.00913397115359349</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.01003619349623481</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.01003619349623481</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.01003619349623481</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.01003619349623481</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.01008219138761587</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.01011485388220358</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.01033744773463885</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.01100350837081658</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.01171461020341295</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.01201945439196846</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.01201945439196846</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.01205976524654237</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.01205976524654237</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.01205976524654237</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.01218100613425994</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.01246288884963768</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.01262784486115614</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.01262784486115614</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.01262784486115614</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.01262784486115614</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.01262784486115614</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.01262784486115614</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.01262784486115614</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.01262784486115614</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.01319703757424591</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.01386141138445741</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.01399712165776711</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.01399712165776711</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.01409760109478917</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.01411205860637933</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.01411205860637933</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.01411205860637933</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.01414567565191472</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.01417567371514772</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.01457733992095272</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.01484341857391701</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.01494458940292352</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.01494458940292352</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.01523365434656396</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.01602500264049523</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.01616886240130338</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.01622035213670045</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.01622035213670045</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.01622289404560348</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.01628624074543722</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.01664370672525827</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.0184247067952498</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.102982758655338</v>
+        <v>0.3147472959345223</v>
       </c>
       <c r="CP4">
-        <v>0.1047090015134701</v>
+        <v>0.3147472959345223</v>
       </c>
       <c r="CQ4">
-        <v>0.1672259123464754</v>
+        <v>0.5020431059080059</v>
       </c>
       <c r="CR4">
-        <v>0.1756766545125258</v>
+        <v>0.5020431059080059</v>
       </c>
       <c r="CS4">
-        <v>0.196410091278168</v>
+        <v>0.5020431059080059</v>
       </c>
       <c r="CT4">
-        <v>0.1991271911039591</v>
+        <v>0.5020431059080059</v>
       </c>
       <c r="CU4">
-        <v>0.2089665431692644</v>
+        <v>0.5020431059080059</v>
       </c>
       <c r="CV4">
-        <v>0.2213810931579316</v>
+        <v>0.5020431059080059</v>
       </c>
       <c r="CW4">
-        <v>0.2298075907690494</v>
+        <v>0.5020431059080059</v>
       </c>
       <c r="CX4">
-        <v>0.2342898139089604</v>
+        <v>0.5020431059080059</v>
       </c>
       <c r="CY4">
-        <v>0.2551514784369655</v>
+        <v>0.5020431059080059</v>
       </c>
       <c r="CZ4">
-        <v>0.3084919016204545</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DA4">
-        <v>0.3346139420108527</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DB4">
-        <v>0.3630708657229013</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DC4">
-        <v>0.3764346905535755</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DD4">
-        <v>0.39449690708706</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DE4">
-        <v>0.4022139861031124</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DF4">
-        <v>0.4148856881951358</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DG4">
-        <v>0.4157104484409462</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DH4">
-        <v>0.4157104484409462</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DI4">
-        <v>0.4194990189826456</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DJ4">
-        <v>0.423304939358065</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DK4">
-        <v>0.4309505482004287</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DL4">
-        <v>0.4309505482004287</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DM4">
-        <v>0.435363832169525</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DN4">
-        <v>0.4386259687888321</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DO4">
-        <v>0.4478786800223948</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DP4">
-        <v>0.4527531623702289</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DQ4">
-        <v>0.4561219499021401</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DR4">
-        <v>0.4598942594037309</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DS4">
-        <v>0.4612015974638344</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DT4">
-        <v>0.4757805951715663</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DU4">
-        <v>0.5045835083837165</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DV4">
-        <v>0.5070403542706593</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DW4">
-        <v>0.5088187687573733</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DX4">
-        <v>0.5097604537972314</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DY4">
-        <v>0.5099059136685102</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="DZ4">
-        <v>0.50993496091699</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="EA4">
-        <v>0.5115632758764738</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="EB4">
-        <v>0.5124160882383314</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="EC4">
-        <v>0.5160888958550148</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="ED4">
-        <v>0.516150888082328</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="EE4">
-        <v>0.516150888082328</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="EF4">
-        <v>0.519667739885465</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="EG4">
-        <v>0.5200172835548963</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="EH4">
-        <v>0.5359234163387022</v>
+        <v>0.6362764639241757</v>
       </c>
       <c r="EI4">
-        <v>0.5824847021143438</v>
+        <v>0.7313098941733306</v>
       </c>
       <c r="EJ4">
-        <v>0.5958481510136935</v>
+        <v>0.7313098941733306</v>
       </c>
       <c r="EK4">
-        <v>0.5963218985831386</v>
+        <v>0.7313098941733306</v>
       </c>
       <c r="EL4">
-        <v>0.5977434337238271</v>
+        <v>0.7313098941733306</v>
       </c>
       <c r="EM4">
-        <v>0.6148645343312411</v>
+        <v>0.7313098941733306</v>
       </c>
       <c r="EN4">
-        <v>0.656734378107754</v>
+        <v>0.7992153616117459</v>
       </c>
       <c r="EO4">
-        <v>0.7215840131702044</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.738414394223517</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.7392547122665685</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.7406554842377312</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.7417511940706349</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.7423560845488308</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.7429815423604565</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.7485910438244829</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.7658740049806629</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.7775032736340314</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.795410436589148</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8220628215928764</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8251481659526577</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8306307982339417</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8317982929573728</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8413739895084423</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8527100508268859</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8530186055983363</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8531308112681693</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8543968717673034</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.8567497458051687</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.8577916419736307</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.857975696975053</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.8605843334770876</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.8605843334770876</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.8614169026909987</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.8648176609706902</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.8781979091754541</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.887601578949375</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.8876840892912591</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.8984000986302121</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9073411065066562</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.910694365461443</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9272074072032627</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9416300516556148</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9469927330967223</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9507785994457959</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.951073833925052</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9534634433889436</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9550784534955516</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9561762029066649</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9670821234026853</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9743562196214463</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9758433088422511</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9763031463495946</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9765234460760969</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9819159321366315</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9876586110919534</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.990793917227331</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9911039023672126</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9915354965059605</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9924683636443842</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9933534517207704</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9933534517207704</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9934928179664165</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9946934825982431</v>
+        <v>1</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8967,598 +8967,598 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.861659509664219E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001755996047597602</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0003892345326824467</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0004819031569796193</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0004848295603485341</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0004848295603485341</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0004848295603485341</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0004848295603485341</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0005115062270843909</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0007907249394961437</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.001612973585653841</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.002345012134446588</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.002468124967748609</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.002468124967748609</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.00246835370450706</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.002679954873655927</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.003468658379489414</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.004157318137941474</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.004457861842204346</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.004580890269724322</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.004580890269724322</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.004580890269724322</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.004645097041482242</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.005032036663359194</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.006300068188973421</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.006802484014710847</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.006802484014710847</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.006802484014710847</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.006864189910097252</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.007287875537494103</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.007761396711487828</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.008157460619482707</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.008502756070642298</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.008765612778916798</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.008778817509946701</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.008778817509946701</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.009228685290988676</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.01076319296706889</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.01194994119258347</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.01253920693445107</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.01253920693445107</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.01253920693445107</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.01264952937586417</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.01278656717576815</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.01278656717576815</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.01278656717576815</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.01283283475876716</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.01307248576902282</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.01323897428102414</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.01323897428102414</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0134657064588644</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.01405309483706938</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.01479402979945491</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.01487170637494255</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.01492500150365647</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.01507174052814197</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.01558141512064708</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.01650459527551183</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0166267128754097</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.01663358926661975</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.01663358926661975</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.01663358926661975</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.01663358926661975</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.01689114476179903</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0180958011861318</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.01971697991918768</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.02050102092148988</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.02053546027126368</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.02053546027126368</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.02053546027126368</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.02056886285525083</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.02110066306493626</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.02216551324094304</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.022784550956825</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.02287240997223487</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.02287240997223487</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.02287240997223487</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.02287240997223487</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.02308122777816193</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0232050258250103</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0232050258250103</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.02357397843320397</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0240775388912824</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.02418268719501955</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.02418268719501955</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.02418268719501955</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.02419087948833139</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.02423406845349107</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.02423406845349107</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.02578135172610728</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.1228073341522615</v>
+        <v>0.3901254391032253</v>
       </c>
       <c r="CP5">
-        <v>0.1268469756279057</v>
+        <v>0.3901254391032253</v>
       </c>
       <c r="CQ5">
-        <v>0.1887090013539322</v>
+        <v>0.575297821041556</v>
       </c>
       <c r="CR5">
-        <v>0.2026424428815988</v>
+        <v>0.575297821041556</v>
       </c>
       <c r="CS5">
-        <v>0.2247692918894778</v>
+        <v>0.575297821041556</v>
       </c>
       <c r="CT5">
-        <v>0.2256233070818173</v>
+        <v>0.575297821041556</v>
       </c>
       <c r="CU5">
-        <v>0.2326711713321745</v>
+        <v>0.575297821041556</v>
       </c>
       <c r="CV5">
-        <v>0.2455010662302256</v>
+        <v>0.575297821041556</v>
       </c>
       <c r="CW5">
-        <v>0.2513734359769101</v>
+        <v>0.575297821041556</v>
       </c>
       <c r="CX5">
-        <v>0.254893587617901</v>
+        <v>0.575297821041556</v>
       </c>
       <c r="CY5">
-        <v>0.278183274076416</v>
+        <v>0.575297821041556</v>
       </c>
       <c r="CZ5">
-        <v>0.3217065100414344</v>
+        <v>0.6535826004761212</v>
       </c>
       <c r="DA5">
-        <v>0.3347702809250043</v>
+        <v>0.6535826004761212</v>
       </c>
       <c r="DB5">
-        <v>0.3680728188350569</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DC5">
-        <v>0.3825528934467088</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DD5">
-        <v>0.3977248866900303</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DE5">
-        <v>0.4068004236447784</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DF5">
-        <v>0.4200199000596619</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DG5">
-        <v>0.4205441268353349</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DH5">
-        <v>0.4205775812321662</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DI5">
-        <v>0.4234373916801733</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DJ5">
-        <v>0.4280647589774785</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DK5">
-        <v>0.4425600224141263</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DL5">
-        <v>0.4426725314862434</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DM5">
-        <v>0.4442913992735031</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DN5">
-        <v>0.4454914001804414</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DO5">
-        <v>0.4501413148327481</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DP5">
-        <v>0.4549948466652076</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DQ5">
-        <v>0.4611299326958058</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DR5">
-        <v>0.470278161608405</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DS5">
-        <v>0.4724992229445237</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DT5">
-        <v>0.4840600349023693</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DU5">
-        <v>0.5108330995045017</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DV5">
-        <v>0.5123367356829892</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DW5">
-        <v>0.5142797682475471</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DX5">
-        <v>0.5146061643116181</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DY5">
-        <v>0.5148787108317765</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="DZ5">
-        <v>0.5150493864788429</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="EA5">
-        <v>0.5152273321347363</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="EB5">
-        <v>0.5166187697518008</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="EC5">
-        <v>0.518117954375968</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="ED5">
-        <v>0.5181450249524134</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="EE5">
-        <v>0.5182011907409464</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="EF5">
-        <v>0.5211266931581874</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="EG5">
-        <v>0.5211418514449324</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="EH5">
-        <v>0.5353907220676384</v>
+        <v>0.6722960600336795</v>
       </c>
       <c r="EI5">
-        <v>0.5775791140648536</v>
+        <v>0.7428007038489113</v>
       </c>
       <c r="EJ5">
-        <v>0.5974746190857789</v>
+        <v>0.7428007038489113</v>
       </c>
       <c r="EK5">
-        <v>0.5999147484071762</v>
+        <v>0.7428007038489113</v>
       </c>
       <c r="EL5">
-        <v>0.6000229822446266</v>
+        <v>0.7428007038489113</v>
       </c>
       <c r="EM5">
-        <v>0.6128342795647287</v>
+        <v>0.7428007038489113</v>
       </c>
       <c r="EN5">
-        <v>0.6550944802151429</v>
+        <v>0.8137238842676751</v>
       </c>
       <c r="EO5">
-        <v>0.7171458744135277</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.7296765247667796</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.730044490673489</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.7339507395959616</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.7377106083756101</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.7377953911570995</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.7378108923728232</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.7406662441398475</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.7582625141775036</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.7709355221242687</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.7927848548780362</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.8225736811597122</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.828372747460825</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.8313147885531712</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8328194422383925</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8444445407073198</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8597583655763844</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.861035287462947</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.8610700991637744</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8620185701777401</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.8631264459226022</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.8639189411541809</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.8639189411541809</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.8655942135645102</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.8656226089493781</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.8671272626345995</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.8699423399252578</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.8784186796410528</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.8846496257067729</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.8846625394069875</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.8934662689658162</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.902456761750157</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9040492700202124</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9171631187569053</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9285607863530086</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9339481396381027</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9394211369377634</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9407890899935154</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9456235613160878</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9485901121050208</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9491207373187678</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9606148657979074</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9721907631939545</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9768758339736701</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9789221596823732</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9789221596823732</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9842955369799842</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9906574200119428</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9938473060510039</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9941746346338488</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9943768725127085</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9946126617953253</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9946916637995561</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9951706967443915</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9954756873355126</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9961329784363785</v>
+        <v>1</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.001001947167299167</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.001001947167299167</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.001001947167299167</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.001012700950188023</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.001055187514126325</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.001055187514126325</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.001055187514126325</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001139433759603858</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.001773286473860658</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.002200670232832692</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.002200670232832692</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.00227091709802674</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.002689663506206912</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.003311668508234592</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.003368557962497917</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.003368557962497917</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.003368557962497917</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.003587663396343107</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.004207878031079896</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.004345187684706688</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.004396759563136374</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.004398601411900779</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.004398601411900779</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.004398601411900779</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.004505116709776032</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.005545795375432646</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.007186873521862138</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.008326432865824997</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.008536845636619663</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.008536845636619663</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.008536845636619663</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.008536845636619663</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.008729786898739123</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.00920100149017522</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.00965724725837654</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.009704902366881658</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.009704902366881658</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.009704902366881658</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.009704902366881658</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.00992163691205674</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.01013520119995729</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.01013520119995729</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.01026641979419318</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.01049065904526629</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0105874168106267</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0105874168106267</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0105874168106267</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.01065625916224449</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.01075372805494135</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.01075372805494135</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.01075372805494135</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.01078390257633523</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.01136088902085398</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0120190980002817</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.01232558270479592</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.01232558270479592</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.01247372201628839</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.01289813890482426</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.01316069155776214</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.01345749098587755</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.01365654165398274</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.01375094115531007</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.01375094115531007</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.01375094115531007</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.01407639464439679</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.01467347176069757</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.01523932594963563</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.01551108027766831</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.01551108027766831</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.01551108027766831</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.01551108027766831</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.01567545611365824</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.01634895452760658</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.01693249195784145</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0172491219256295</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.01735721488937696</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.01736905241309005</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.01736905241309005</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.01736905241309005</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.01798252926592247</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0195918606382396</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.02064539019541684</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.02073898283005397</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.02073898283005397</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.02083740252644984</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.02123553197392235</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.02176457850377581</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.02213956609340869</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.02218586806485805</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.02218586806485805</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1000421254163659</v>
+        <v>0.2383211124563145</v>
       </c>
       <c r="CO6">
-        <v>0.1024278666177294</v>
+        <v>0.2383211124563145</v>
       </c>
       <c r="CP6">
-        <v>0.1432687891008318</v>
+        <v>0.2914477161749564</v>
       </c>
       <c r="CQ6">
-        <v>0.1755278173611326</v>
+        <v>0.3016375292288463</v>
       </c>
       <c r="CR6">
-        <v>0.2143183776902177</v>
+        <v>0.3445057950667832</v>
       </c>
       <c r="CS6">
-        <v>0.2143183776902177</v>
+        <v>0.3445057950667832</v>
       </c>
       <c r="CT6">
-        <v>0.2147346036113109</v>
+        <v>0.3445057950667832</v>
       </c>
       <c r="CU6">
-        <v>0.2179740763555273</v>
+        <v>0.3445057950667832</v>
       </c>
       <c r="CV6">
-        <v>0.2179740763555273</v>
+        <v>0.3445057950667832</v>
       </c>
       <c r="CW6">
-        <v>0.2181658047442442</v>
+        <v>0.3445057950667832</v>
       </c>
       <c r="CX6">
-        <v>0.2851736388323377</v>
+        <v>0.5285502564002893</v>
       </c>
       <c r="CY6">
-        <v>0.3546116196790021</v>
+        <v>0.7247531876413075</v>
       </c>
       <c r="CZ6">
-        <v>0.3572781166613919</v>
+        <v>0.7247531876413075</v>
       </c>
       <c r="DA6">
-        <v>0.3751339195543442</v>
+        <v>0.7247531876413075</v>
       </c>
       <c r="DB6">
-        <v>0.38204572795679</v>
+        <v>0.7247531876413075</v>
       </c>
       <c r="DC6">
-        <v>0.4042919103492069</v>
+        <v>0.7247531876413075</v>
       </c>
       <c r="DD6">
-        <v>0.4096377595812407</v>
+        <v>0.7247531876413075</v>
       </c>
       <c r="DE6">
-        <v>0.4414455857359258</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DF6">
-        <v>0.4420211145444947</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DG6">
-        <v>0.4420211145444947</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DH6">
-        <v>0.4439987955873367</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DI6">
-        <v>0.444535813197969</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DJ6">
-        <v>0.455647832690433</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DK6">
-        <v>0.4560200203555693</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DL6">
-        <v>0.4578285133999545</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DM6">
-        <v>0.4580389261707491</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DN6">
-        <v>0.4614948101200763</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DO6">
-        <v>0.4672939817105161</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DP6">
-        <v>0.4757729005372454</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DQ6">
-        <v>0.484395598943258</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DR6">
-        <v>0.4847853596994807</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DS6">
-        <v>0.4957606264190299</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DT6">
-        <v>0.5201842054926042</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DU6">
-        <v>0.5203759338813211</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DV6">
-        <v>0.5242074896897367</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DW6">
-        <v>0.5244674885531879</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DX6">
-        <v>0.5252882254547677</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DY6">
-        <v>0.5252882254547677</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="DZ6">
-        <v>0.5252882254547677</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="EA6">
-        <v>0.5284098154740721</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="EB6">
-        <v>0.5303609035414695</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="EC6">
-        <v>0.5303609035414695</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="ED6">
-        <v>0.5304608890763398</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="EE6">
-        <v>0.5353675965154894</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="EF6">
-        <v>0.5361149330709368</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="EG6">
-        <v>0.5505488275911417</v>
+        <v>0.7326855538130349</v>
       </c>
       <c r="EH6">
-        <v>0.5833620673256149</v>
+        <v>0.7456481885112796</v>
       </c>
       <c r="EI6">
-        <v>0.6023032983643969</v>
+        <v>0.7456481885112796</v>
       </c>
       <c r="EJ6">
-        <v>0.6035089373393074</v>
+        <v>0.7456481885112796</v>
       </c>
       <c r="EK6">
-        <v>0.6035089373393074</v>
+        <v>0.7456481885112796</v>
       </c>
       <c r="EL6">
-        <v>0.6173144266751267</v>
+        <v>0.7456481885112796</v>
       </c>
       <c r="EM6">
-        <v>0.6684501603906683</v>
+        <v>0.8502816208326257</v>
       </c>
       <c r="EN6">
-        <v>0.7262656995599303</v>
+        <v>0.9883353448753052</v>
       </c>
       <c r="EO6">
-        <v>0.7341780557587969</v>
+        <v>0.9883353448753052</v>
       </c>
       <c r="EP6">
-        <v>0.7352315853159741</v>
+        <v>0.9883353448753052</v>
       </c>
       <c r="EQ6">
-        <v>0.741638671023255</v>
+        <v>0.9883353448753052</v>
       </c>
       <c r="ER6">
-        <v>0.7463361306035017</v>
+        <v>0.9883353448753052</v>
       </c>
       <c r="ES6">
-        <v>0.746458670521695</v>
+        <v>0.9883353448753052</v>
       </c>
       <c r="ET6">
-        <v>0.7465986594240313</v>
+        <v>0.9883353448753052</v>
       </c>
       <c r="EU6">
-        <v>0.7504743452516529</v>
+        <v>0.9883353448753052</v>
       </c>
       <c r="EV6">
-        <v>0.7610224531891151</v>
+        <v>0.9883353448753052</v>
       </c>
       <c r="EW6">
-        <v>0.7806589031088562</v>
+        <v>0.9883353448753052</v>
       </c>
       <c r="EX6">
-        <v>0.8092442457527371</v>
+        <v>0.9883353448753052</v>
       </c>
       <c r="EY6">
-        <v>0.841798054746554</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.8493944501883485</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8498579596136228</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8533299296312415</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8663219937224128</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8757060637037792</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8769390395086474</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8769390395086474</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8784437806575783</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8784582884383529</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.8784582884383529</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.8784582884383529</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.8800703386993269</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.8805222232659768</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.8812101822479884</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.8834415335236434</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.889884487933891</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.8928185033970317</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.893638988411369</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.902372126153178</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9109587661334612</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9110097457236637</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9253574778529817</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9322425332266311</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9342821795402937</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.938589297655234</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9397351808221794</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9453906388326374</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9490295458083158</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9490499800034348</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.956611776976526</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9662822122758826</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9712477678812268</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.972817838549778</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9729782374030861</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9775068760176888</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9813752784086304</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9852838223013557</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9852838223013557</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9856875469253937</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.985744436379657</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.985744436379657</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9881334704819513</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9903310925824556</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.99038737477654</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9936720942804375</v>
+        <v>1</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E2">
-        <v>0.0006799695603531852</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5173603968246443</v>
+        <v>0.6158465063359644</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.01277121609928943</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5201260762467131</v>
+        <v>0.5072301608119967</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -10652,16 +10652,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.01664370672525827</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5045835083837165</v>
+        <v>0.5020431059080059</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -10693,16 +10693,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.02423406845349107</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5108330995045017</v>
+        <v>0.575297821041556</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E6">
-        <v>0.02218586806485805</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5201842054926042</v>
+        <v>0.5285502564002893</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>48</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="E2">
-        <v>0.0006799695603531852</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7571303900634302</v>
+        <v>0.7357488785554805</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E3">
-        <v>0.01277121609928943</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7123344324165691</v>
+        <v>0.7043169162433639</v>
       </c>
       <c r="G3">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -10911,16 +10911,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E4">
-        <v>0.01664370672525827</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7215840131702044</v>
+        <v>0.7313098941733306</v>
       </c>
       <c r="G4">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -10952,16 +10952,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E5">
-        <v>0.02423406845349107</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7171458744135277</v>
+        <v>0.7428007038489113</v>
       </c>
       <c r="G5">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>0.02218586806485805</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7262656995599303</v>
+        <v>0.7247531876413075</v>
       </c>
       <c r="G6">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>48</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E2">
-        <v>0.0006799695603531852</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8234936360162612</v>
+        <v>0.8710052044612799</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E3">
-        <v>0.01277121609928943</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8037647314041872</v>
+        <v>0.8631424969691198</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -11170,16 +11170,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E4">
-        <v>0.01664370672525827</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8220628215928764</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -11211,16 +11211,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E5">
-        <v>0.02423406845349107</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8225736811597122</v>
+        <v>0.8137238842676751</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E6">
-        <v>0.02218586806485805</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8092442457527371</v>
+        <v>0.8502816208326257</v>
       </c>
       <c r="G6">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="H6">
         <v>48</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="E2">
-        <v>0.0006799695603531852</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.900964265324125</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="E3">
-        <v>0.01277121609928943</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9052494369811092</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -11429,16 +11429,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="E4">
-        <v>0.01664370672525827</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9073411065066562</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -11470,16 +11470,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="E5">
-        <v>0.02423406845349107</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.902456761750157</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="E6">
-        <v>0.02218586806485805</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.902372126153178</v>
+        <v>0.9883353448753052</v>
       </c>
       <c r="G6">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>48</v>

--- a/on_trucks/Processed_Stand_Alone/48_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/48_455-55R22.xlsx
@@ -674,58 +674,58 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3397647674220748</v>
+        <v>0.2605598194680626</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1551269503383535</v>
+        <v>0.1333392950682297</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.01557568371055711</v>
       </c>
       <c r="H2">
-        <v>0.03627872180749996</v>
+        <v>0.05144960314866772</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001891878845235774</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01102334401284815</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00465182763312846</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.002763541283223176</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.02075608389873396</v>
       </c>
       <c r="O2">
-        <v>0.1945906320132459</v>
+        <v>0.1605308550461695</v>
       </c>
       <c r="P2">
-        <v>0.007081342571702454</v>
+        <v>0.03133180736799802</v>
       </c>
       <c r="Q2">
-        <v>0.1566452629520678</v>
+        <v>0.1343854541377556</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07905311440892566</v>
+        <v>0.0809223338361748</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.01135239219991543</v>
       </c>
       <c r="U2">
-        <v>0.005014330986047883</v>
+        <v>0.02990757964465863</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.002248160795603079</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.0009379242810787525</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.001698601146577091</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.02644487750008224</v>
+        <v>0.04467381447538246</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -784,58 +784,58 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4419809879598977</v>
+        <v>0.3134382243586167</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1796314211106156</v>
+        <v>0.1428383548134479</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.01153690470924683</v>
       </c>
       <c r="H3">
-        <v>0.02814056334670123</v>
+        <v>0.04432734569614721</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01881961104627377</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.004130124788082941</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.0096280222331679</v>
       </c>
       <c r="O3">
-        <v>0.2277154348646199</v>
+        <v>0.1741062794079408</v>
       </c>
       <c r="P3">
-        <v>0.07034234216158107</v>
+        <v>0.07177018864365892</v>
       </c>
       <c r="Q3">
-        <v>0.03490804888536379</v>
+        <v>0.04872808538064579</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.003341768899028189</v>
       </c>
       <c r="S3">
-        <v>0.01094784264770151</v>
+        <v>0.03314731615159337</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00506446169986638</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.02213569322971907</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.02428874147716304</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.01704531394526032</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.004583697710067895</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.005746246653726636</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.0151769952252822</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.006333359023519242</v>
+        <v>0.0301466239310643</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -897,58 +897,58 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3442756950568736</v>
+        <v>0.2371450737113429</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2371571227171417</v>
+        <v>0.1718116493888919</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01155098345208545</v>
       </c>
       <c r="I4">
-        <v>0.03409204164939818</v>
+        <v>0.04795883080954184</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.01566704258236823</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.02330033608720819</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01147911876082595</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.03471522058653918</v>
+        <v>0.04833891815611251</v>
       </c>
       <c r="P4">
-        <v>0.192559964389379</v>
+        <v>0.1446110901864938</v>
       </c>
       <c r="Q4">
-        <v>0.0602803195828915</v>
+        <v>0.06393150330817049</v>
       </c>
       <c r="R4">
-        <v>0.07162770707466089</v>
+        <v>0.07085246636581628</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.02611413669649911</v>
       </c>
       <c r="T4">
-        <v>0.02111007772465678</v>
+        <v>0.04004091201069983</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.009376289962775033</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.02406257554946404</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.00916444107626488</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.01392814647267863</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.0009503843313881941</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.004181851218459195</v>
+        <v>0.02971610109137296</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1007,58 +1007,58 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4128094834521216</v>
+        <v>0.2713070837673133</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2385025157053878</v>
+        <v>0.1681218698637197</v>
       </c>
       <c r="H5">
-        <v>0.0009215673708739964</v>
+        <v>0.02748009696032527</v>
       </c>
       <c r="I5">
-        <v>0.04153610985733003</v>
+        <v>0.05152285502235969</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.007275039541223416</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.02424184661209161</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.003825665148053303</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.04730026978197151</v>
+        <v>0.054935088523334</v>
       </c>
       <c r="P5">
-        <v>0.1475975341458309</v>
+        <v>0.1143084733691273</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.02492813296486079</v>
       </c>
       <c r="R5">
-        <v>0.09693375641999971</v>
+        <v>0.08431682811602485</v>
       </c>
       <c r="S5">
-        <v>0.003631215666487725</v>
+        <v>0.02908413862659222</v>
       </c>
       <c r="T5">
-        <v>0.00706104125870681</v>
+        <v>0.03111450661451666</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.01322504805457976</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.02538503571592458</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1070,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.0001723264425930052</v>
       </c>
       <c r="AA5">
-        <v>0.003706506341289998</v>
+        <v>0.02912870875757922</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1085,22 +1085,22 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.0002384894648214687</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.0008359842936227797</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.004596580553926574</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.01343835554110361</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.02051784604630679</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2355107438981001</v>
+        <v>0.1924368212432876</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09855863039227858</v>
+        <v>0.09506947079763566</v>
       </c>
       <c r="G6">
-        <v>0.06680669417788361</v>
+        <v>0.07249514301565829</v>
       </c>
       <c r="H6">
-        <v>0.09097254663960415</v>
+        <v>0.08967607557102369</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1144,28 +1144,28 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.1953729334632563</v>
+        <v>0.1639004799288875</v>
       </c>
       <c r="O6">
-        <v>0.2043641727941662</v>
+        <v>0.1702928832913681</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.01351656017337642</v>
+        <v>0.03460803766118675</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.005820300075650163</v>
       </c>
       <c r="S6">
-        <v>0.02976041569114785</v>
+        <v>0.04615675445203903</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.001701107425599377</v>
       </c>
       <c r="U6">
-        <v>0.06513730277018684</v>
+        <v>0.07130827401405458</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.01686878650975714</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1195,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.002893553666939558</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.009942521052731577</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.01032072745644992</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.01650906383773083</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1347,103 +1347,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3397647674220748</v>
+        <v>0.2605598194680626</v>
       </c>
       <c r="E2">
-        <v>0.3397647674220748</v>
+        <v>0.2605598194680626</v>
       </c>
       <c r="F2">
-        <v>0.4948917177604283</v>
+        <v>0.3938991145362922</v>
       </c>
       <c r="G2">
-        <v>0.4948917177604283</v>
+        <v>0.4094747982468493</v>
       </c>
       <c r="H2">
-        <v>0.5311704395679282</v>
+        <v>0.460924401395517</v>
       </c>
       <c r="I2">
-        <v>0.5311704395679282</v>
+        <v>0.4628162802407528</v>
       </c>
       <c r="J2">
-        <v>0.5311704395679282</v>
+        <v>0.473839624253601</v>
       </c>
       <c r="K2">
-        <v>0.5311704395679282</v>
+        <v>0.4784914518867294</v>
       </c>
       <c r="L2">
-        <v>0.5311704395679282</v>
+        <v>0.4812549931699526</v>
       </c>
       <c r="M2">
-        <v>0.5311704395679282</v>
+        <v>0.4812549931699526</v>
       </c>
       <c r="N2">
-        <v>0.5311704395679282</v>
+        <v>0.5020110770686866</v>
       </c>
       <c r="O2">
-        <v>0.7257610715811741</v>
+        <v>0.6625419321148561</v>
       </c>
       <c r="P2">
-        <v>0.7328424141528765</v>
+        <v>0.6938737394828541</v>
       </c>
       <c r="Q2">
-        <v>0.8894876771049443</v>
+        <v>0.8282591936206097</v>
       </c>
       <c r="R2">
-        <v>0.8894876771049443</v>
+        <v>0.8282591936206097</v>
       </c>
       <c r="S2">
-        <v>0.96854079151387</v>
+        <v>0.9091815274567845</v>
       </c>
       <c r="T2">
-        <v>0.96854079151387</v>
+        <v>0.9205339196567</v>
       </c>
       <c r="U2">
-        <v>0.9735551224999178</v>
+        <v>0.9504414993013586</v>
       </c>
       <c r="V2">
-        <v>0.9735551224999178</v>
+        <v>0.9504414993013586</v>
       </c>
       <c r="W2">
-        <v>0.9735551224999178</v>
+        <v>0.9504414993013586</v>
       </c>
       <c r="X2">
-        <v>0.9735551224999178</v>
+        <v>0.9504414993013586</v>
       </c>
       <c r="Y2">
-        <v>0.9735551224999178</v>
+        <v>0.9504414993013586</v>
       </c>
       <c r="Z2">
-        <v>0.9735551224999178</v>
+        <v>0.9526896600969617</v>
       </c>
       <c r="AA2">
-        <v>0.9735551224999178</v>
+        <v>0.9526896600969617</v>
       </c>
       <c r="AB2">
-        <v>0.9735551224999178</v>
+        <v>0.9526896600969617</v>
       </c>
       <c r="AC2">
-        <v>0.9735551224999178</v>
+        <v>0.9526896600969617</v>
       </c>
       <c r="AD2">
-        <v>0.9735551224999178</v>
+        <v>0.9526896600969617</v>
       </c>
       <c r="AE2">
-        <v>0.9735551224999178</v>
+        <v>0.9536275843780404</v>
       </c>
       <c r="AF2">
-        <v>0.9735551224999178</v>
+        <v>0.9553261855246175</v>
       </c>
       <c r="AG2">
-        <v>0.9735551224999178</v>
+        <v>0.9553261855246175</v>
       </c>
       <c r="AH2">
-        <v>0.9735551224999178</v>
+        <v>0.9553261855246175</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1457,97 +1457,97 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4419809879598977</v>
+        <v>0.3134382243586167</v>
       </c>
       <c r="E3">
-        <v>0.4419809879598977</v>
+        <v>0.3134382243586167</v>
       </c>
       <c r="F3">
-        <v>0.6216124090705133</v>
+        <v>0.4562765791720647</v>
       </c>
       <c r="G3">
-        <v>0.6216124090705133</v>
+        <v>0.4678134838813115</v>
       </c>
       <c r="H3">
-        <v>0.6497529724172145</v>
+        <v>0.5121408295774588</v>
       </c>
       <c r="I3">
-        <v>0.6497529724172145</v>
+        <v>0.5121408295774588</v>
       </c>
       <c r="J3">
-        <v>0.6497529724172145</v>
+        <v>0.5309604406237325</v>
       </c>
       <c r="K3">
-        <v>0.6497529724172145</v>
+        <v>0.5309604406237325</v>
       </c>
       <c r="L3">
-        <v>0.6497529724172145</v>
+        <v>0.5350905654118154</v>
       </c>
       <c r="M3">
-        <v>0.6497529724172145</v>
+        <v>0.5350905654118154</v>
       </c>
       <c r="N3">
-        <v>0.6497529724172145</v>
+        <v>0.5447185876449834</v>
       </c>
       <c r="O3">
-        <v>0.8774684072818344</v>
+        <v>0.7188248670529243</v>
       </c>
       <c r="P3">
-        <v>0.9478107494434155</v>
+        <v>0.7905950556965832</v>
       </c>
       <c r="Q3">
-        <v>0.9827187983287793</v>
+        <v>0.8393231410772289</v>
       </c>
       <c r="R3">
-        <v>0.9827187983287793</v>
+        <v>0.8426649099762571</v>
       </c>
       <c r="S3">
-        <v>0.9936666409764808</v>
+        <v>0.8758122261278505</v>
       </c>
       <c r="T3">
-        <v>0.9936666409764808</v>
+        <v>0.8808766878277169</v>
       </c>
       <c r="U3">
-        <v>0.9936666409764808</v>
+        <v>0.903012381057436</v>
       </c>
       <c r="V3">
-        <v>0.9936666409764808</v>
+        <v>0.903012381057436</v>
       </c>
       <c r="W3">
-        <v>0.9936666409764808</v>
+        <v>0.903012381057436</v>
       </c>
       <c r="X3">
-        <v>0.9936666409764808</v>
+        <v>0.9273011225345991</v>
       </c>
       <c r="Y3">
-        <v>0.9936666409764808</v>
+        <v>0.9273011225345991</v>
       </c>
       <c r="Z3">
-        <v>0.9936666409764808</v>
+        <v>0.9443464364798594</v>
       </c>
       <c r="AA3">
-        <v>0.9936666409764808</v>
+        <v>0.9443464364798594</v>
       </c>
       <c r="AB3">
-        <v>0.9936666409764808</v>
+        <v>0.9489301341899273</v>
       </c>
       <c r="AC3">
-        <v>0.9936666409764808</v>
+        <v>0.9546763808436539</v>
       </c>
       <c r="AD3">
-        <v>0.9936666409764808</v>
+        <v>0.9698533760689361</v>
       </c>
       <c r="AE3">
-        <v>0.9936666409764808</v>
+        <v>0.9698533760689361</v>
       </c>
       <c r="AF3">
-        <v>0.9936666409764808</v>
+        <v>0.9698533760689361</v>
       </c>
       <c r="AG3">
-        <v>0.9936666409764808</v>
+        <v>0.9698533760689361</v>
       </c>
       <c r="AH3">
-        <v>0.9936666409764808</v>
+        <v>0.9698533760689361</v>
       </c>
       <c r="AI3">
         <v>1</v>
@@ -1570,97 +1570,97 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3442756950568736</v>
+        <v>0.2371450737113429</v>
       </c>
       <c r="F4">
-        <v>0.3442756950568736</v>
+        <v>0.2371450737113429</v>
       </c>
       <c r="G4">
-        <v>0.5814328177740153</v>
+        <v>0.4089567231002348</v>
       </c>
       <c r="H4">
-        <v>0.5814328177740153</v>
+        <v>0.4205077065523203</v>
       </c>
       <c r="I4">
-        <v>0.6155248594234135</v>
+        <v>0.4684665373618621</v>
       </c>
       <c r="J4">
-        <v>0.6155248594234135</v>
+        <v>0.4684665373618621</v>
       </c>
       <c r="K4">
-        <v>0.6155248594234135</v>
+        <v>0.4841335799442303</v>
       </c>
       <c r="L4">
-        <v>0.6155248594234135</v>
+        <v>0.5074339160314385</v>
       </c>
       <c r="M4">
-        <v>0.6155248594234135</v>
+        <v>0.5189130347922645</v>
       </c>
       <c r="N4">
-        <v>0.6155248594234135</v>
+        <v>0.5189130347922645</v>
       </c>
       <c r="O4">
-        <v>0.6502400800099527</v>
+        <v>0.5672519529483769</v>
       </c>
       <c r="P4">
-        <v>0.8428000443993318</v>
+        <v>0.7118630431348707</v>
       </c>
       <c r="Q4">
-        <v>0.9030803639822232</v>
+        <v>0.7757945464430411</v>
       </c>
       <c r="R4">
-        <v>0.9747080710568842</v>
+        <v>0.8466470128088575</v>
       </c>
       <c r="S4">
-        <v>0.9747080710568842</v>
+        <v>0.8727611495053565</v>
       </c>
       <c r="T4">
-        <v>0.995818148781541</v>
+        <v>0.9128020615160564</v>
       </c>
       <c r="U4">
-        <v>0.995818148781541</v>
+        <v>0.9221783514788314</v>
       </c>
       <c r="V4">
-        <v>0.995818148781541</v>
+        <v>0.9462409270282954</v>
       </c>
       <c r="W4">
-        <v>0.995818148781541</v>
+        <v>0.9462409270282954</v>
       </c>
       <c r="X4">
-        <v>0.995818148781541</v>
+        <v>0.9462409270282954</v>
       </c>
       <c r="Y4">
-        <v>0.995818148781541</v>
+        <v>0.9462409270282954</v>
       </c>
       <c r="Z4">
-        <v>0.995818148781541</v>
+        <v>0.9462409270282954</v>
       </c>
       <c r="AA4">
-        <v>0.995818148781541</v>
+        <v>0.9554053681045603</v>
       </c>
       <c r="AB4">
-        <v>0.995818148781541</v>
+        <v>0.9554053681045603</v>
       </c>
       <c r="AC4">
-        <v>0.995818148781541</v>
+        <v>0.9554053681045603</v>
       </c>
       <c r="AD4">
-        <v>0.995818148781541</v>
+        <v>0.9554053681045603</v>
       </c>
       <c r="AE4">
-        <v>0.995818148781541</v>
+        <v>0.9693335145772389</v>
       </c>
       <c r="AF4">
-        <v>0.995818148781541</v>
+        <v>0.9702838989086271</v>
       </c>
       <c r="AG4">
-        <v>0.995818148781541</v>
+        <v>0.9702838989086271</v>
       </c>
       <c r="AH4">
-        <v>0.995818148781541</v>
+        <v>0.9702838989086271</v>
       </c>
       <c r="AI4">
-        <v>0.995818148781541</v>
+        <v>0.9702838989086271</v>
       </c>
       <c r="AJ4">
         <v>1</v>
@@ -1680,100 +1680,100 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4128094834521216</v>
+        <v>0.2713070837673133</v>
       </c>
       <c r="F5">
-        <v>0.4128094834521216</v>
+        <v>0.2713070837673133</v>
       </c>
       <c r="G5">
-        <v>0.6513119991575094</v>
+        <v>0.4394289536310331</v>
       </c>
       <c r="H5">
-        <v>0.6522335665283834</v>
+        <v>0.4669090505913583</v>
       </c>
       <c r="I5">
-        <v>0.6937696763857134</v>
+        <v>0.518431905613718</v>
       </c>
       <c r="J5">
-        <v>0.6937696763857134</v>
+        <v>0.518431905613718</v>
       </c>
       <c r="K5">
-        <v>0.6937696763857134</v>
+        <v>0.5257069451549414</v>
       </c>
       <c r="L5">
-        <v>0.6937696763857134</v>
+        <v>0.549948791767033</v>
       </c>
       <c r="M5">
-        <v>0.6937696763857134</v>
+        <v>0.5537744569150863</v>
       </c>
       <c r="N5">
-        <v>0.6937696763857134</v>
+        <v>0.5537744569150863</v>
       </c>
       <c r="O5">
-        <v>0.741069946167685</v>
+        <v>0.6087095454384203</v>
       </c>
       <c r="P5">
-        <v>0.8886674803135158</v>
+        <v>0.7230180188075476</v>
       </c>
       <c r="Q5">
-        <v>0.8886674803135158</v>
+        <v>0.7479461517724084</v>
       </c>
       <c r="R5">
-        <v>0.9856012367335155</v>
+        <v>0.8322629798884332</v>
       </c>
       <c r="S5">
-        <v>0.9892324524000032</v>
+        <v>0.8613471185150254</v>
       </c>
       <c r="T5">
-        <v>0.99629349365871</v>
+        <v>0.8924616251295421</v>
       </c>
       <c r="U5">
-        <v>0.99629349365871</v>
+        <v>0.9056866731841219</v>
       </c>
       <c r="V5">
-        <v>0.99629349365871</v>
+        <v>0.9310717089000464</v>
       </c>
       <c r="W5">
-        <v>0.99629349365871</v>
+        <v>0.9310717089000464</v>
       </c>
       <c r="X5">
-        <v>0.99629349365871</v>
+        <v>0.9310717089000464</v>
       </c>
       <c r="Y5">
-        <v>0.99629349365871</v>
+        <v>0.9310717089000464</v>
       </c>
       <c r="Z5">
-        <v>0.99629349365871</v>
+        <v>0.9312440353426394</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9603727441002187</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9603727441002187</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9603727441002187</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9603727441002187</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9606112335650402</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9614472178586629</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9660437984125895</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9794821539536931</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9794821539536931</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1787,103 +1787,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2355107438981001</v>
+        <v>0.1924368212432876</v>
       </c>
       <c r="E6">
-        <v>0.2355107438981001</v>
+        <v>0.1924368212432876</v>
       </c>
       <c r="F6">
-        <v>0.3340693742903786</v>
+        <v>0.2875062920409233</v>
       </c>
       <c r="G6">
-        <v>0.4008760684682622</v>
+        <v>0.3600014350565816</v>
       </c>
       <c r="H6">
-        <v>0.4918486151078664</v>
+        <v>0.4496775106276052</v>
       </c>
       <c r="I6">
-        <v>0.4918486151078664</v>
+        <v>0.4496775106276052</v>
       </c>
       <c r="J6">
-        <v>0.4918486151078664</v>
+        <v>0.4496775106276052</v>
       </c>
       <c r="K6">
-        <v>0.4918486151078664</v>
+        <v>0.4496775106276052</v>
       </c>
       <c r="L6">
-        <v>0.4918486151078664</v>
+        <v>0.4496775106276052</v>
       </c>
       <c r="M6">
-        <v>0.4918486151078664</v>
+        <v>0.4496775106276052</v>
       </c>
       <c r="N6">
-        <v>0.6872215485711226</v>
+        <v>0.6135779905564928</v>
       </c>
       <c r="O6">
-        <v>0.8915857213652888</v>
+        <v>0.7838708738478608</v>
       </c>
       <c r="P6">
-        <v>0.8915857213652888</v>
+        <v>0.7838708738478608</v>
       </c>
       <c r="Q6">
-        <v>0.9051022815386652</v>
+        <v>0.8184789115090475</v>
       </c>
       <c r="R6">
-        <v>0.9051022815386652</v>
+        <v>0.8242992115846977</v>
       </c>
       <c r="S6">
-        <v>0.9348626972298131</v>
+        <v>0.8704559660367367</v>
       </c>
       <c r="T6">
-        <v>0.9348626972298131</v>
+        <v>0.8721570734623361</v>
       </c>
       <c r="U6">
-        <v>0.9999999999999999</v>
+        <v>0.9434653474763907</v>
       </c>
       <c r="V6">
-        <v>0.9999999999999999</v>
+        <v>0.9434653474763907</v>
       </c>
       <c r="W6">
-        <v>0.9999999999999999</v>
+        <v>0.9434653474763907</v>
       </c>
       <c r="X6">
-        <v>0.9999999999999999</v>
+        <v>0.9434653474763907</v>
       </c>
       <c r="Y6">
-        <v>0.9999999999999999</v>
+        <v>0.9434653474763907</v>
       </c>
       <c r="Z6">
-        <v>0.9999999999999999</v>
+        <v>0.9603341339861478</v>
       </c>
       <c r="AA6">
-        <v>0.9999999999999999</v>
+        <v>0.9603341339861478</v>
       </c>
       <c r="AB6">
-        <v>0.9999999999999999</v>
+        <v>0.9603341339861478</v>
       </c>
       <c r="AC6">
-        <v>0.9999999999999999</v>
+        <v>0.9603341339861478</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999999</v>
+        <v>0.9603341339861478</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999999</v>
+        <v>0.9632276876530873</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>0.9731702087058188</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>0.9834909361622688</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>0.9834909361622688</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1951,16 +1951,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5311704395679282</v>
+        <v>0.5020110770686866</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -1992,16 +1992,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6216124090705133</v>
+        <v>0.5121408295774588</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -2033,16 +2033,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5814328177740153</v>
+        <v>0.5074339160314385</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -2074,16 +2074,16 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.518431905613718</v>
+      </c>
+      <c r="G5">
         <v>6</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.6513119991575094</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6872215485711226</v>
+        <v>0.6135779905564928</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -2210,16 +2210,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7257610715811741</v>
+        <v>0.8282591936206097</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>48</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8774684072818344</v>
+        <v>0.7188248670529243</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8428000443993318</v>
+        <v>0.7118630431348707</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -2333,16 +2333,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.741069946167685</v>
+        <v>0.7230180188075476</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8915857213652888</v>
+        <v>0.7838708738478608</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8894876771049443</v>
+        <v>0.8282591936206097</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -2510,16 +2510,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8774684072818344</v>
+        <v>0.8393231410772289</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -2551,16 +2551,16 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.8466470128088575</v>
+      </c>
+      <c r="G4">
         <v>15</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8428000443993318</v>
-      </c>
-      <c r="G4">
-        <v>13</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -2592,16 +2592,16 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.8322629798884332</v>
+      </c>
+      <c r="G5">
         <v>15</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8886674803135158</v>
-      </c>
-      <c r="G5">
-        <v>13</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -2633,16 +2633,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8915857213652888</v>
+        <v>0.8184789115090475</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>48</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.96854079151387</v>
+        <v>0.9091815274567845</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -2769,16 +2769,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9478107494434155</v>
+        <v>0.903012381057436</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>48</v>
@@ -2810,16 +2810,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9030803639822232</v>
+        <v>0.9128020615160564</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>48</v>
@@ -2851,16 +2851,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9856012367335155</v>
+        <v>0.9056866731841219</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -2892,16 +2892,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9051022815386652</v>
+        <v>0.9434653474763907</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>48</v>
